--- a/data_surveys.xlsx
+++ b/data_surveys.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacobo Morales\piaproba\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E771388B-4C51-454E-88CF-E257887511B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D9A70B-1878-4178-AD47-DDA928883F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IPAQ Short Form Scoring" sheetId="5" r:id="rId1"/>
+    <sheet name="Registro de usuarios" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'IPAQ Short Form Scoring'!$A$2:$AD$179</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>Days</t>
   </si>
@@ -251,6 +252,30 @@
   <si>
     <t>Walking (min/d)</t>
   </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Bachillerato</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Semestre</t>
+  </si>
+  <si>
+    <t>Estado Civil</t>
+  </si>
+  <si>
+    <t>Trabajo</t>
+  </si>
+  <si>
+    <t>Etnia</t>
+  </si>
 </sst>
 </file>
 
@@ -409,7 +434,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -634,6 +659,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -641,7 +681,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -767,11 +807,50 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -780,34 +859,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -822,12 +880,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -851,39 +903,31 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8" hidden="1"/>
@@ -1201,7 +1245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL862"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B858" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="84" workbookViewId="0">
+    <sheetView topLeftCell="B858" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="84" workbookViewId="0">
       <selection activeCell="G846" sqref="G846"/>
     </sheetView>
   </sheetViews>
@@ -1237,97 +1281,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="64" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="55" t="s">
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="42" t="s">
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="75" t="s">
         <v>58</v>
       </c>
       <c r="AB1" s="24"/>
     </row>
     <row r="2" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
-      <c r="B2" s="66" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67" t="s">
+      <c r="E2" s="71"/>
+      <c r="F2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="72" t="s">
+      <c r="G2" s="71"/>
+      <c r="H2" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="J2" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="68" t="s">
+      <c r="K2" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="61" t="s">
+      <c r="L2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="46" t="s">
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="46" t="s">
+      <c r="R2" s="61"/>
+      <c r="S2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="47"/>
-      <c r="U2" s="52" t="s">
+      <c r="T2" s="61"/>
+      <c r="U2" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="46" t="s">
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="42"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="75"/>
       <c r="AB2" s="24"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
@@ -1340,83 +1384,83 @@
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="62" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="61" t="s">
+      <c r="M3" s="67"/>
+      <c r="N3" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="42"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="75"/>
       <c r="AB3" s="24"/>
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="73" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="42"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="75"/>
       <c r="AB4" s="24"/>
       <c r="AK4" s="2"/>
     </row>
     <row r="5" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="56"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="17" t="s">
         <v>0</v>
       </c>
@@ -1438,56 +1482,56 @@
       <c r="H5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="70" t="s">
+      <c r="I5" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="70" t="s">
+      <c r="K5" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="R5" s="50" t="s">
+      <c r="L5" s="51"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="44" t="s">
+      <c r="S5" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="T5" s="50" t="s">
+      <c r="T5" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="44" t="s">
+      <c r="U5" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="48" t="s">
+      <c r="V5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="48" t="s">
+      <c r="W5" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="X5" s="50" t="s">
+      <c r="X5" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="Y5" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="48" t="s">
+      <c r="Y5" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="AA5" s="42"/>
+      <c r="AA5" s="75"/>
       <c r="AB5" s="24"/>
       <c r="AK5" s="2"/>
     </row>
     <row r="6" spans="1:38" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="57"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="13" t="s">
         <v>40</v>
       </c>
@@ -1509,25 +1553,25 @@
       <c r="H6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="43"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="76"/>
       <c r="AB6" s="24"/>
       <c r="AK6" s="2"/>
     </row>
@@ -1623,79 +1667,79 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="I8" s="20">
-        <f t="shared" ref="I8:I36" si="0">IF(C8&gt;180,"180", IF(C8&lt;10,0,(C8)))</f>
+        <f t="shared" ref="I8:I35" si="0">IF(C8&gt;180,"180", IF(C8&lt;10,0,(C8)))</f>
         <v>0</v>
       </c>
       <c r="J8" s="20">
-        <f t="shared" ref="J8:J36" si="1">IF(E8&gt;180,"180", IF(E8&lt;10,0,(E8)))</f>
+        <f t="shared" ref="J8:J35" si="1">IF(E8&gt;180,"180", IF(E8&lt;10,0,(E8)))</f>
         <v>0</v>
       </c>
       <c r="K8" s="21">
-        <f t="shared" ref="K8:K36" si="2">IF(G8&gt;180,"180", IF(G8&lt;10,0,(G8)))</f>
+        <f t="shared" ref="K8:K35" si="2">IF(G8&gt;180,"180", IF(G8&lt;10,0,(G8)))</f>
         <v>0</v>
       </c>
       <c r="L8" s="22" t="str">
-        <f t="shared" ref="L8:L36" si="3">IF(AND(B8&gt;=3,X8&gt;=1500),"Y","N")</f>
+        <f t="shared" ref="L8:L35" si="3">IF(AND(B8&gt;=3,X8&gt;=1500),"Y","N")</f>
         <v>N</v>
       </c>
       <c r="M8" s="23" t="str">
-        <f t="shared" ref="M8:M36" si="4">IF(AND((B8+D8+F8)&gt;=7,X8&gt;=3000),"Y","N")</f>
+        <f t="shared" ref="M8:M35" si="4">IF(AND((B8+D8+F8)&gt;=7,X8&gt;=3000),"Y","N")</f>
         <v>N</v>
       </c>
       <c r="N8" s="22" t="str">
-        <f t="shared" ref="N8:N36" si="5">IF(AND(B8&gt;=3,C8&gt;=20),"Y","N")</f>
+        <f t="shared" ref="N8:N35" si="5">IF(AND(B8&gt;=3,C8&gt;=20),"Y","N")</f>
         <v>N</v>
       </c>
       <c r="O8" s="22" t="str">
-        <f t="shared" ref="O8:O36" si="6">IF(AND(E8&gt;=30,G8&gt;=30,(D8+F8)&gt;=5),"Y",IF(AND(E8&gt;=30,D8&gt;=5),"Y",IF(AND(G8&gt;=30,F8&gt;=5),"Y","N")))</f>
+        <f t="shared" ref="O8:O35" si="6">IF(AND(E8&gt;=30,G8&gt;=30,(D8+F8)&gt;=5),"Y",IF(AND(E8&gt;=30,D8&gt;=5),"Y",IF(AND(G8&gt;=30,F8&gt;=5),"Y","N")))</f>
         <v>N</v>
       </c>
       <c r="P8" s="23" t="str">
-        <f t="shared" ref="P8:P36" si="7">IF(AND((B8+D8+F8)&gt;=5,X8&gt;=600),"Y","N")</f>
+        <f t="shared" ref="P8:P35" si="7">IF(AND((B8+D8+F8)&gt;=5,X8&gt;=600),"Y","N")</f>
         <v>N</v>
       </c>
       <c r="Q8" s="4">
-        <f t="shared" ref="Q8:Q36" si="8">SUM(B8+D8+F8)</f>
+        <f t="shared" ref="Q8:Q35" si="8">SUM(B8+D8+F8)</f>
         <v>0</v>
       </c>
       <c r="R8" s="5">
-        <f t="shared" ref="R8:R36" si="9">IF(Q8&lt;=7,Q8,7)</f>
+        <f t="shared" ref="R8:R35" si="9">IF(Q8&lt;=7,Q8,7)</f>
         <v>0</v>
       </c>
       <c r="S8" s="4">
-        <f t="shared" ref="S8:S36" si="10">SUM(C8+E8+G8)</f>
+        <f t="shared" ref="S8:S35" si="10">SUM(C8+E8+G8)</f>
         <v>0</v>
       </c>
       <c r="T8" s="5">
-        <f t="shared" ref="T8:T36" si="11">SUM(I8+J8+K8)</f>
+        <f t="shared" ref="T8:T35" si="11">SUM(I8+J8+K8)</f>
         <v>0</v>
       </c>
       <c r="U8" s="4">
-        <f t="shared" ref="U8:U36" si="12">8*I8*B8</f>
+        <f t="shared" ref="U8:U35" si="12">8*I8*B8</f>
         <v>0</v>
       </c>
       <c r="V8" s="4">
-        <f t="shared" ref="V8:V36" si="13">4*J8*D8</f>
+        <f t="shared" ref="V8:V35" si="13">4*J8*D8</f>
         <v>0</v>
       </c>
       <c r="W8" s="4">
-        <f t="shared" ref="W8:W36" si="14">3.3*K8*F8</f>
+        <f t="shared" ref="W8:W35" si="14">3.3*K8*F8</f>
         <v>0</v>
       </c>
       <c r="X8" s="3">
-        <f t="shared" ref="X8:X36" si="15">SUM(U8:W8)</f>
+        <f t="shared" ref="X8:X35" si="15">SUM(U8:W8)</f>
         <v>0</v>
       </c>
       <c r="Y8" s="4" t="str">
-        <f t="shared" ref="Y8:Y36" si="16">IF(OR(L8="Y",M8="Y"),"High",IF(OR(N8="Y",O8="Y",P8="Y"),"Moderate","Low"))</f>
+        <f t="shared" ref="Y8:Y35" si="16">IF(OR(L8="Y",M8="Y"),"High",IF(OR(N8="Y",O8="Y",P8="Y"),"Moderate","Low"))</f>
         <v>Low</v>
       </c>
       <c r="Z8" s="5" t="str">
-        <f t="shared" ref="Z8:Z36" si="17">IF(Y8="Low","1",IF(Y8="Moderate","2","3"))</f>
+        <f t="shared" ref="Z8:Z35" si="17">IF(Y8="Low","1",IF(Y8="Moderate","2","3"))</f>
         <v>1</v>
       </c>
       <c r="AA8" s="41" t="str">
-        <f t="shared" ref="AA8:AA36" si="18">IF(S8&gt;960,"Y","N")</f>
+        <f t="shared" ref="AA8:AA35" si="18">IF(S8&gt;960,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="AC8" s="32" t="s">
@@ -67342,7 +67386,7 @@
       </c>
     </row>
     <row r="846" spans="7:27" x14ac:dyDescent="0.3">
-      <c r="G846" s="80"/>
+      <c r="G846" s="42"/>
       <c r="I846" s="20">
         <f t="shared" si="247"/>
         <v>0</v>
@@ -68670,18 +68714,15 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="Y2:Z4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="AA1:AA6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="U2:X4"/>
+    <mergeCell ref="Q1:Z1"/>
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="L2:P2"/>
@@ -68698,15 +68739,18 @@
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="AA1:AA6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="U2:X4"/>
-    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="Y2:Z4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="Q2:R4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -68717,4 +68761,2143 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D293088-2130-428D-B84E-279361809554}">
+  <dimension ref="A1:H209"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="81" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="82"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="82"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="82"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="82"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="82"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="82"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="82"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="82"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="82"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="82"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="82"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="82"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="82"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="82"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="82"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="82"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="82"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="82"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="82"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="82"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="82"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="82"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="82"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="82"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="82"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="82"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="82"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="82"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="82"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="82"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="82"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="82"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="82"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="82"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="82"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="82"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="82"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="82"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="82"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="82"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="82"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="82"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="82"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="82"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="82"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="82"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="82"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="82"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="82"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="82"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="82"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="82"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="82"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="82"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="82"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="82"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="82"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="82"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="82"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="82"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="82"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="82"/>
+      <c r="G61" s="82"/>
+      <c r="H61" s="82"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="82"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="82"/>
+      <c r="D62" s="82"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="82"/>
+      <c r="G62" s="82"/>
+      <c r="H62" s="82"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="82"/>
+      <c r="B63" s="82"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="82"/>
+      <c r="H63" s="82"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="82"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="82"/>
+      <c r="H64" s="82"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="82"/>
+      <c r="B65" s="82"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="82"/>
+      <c r="H65" s="82"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="82"/>
+      <c r="B66" s="82"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="82"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="82"/>
+      <c r="H66" s="82"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="82"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="82"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="82"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="82"/>
+      <c r="H68" s="82"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="82"/>
+      <c r="B69" s="82"/>
+      <c r="C69" s="82"/>
+      <c r="D69" s="82"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="82"/>
+      <c r="H69" s="82"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="82"/>
+      <c r="B70" s="82"/>
+      <c r="C70" s="82"/>
+      <c r="D70" s="82"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="82"/>
+      <c r="H70" s="82"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="82"/>
+      <c r="B71" s="82"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="82"/>
+      <c r="H71" s="82"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="82"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="82"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="82"/>
+      <c r="H72" s="82"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="82"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="82"/>
+      <c r="E73" s="82"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="82"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="82"/>
+      <c r="B74" s="82"/>
+      <c r="C74" s="82"/>
+      <c r="D74" s="82"/>
+      <c r="E74" s="82"/>
+      <c r="F74" s="82"/>
+      <c r="G74" s="82"/>
+      <c r="H74" s="82"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="82"/>
+      <c r="B75" s="82"/>
+      <c r="C75" s="82"/>
+      <c r="D75" s="82"/>
+      <c r="E75" s="82"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="82"/>
+      <c r="H75" s="82"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="82"/>
+      <c r="B76" s="82"/>
+      <c r="C76" s="82"/>
+      <c r="D76" s="82"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="82"/>
+      <c r="H76" s="82"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="82"/>
+      <c r="B77" s="82"/>
+      <c r="C77" s="82"/>
+      <c r="D77" s="82"/>
+      <c r="E77" s="82"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="82"/>
+      <c r="H77" s="82"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="82"/>
+      <c r="B78" s="82"/>
+      <c r="C78" s="82"/>
+      <c r="D78" s="82"/>
+      <c r="E78" s="82"/>
+      <c r="F78" s="82"/>
+      <c r="G78" s="82"/>
+      <c r="H78" s="82"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="82"/>
+      <c r="B79" s="82"/>
+      <c r="C79" s="82"/>
+      <c r="D79" s="82"/>
+      <c r="E79" s="82"/>
+      <c r="F79" s="82"/>
+      <c r="G79" s="82"/>
+      <c r="H79" s="82"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="82"/>
+      <c r="B80" s="82"/>
+      <c r="C80" s="82"/>
+      <c r="D80" s="82"/>
+      <c r="E80" s="82"/>
+      <c r="F80" s="82"/>
+      <c r="G80" s="82"/>
+      <c r="H80" s="82"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="82"/>
+      <c r="B81" s="82"/>
+      <c r="C81" s="82"/>
+      <c r="D81" s="82"/>
+      <c r="E81" s="82"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="82"/>
+      <c r="H81" s="82"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="82"/>
+      <c r="B82" s="82"/>
+      <c r="C82" s="82"/>
+      <c r="D82" s="82"/>
+      <c r="E82" s="82"/>
+      <c r="F82" s="82"/>
+      <c r="G82" s="82"/>
+      <c r="H82" s="82"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="82"/>
+      <c r="B83" s="82"/>
+      <c r="C83" s="82"/>
+      <c r="D83" s="82"/>
+      <c r="E83" s="82"/>
+      <c r="F83" s="82"/>
+      <c r="G83" s="82"/>
+      <c r="H83" s="82"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="82"/>
+      <c r="B84" s="82"/>
+      <c r="C84" s="82"/>
+      <c r="D84" s="82"/>
+      <c r="E84" s="82"/>
+      <c r="F84" s="82"/>
+      <c r="G84" s="82"/>
+      <c r="H84" s="82"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="82"/>
+      <c r="B85" s="82"/>
+      <c r="C85" s="82"/>
+      <c r="D85" s="82"/>
+      <c r="E85" s="82"/>
+      <c r="F85" s="82"/>
+      <c r="G85" s="82"/>
+      <c r="H85" s="82"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="82"/>
+      <c r="B86" s="82"/>
+      <c r="C86" s="82"/>
+      <c r="D86" s="82"/>
+      <c r="E86" s="82"/>
+      <c r="F86" s="82"/>
+      <c r="G86" s="82"/>
+      <c r="H86" s="82"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="82"/>
+      <c r="B87" s="82"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="82"/>
+      <c r="H87" s="82"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="82"/>
+      <c r="B88" s="82"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="82"/>
+      <c r="E88" s="82"/>
+      <c r="F88" s="82"/>
+      <c r="G88" s="82"/>
+      <c r="H88" s="82"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="82"/>
+      <c r="B89" s="82"/>
+      <c r="C89" s="82"/>
+      <c r="D89" s="82"/>
+      <c r="E89" s="82"/>
+      <c r="F89" s="82"/>
+      <c r="G89" s="82"/>
+      <c r="H89" s="82"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="82"/>
+      <c r="B90" s="82"/>
+      <c r="C90" s="82"/>
+      <c r="D90" s="82"/>
+      <c r="E90" s="82"/>
+      <c r="F90" s="82"/>
+      <c r="G90" s="82"/>
+      <c r="H90" s="82"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="82"/>
+      <c r="B91" s="82"/>
+      <c r="C91" s="82"/>
+      <c r="D91" s="82"/>
+      <c r="E91" s="82"/>
+      <c r="F91" s="82"/>
+      <c r="G91" s="82"/>
+      <c r="H91" s="82"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="82"/>
+      <c r="B92" s="82"/>
+      <c r="C92" s="82"/>
+      <c r="D92" s="82"/>
+      <c r="E92" s="82"/>
+      <c r="F92" s="82"/>
+      <c r="G92" s="82"/>
+      <c r="H92" s="82"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="82"/>
+      <c r="B93" s="82"/>
+      <c r="C93" s="82"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="82"/>
+      <c r="F93" s="82"/>
+      <c r="G93" s="82"/>
+      <c r="H93" s="82"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="82"/>
+      <c r="B94" s="82"/>
+      <c r="C94" s="82"/>
+      <c r="D94" s="82"/>
+      <c r="E94" s="82"/>
+      <c r="F94" s="82"/>
+      <c r="G94" s="82"/>
+      <c r="H94" s="82"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="82"/>
+      <c r="B95" s="82"/>
+      <c r="C95" s="82"/>
+      <c r="D95" s="82"/>
+      <c r="E95" s="82"/>
+      <c r="F95" s="82"/>
+      <c r="G95" s="82"/>
+      <c r="H95" s="82"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="82"/>
+      <c r="B96" s="82"/>
+      <c r="C96" s="82"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="82"/>
+      <c r="F96" s="82"/>
+      <c r="G96" s="82"/>
+      <c r="H96" s="82"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="82"/>
+      <c r="B97" s="82"/>
+      <c r="C97" s="82"/>
+      <c r="D97" s="82"/>
+      <c r="E97" s="82"/>
+      <c r="F97" s="82"/>
+      <c r="G97" s="82"/>
+      <c r="H97" s="82"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="82"/>
+      <c r="B98" s="82"/>
+      <c r="C98" s="82"/>
+      <c r="D98" s="82"/>
+      <c r="E98" s="82"/>
+      <c r="F98" s="82"/>
+      <c r="G98" s="82"/>
+      <c r="H98" s="82"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="82"/>
+      <c r="B99" s="82"/>
+      <c r="C99" s="82"/>
+      <c r="D99" s="82"/>
+      <c r="E99" s="82"/>
+      <c r="F99" s="82"/>
+      <c r="G99" s="82"/>
+      <c r="H99" s="82"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="82"/>
+      <c r="B100" s="82"/>
+      <c r="C100" s="82"/>
+      <c r="D100" s="82"/>
+      <c r="E100" s="82"/>
+      <c r="F100" s="82"/>
+      <c r="G100" s="82"/>
+      <c r="H100" s="82"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="82"/>
+      <c r="B101" s="82"/>
+      <c r="C101" s="82"/>
+      <c r="D101" s="82"/>
+      <c r="E101" s="82"/>
+      <c r="F101" s="82"/>
+      <c r="G101" s="82"/>
+      <c r="H101" s="82"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="82"/>
+      <c r="B102" s="82"/>
+      <c r="C102" s="82"/>
+      <c r="D102" s="82"/>
+      <c r="E102" s="82"/>
+      <c r="F102" s="82"/>
+      <c r="G102" s="82"/>
+      <c r="H102" s="82"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="82"/>
+      <c r="B103" s="82"/>
+      <c r="C103" s="82"/>
+      <c r="D103" s="82"/>
+      <c r="E103" s="82"/>
+      <c r="F103" s="82"/>
+      <c r="G103" s="82"/>
+      <c r="H103" s="82"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="82"/>
+      <c r="B104" s="82"/>
+      <c r="C104" s="82"/>
+      <c r="D104" s="82"/>
+      <c r="E104" s="82"/>
+      <c r="F104" s="82"/>
+      <c r="G104" s="82"/>
+      <c r="H104" s="82"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="82"/>
+      <c r="B105" s="82"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="82"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="82"/>
+      <c r="H105" s="82"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="82"/>
+      <c r="B106" s="82"/>
+      <c r="C106" s="82"/>
+      <c r="D106" s="82"/>
+      <c r="E106" s="82"/>
+      <c r="F106" s="82"/>
+      <c r="G106" s="82"/>
+      <c r="H106" s="82"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="82"/>
+      <c r="B107" s="82"/>
+      <c r="C107" s="82"/>
+      <c r="D107" s="82"/>
+      <c r="E107" s="82"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="82"/>
+      <c r="H107" s="82"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="82"/>
+      <c r="B108" s="82"/>
+      <c r="C108" s="82"/>
+      <c r="D108" s="82"/>
+      <c r="E108" s="82"/>
+      <c r="F108" s="82"/>
+      <c r="G108" s="82"/>
+      <c r="H108" s="82"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="82"/>
+      <c r="B109" s="82"/>
+      <c r="C109" s="82"/>
+      <c r="D109" s="82"/>
+      <c r="E109" s="82"/>
+      <c r="F109" s="82"/>
+      <c r="G109" s="82"/>
+      <c r="H109" s="82"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="82"/>
+      <c r="B110" s="82"/>
+      <c r="C110" s="82"/>
+      <c r="D110" s="82"/>
+      <c r="E110" s="82"/>
+      <c r="F110" s="82"/>
+      <c r="G110" s="82"/>
+      <c r="H110" s="82"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="82"/>
+      <c r="B111" s="82"/>
+      <c r="C111" s="82"/>
+      <c r="D111" s="82"/>
+      <c r="E111" s="82"/>
+      <c r="F111" s="82"/>
+      <c r="G111" s="82"/>
+      <c r="H111" s="82"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="82"/>
+      <c r="B112" s="82"/>
+      <c r="C112" s="82"/>
+      <c r="D112" s="82"/>
+      <c r="E112" s="82"/>
+      <c r="F112" s="82"/>
+      <c r="G112" s="82"/>
+      <c r="H112" s="82"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="82"/>
+      <c r="B113" s="82"/>
+      <c r="C113" s="82"/>
+      <c r="D113" s="82"/>
+      <c r="E113" s="82"/>
+      <c r="F113" s="82"/>
+      <c r="G113" s="82"/>
+      <c r="H113" s="82"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="82"/>
+      <c r="B114" s="82"/>
+      <c r="C114" s="82"/>
+      <c r="D114" s="82"/>
+      <c r="E114" s="82"/>
+      <c r="F114" s="82"/>
+      <c r="G114" s="82"/>
+      <c r="H114" s="82"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="82"/>
+      <c r="B115" s="82"/>
+      <c r="C115" s="82"/>
+      <c r="D115" s="82"/>
+      <c r="E115" s="82"/>
+      <c r="F115" s="82"/>
+      <c r="G115" s="82"/>
+      <c r="H115" s="82"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="82"/>
+      <c r="B116" s="82"/>
+      <c r="C116" s="82"/>
+      <c r="D116" s="82"/>
+      <c r="E116" s="82"/>
+      <c r="F116" s="82"/>
+      <c r="G116" s="82"/>
+      <c r="H116" s="82"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="82"/>
+      <c r="B117" s="82"/>
+      <c r="C117" s="82"/>
+      <c r="D117" s="82"/>
+      <c r="E117" s="82"/>
+      <c r="F117" s="82"/>
+      <c r="G117" s="82"/>
+      <c r="H117" s="82"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="82"/>
+      <c r="B118" s="82"/>
+      <c r="C118" s="82"/>
+      <c r="D118" s="82"/>
+      <c r="E118" s="82"/>
+      <c r="F118" s="82"/>
+      <c r="G118" s="82"/>
+      <c r="H118" s="82"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="82"/>
+      <c r="B119" s="82"/>
+      <c r="C119" s="82"/>
+      <c r="D119" s="82"/>
+      <c r="E119" s="82"/>
+      <c r="F119" s="82"/>
+      <c r="G119" s="82"/>
+      <c r="H119" s="82"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="82"/>
+      <c r="B120" s="82"/>
+      <c r="C120" s="82"/>
+      <c r="D120" s="82"/>
+      <c r="E120" s="82"/>
+      <c r="F120" s="82"/>
+      <c r="G120" s="82"/>
+      <c r="H120" s="82"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="82"/>
+      <c r="B121" s="82"/>
+      <c r="C121" s="82"/>
+      <c r="D121" s="82"/>
+      <c r="E121" s="82"/>
+      <c r="F121" s="82"/>
+      <c r="G121" s="82"/>
+      <c r="H121" s="82"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="82"/>
+      <c r="B122" s="82"/>
+      <c r="C122" s="82"/>
+      <c r="D122" s="82"/>
+      <c r="E122" s="82"/>
+      <c r="F122" s="82"/>
+      <c r="G122" s="82"/>
+      <c r="H122" s="82"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="82"/>
+      <c r="B123" s="82"/>
+      <c r="C123" s="82"/>
+      <c r="D123" s="82"/>
+      <c r="E123" s="82"/>
+      <c r="F123" s="82"/>
+      <c r="G123" s="82"/>
+      <c r="H123" s="82"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="82"/>
+      <c r="B124" s="82"/>
+      <c r="C124" s="82"/>
+      <c r="D124" s="82"/>
+      <c r="E124" s="82"/>
+      <c r="F124" s="82"/>
+      <c r="G124" s="82"/>
+      <c r="H124" s="82"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="82"/>
+      <c r="B125" s="82"/>
+      <c r="C125" s="82"/>
+      <c r="D125" s="82"/>
+      <c r="E125" s="82"/>
+      <c r="F125" s="82"/>
+      <c r="G125" s="82"/>
+      <c r="H125" s="82"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="82"/>
+      <c r="B126" s="82"/>
+      <c r="C126" s="82"/>
+      <c r="D126" s="82"/>
+      <c r="E126" s="82"/>
+      <c r="F126" s="82"/>
+      <c r="G126" s="82"/>
+      <c r="H126" s="82"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="82"/>
+      <c r="B127" s="82"/>
+      <c r="C127" s="82"/>
+      <c r="D127" s="82"/>
+      <c r="E127" s="82"/>
+      <c r="F127" s="82"/>
+      <c r="G127" s="82"/>
+      <c r="H127" s="82"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="82"/>
+      <c r="B128" s="82"/>
+      <c r="C128" s="82"/>
+      <c r="D128" s="82"/>
+      <c r="E128" s="82"/>
+      <c r="F128" s="82"/>
+      <c r="G128" s="82"/>
+      <c r="H128" s="82"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="82"/>
+      <c r="B129" s="82"/>
+      <c r="C129" s="82"/>
+      <c r="D129" s="82"/>
+      <c r="E129" s="82"/>
+      <c r="F129" s="82"/>
+      <c r="G129" s="82"/>
+      <c r="H129" s="82"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="82"/>
+      <c r="B130" s="82"/>
+      <c r="C130" s="82"/>
+      <c r="D130" s="82"/>
+      <c r="E130" s="82"/>
+      <c r="F130" s="82"/>
+      <c r="G130" s="82"/>
+      <c r="H130" s="82"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="82"/>
+      <c r="B131" s="82"/>
+      <c r="C131" s="82"/>
+      <c r="D131" s="82"/>
+      <c r="E131" s="82"/>
+      <c r="F131" s="82"/>
+      <c r="G131" s="82"/>
+      <c r="H131" s="82"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="82"/>
+      <c r="B132" s="82"/>
+      <c r="C132" s="82"/>
+      <c r="D132" s="82"/>
+      <c r="E132" s="82"/>
+      <c r="F132" s="82"/>
+      <c r="G132" s="82"/>
+      <c r="H132" s="82"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="82"/>
+      <c r="B133" s="82"/>
+      <c r="C133" s="82"/>
+      <c r="D133" s="82"/>
+      <c r="E133" s="82"/>
+      <c r="F133" s="82"/>
+      <c r="G133" s="82"/>
+      <c r="H133" s="82"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="82"/>
+      <c r="B134" s="82"/>
+      <c r="C134" s="82"/>
+      <c r="D134" s="82"/>
+      <c r="E134" s="82"/>
+      <c r="F134" s="82"/>
+      <c r="G134" s="82"/>
+      <c r="H134" s="82"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="82"/>
+      <c r="B135" s="82"/>
+      <c r="C135" s="82"/>
+      <c r="D135" s="82"/>
+      <c r="E135" s="82"/>
+      <c r="F135" s="82"/>
+      <c r="G135" s="82"/>
+      <c r="H135" s="82"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="82"/>
+      <c r="B136" s="82"/>
+      <c r="C136" s="82"/>
+      <c r="D136" s="82"/>
+      <c r="E136" s="82"/>
+      <c r="F136" s="82"/>
+      <c r="G136" s="82"/>
+      <c r="H136" s="82"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="82"/>
+      <c r="B137" s="82"/>
+      <c r="C137" s="82"/>
+      <c r="D137" s="82"/>
+      <c r="E137" s="82"/>
+      <c r="F137" s="82"/>
+      <c r="G137" s="82"/>
+      <c r="H137" s="82"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="82"/>
+      <c r="B138" s="82"/>
+      <c r="C138" s="82"/>
+      <c r="D138" s="82"/>
+      <c r="E138" s="82"/>
+      <c r="F138" s="82"/>
+      <c r="G138" s="82"/>
+      <c r="H138" s="82"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="82"/>
+      <c r="B139" s="82"/>
+      <c r="C139" s="82"/>
+      <c r="D139" s="82"/>
+      <c r="E139" s="82"/>
+      <c r="F139" s="82"/>
+      <c r="G139" s="82"/>
+      <c r="H139" s="82"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="82"/>
+      <c r="B140" s="82"/>
+      <c r="C140" s="82"/>
+      <c r="D140" s="82"/>
+      <c r="E140" s="82"/>
+      <c r="F140" s="82"/>
+      <c r="G140" s="82"/>
+      <c r="H140" s="82"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="82"/>
+      <c r="B141" s="82"/>
+      <c r="C141" s="82"/>
+      <c r="D141" s="82"/>
+      <c r="E141" s="82"/>
+      <c r="F141" s="82"/>
+      <c r="G141" s="82"/>
+      <c r="H141" s="82"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="82"/>
+      <c r="B142" s="82"/>
+      <c r="C142" s="82"/>
+      <c r="D142" s="82"/>
+      <c r="E142" s="82"/>
+      <c r="F142" s="82"/>
+      <c r="G142" s="82"/>
+      <c r="H142" s="82"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="82"/>
+      <c r="B143" s="82"/>
+      <c r="C143" s="82"/>
+      <c r="D143" s="82"/>
+      <c r="E143" s="82"/>
+      <c r="F143" s="82"/>
+      <c r="G143" s="82"/>
+      <c r="H143" s="82"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="82"/>
+      <c r="B144" s="82"/>
+      <c r="C144" s="82"/>
+      <c r="D144" s="82"/>
+      <c r="E144" s="82"/>
+      <c r="F144" s="82"/>
+      <c r="G144" s="82"/>
+      <c r="H144" s="82"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="82"/>
+      <c r="B145" s="82"/>
+      <c r="C145" s="82"/>
+      <c r="D145" s="82"/>
+      <c r="E145" s="82"/>
+      <c r="F145" s="82"/>
+      <c r="G145" s="82"/>
+      <c r="H145" s="82"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="82"/>
+      <c r="B146" s="82"/>
+      <c r="C146" s="82"/>
+      <c r="D146" s="82"/>
+      <c r="E146" s="82"/>
+      <c r="F146" s="82"/>
+      <c r="G146" s="82"/>
+      <c r="H146" s="82"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="82"/>
+      <c r="B147" s="82"/>
+      <c r="C147" s="82"/>
+      <c r="D147" s="82"/>
+      <c r="E147" s="82"/>
+      <c r="F147" s="82"/>
+      <c r="G147" s="82"/>
+      <c r="H147" s="82"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="82"/>
+      <c r="B148" s="82"/>
+      <c r="C148" s="82"/>
+      <c r="D148" s="82"/>
+      <c r="E148" s="82"/>
+      <c r="F148" s="82"/>
+      <c r="G148" s="82"/>
+      <c r="H148" s="82"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="82"/>
+      <c r="B149" s="82"/>
+      <c r="C149" s="82"/>
+      <c r="D149" s="82"/>
+      <c r="E149" s="82"/>
+      <c r="F149" s="82"/>
+      <c r="G149" s="82"/>
+      <c r="H149" s="82"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="82"/>
+      <c r="B150" s="82"/>
+      <c r="C150" s="82"/>
+      <c r="D150" s="82"/>
+      <c r="E150" s="82"/>
+      <c r="F150" s="82"/>
+      <c r="G150" s="82"/>
+      <c r="H150" s="82"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="82"/>
+      <c r="B151" s="82"/>
+      <c r="C151" s="82"/>
+      <c r="D151" s="82"/>
+      <c r="E151" s="82"/>
+      <c r="F151" s="82"/>
+      <c r="G151" s="82"/>
+      <c r="H151" s="82"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="82"/>
+      <c r="B152" s="82"/>
+      <c r="C152" s="82"/>
+      <c r="D152" s="82"/>
+      <c r="E152" s="82"/>
+      <c r="F152" s="82"/>
+      <c r="G152" s="82"/>
+      <c r="H152" s="82"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="82"/>
+      <c r="B153" s="82"/>
+      <c r="C153" s="82"/>
+      <c r="D153" s="82"/>
+      <c r="E153" s="82"/>
+      <c r="F153" s="82"/>
+      <c r="G153" s="82"/>
+      <c r="H153" s="82"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="82"/>
+      <c r="B154" s="82"/>
+      <c r="C154" s="82"/>
+      <c r="D154" s="82"/>
+      <c r="E154" s="82"/>
+      <c r="F154" s="82"/>
+      <c r="G154" s="82"/>
+      <c r="H154" s="82"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="82"/>
+      <c r="B155" s="82"/>
+      <c r="C155" s="82"/>
+      <c r="D155" s="82"/>
+      <c r="E155" s="82"/>
+      <c r="F155" s="82"/>
+      <c r="G155" s="82"/>
+      <c r="H155" s="82"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="82"/>
+      <c r="B156" s="82"/>
+      <c r="C156" s="82"/>
+      <c r="D156" s="82"/>
+      <c r="E156" s="82"/>
+      <c r="F156" s="82"/>
+      <c r="G156" s="82"/>
+      <c r="H156" s="82"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="82"/>
+      <c r="B157" s="82"/>
+      <c r="C157" s="82"/>
+      <c r="D157" s="82"/>
+      <c r="E157" s="82"/>
+      <c r="F157" s="82"/>
+      <c r="G157" s="82"/>
+      <c r="H157" s="82"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="82"/>
+      <c r="B158" s="82"/>
+      <c r="C158" s="82"/>
+      <c r="D158" s="82"/>
+      <c r="E158" s="82"/>
+      <c r="F158" s="82"/>
+      <c r="G158" s="82"/>
+      <c r="H158" s="82"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="82"/>
+      <c r="B159" s="82"/>
+      <c r="C159" s="82"/>
+      <c r="D159" s="82"/>
+      <c r="E159" s="82"/>
+      <c r="F159" s="82"/>
+      <c r="G159" s="82"/>
+      <c r="H159" s="82"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="82"/>
+      <c r="B160" s="82"/>
+      <c r="C160" s="82"/>
+      <c r="D160" s="82"/>
+      <c r="E160" s="82"/>
+      <c r="F160" s="82"/>
+      <c r="G160" s="82"/>
+      <c r="H160" s="82"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="82"/>
+      <c r="B161" s="82"/>
+      <c r="C161" s="82"/>
+      <c r="D161" s="82"/>
+      <c r="E161" s="82"/>
+      <c r="F161" s="82"/>
+      <c r="G161" s="82"/>
+      <c r="H161" s="82"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="82"/>
+      <c r="B162" s="82"/>
+      <c r="C162" s="82"/>
+      <c r="D162" s="82"/>
+      <c r="E162" s="82"/>
+      <c r="F162" s="82"/>
+      <c r="G162" s="82"/>
+      <c r="H162" s="82"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="82"/>
+      <c r="B163" s="82"/>
+      <c r="C163" s="82"/>
+      <c r="D163" s="82"/>
+      <c r="E163" s="82"/>
+      <c r="F163" s="82"/>
+      <c r="G163" s="82"/>
+      <c r="H163" s="82"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="82"/>
+      <c r="B164" s="82"/>
+      <c r="C164" s="82"/>
+      <c r="D164" s="82"/>
+      <c r="E164" s="82"/>
+      <c r="F164" s="82"/>
+      <c r="G164" s="82"/>
+      <c r="H164" s="82"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" s="82"/>
+      <c r="B165" s="82"/>
+      <c r="C165" s="82"/>
+      <c r="D165" s="82"/>
+      <c r="E165" s="82"/>
+      <c r="F165" s="82"/>
+      <c r="G165" s="82"/>
+      <c r="H165" s="82"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="82"/>
+      <c r="B166" s="82"/>
+      <c r="C166" s="82"/>
+      <c r="D166" s="82"/>
+      <c r="E166" s="82"/>
+      <c r="F166" s="82"/>
+      <c r="G166" s="82"/>
+      <c r="H166" s="82"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="82"/>
+      <c r="B167" s="82"/>
+      <c r="C167" s="82"/>
+      <c r="D167" s="82"/>
+      <c r="E167" s="82"/>
+      <c r="F167" s="82"/>
+      <c r="G167" s="82"/>
+      <c r="H167" s="82"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="82"/>
+      <c r="B168" s="82"/>
+      <c r="C168" s="82"/>
+      <c r="D168" s="82"/>
+      <c r="E168" s="82"/>
+      <c r="F168" s="82"/>
+      <c r="G168" s="82"/>
+      <c r="H168" s="82"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="82"/>
+      <c r="B169" s="82"/>
+      <c r="C169" s="82"/>
+      <c r="D169" s="82"/>
+      <c r="E169" s="82"/>
+      <c r="F169" s="82"/>
+      <c r="G169" s="82"/>
+      <c r="H169" s="82"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="82"/>
+      <c r="B170" s="82"/>
+      <c r="C170" s="82"/>
+      <c r="D170" s="82"/>
+      <c r="E170" s="82"/>
+      <c r="F170" s="82"/>
+      <c r="G170" s="82"/>
+      <c r="H170" s="82"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="82"/>
+      <c r="B171" s="82"/>
+      <c r="C171" s="82"/>
+      <c r="D171" s="82"/>
+      <c r="E171" s="82"/>
+      <c r="F171" s="82"/>
+      <c r="G171" s="82"/>
+      <c r="H171" s="82"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" s="82"/>
+      <c r="B172" s="82"/>
+      <c r="C172" s="82"/>
+      <c r="D172" s="82"/>
+      <c r="E172" s="82"/>
+      <c r="F172" s="82"/>
+      <c r="G172" s="82"/>
+      <c r="H172" s="82"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="82"/>
+      <c r="B173" s="82"/>
+      <c r="C173" s="82"/>
+      <c r="D173" s="82"/>
+      <c r="E173" s="82"/>
+      <c r="F173" s="82"/>
+      <c r="G173" s="82"/>
+      <c r="H173" s="82"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="82"/>
+      <c r="B174" s="82"/>
+      <c r="C174" s="82"/>
+      <c r="D174" s="82"/>
+      <c r="E174" s="82"/>
+      <c r="F174" s="82"/>
+      <c r="G174" s="82"/>
+      <c r="H174" s="82"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" s="82"/>
+      <c r="B175" s="82"/>
+      <c r="C175" s="82"/>
+      <c r="D175" s="82"/>
+      <c r="E175" s="82"/>
+      <c r="F175" s="82"/>
+      <c r="G175" s="82"/>
+      <c r="H175" s="82"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="82"/>
+      <c r="B176" s="82"/>
+      <c r="C176" s="82"/>
+      <c r="D176" s="82"/>
+      <c r="E176" s="82"/>
+      <c r="F176" s="82"/>
+      <c r="G176" s="82"/>
+      <c r="H176" s="82"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="82"/>
+      <c r="B177" s="82"/>
+      <c r="C177" s="82"/>
+      <c r="D177" s="82"/>
+      <c r="E177" s="82"/>
+      <c r="F177" s="82"/>
+      <c r="G177" s="82"/>
+      <c r="H177" s="82"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="82"/>
+      <c r="B178" s="82"/>
+      <c r="C178" s="82"/>
+      <c r="D178" s="82"/>
+      <c r="E178" s="82"/>
+      <c r="F178" s="82"/>
+      <c r="G178" s="82"/>
+      <c r="H178" s="82"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="82"/>
+      <c r="B179" s="82"/>
+      <c r="C179" s="82"/>
+      <c r="D179" s="82"/>
+      <c r="E179" s="82"/>
+      <c r="F179" s="82"/>
+      <c r="G179" s="82"/>
+      <c r="H179" s="82"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="82"/>
+      <c r="B180" s="82"/>
+      <c r="C180" s="82"/>
+      <c r="D180" s="82"/>
+      <c r="E180" s="82"/>
+      <c r="F180" s="82"/>
+      <c r="G180" s="82"/>
+      <c r="H180" s="82"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="82"/>
+      <c r="B181" s="82"/>
+      <c r="C181" s="82"/>
+      <c r="D181" s="82"/>
+      <c r="E181" s="82"/>
+      <c r="F181" s="82"/>
+      <c r="G181" s="82"/>
+      <c r="H181" s="82"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="82"/>
+      <c r="B182" s="82"/>
+      <c r="C182" s="82"/>
+      <c r="D182" s="82"/>
+      <c r="E182" s="82"/>
+      <c r="F182" s="82"/>
+      <c r="G182" s="82"/>
+      <c r="H182" s="82"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" s="82"/>
+      <c r="B183" s="82"/>
+      <c r="C183" s="82"/>
+      <c r="D183" s="82"/>
+      <c r="E183" s="82"/>
+      <c r="F183" s="82"/>
+      <c r="G183" s="82"/>
+      <c r="H183" s="82"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" s="82"/>
+      <c r="B184" s="82"/>
+      <c r="C184" s="82"/>
+      <c r="D184" s="82"/>
+      <c r="E184" s="82"/>
+      <c r="F184" s="82"/>
+      <c r="G184" s="82"/>
+      <c r="H184" s="82"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" s="82"/>
+      <c r="B185" s="82"/>
+      <c r="C185" s="82"/>
+      <c r="D185" s="82"/>
+      <c r="E185" s="82"/>
+      <c r="F185" s="82"/>
+      <c r="G185" s="82"/>
+      <c r="H185" s="82"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" s="82"/>
+      <c r="B186" s="82"/>
+      <c r="C186" s="82"/>
+      <c r="D186" s="82"/>
+      <c r="E186" s="82"/>
+      <c r="F186" s="82"/>
+      <c r="G186" s="82"/>
+      <c r="H186" s="82"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" s="82"/>
+      <c r="B187" s="82"/>
+      <c r="C187" s="82"/>
+      <c r="D187" s="82"/>
+      <c r="E187" s="82"/>
+      <c r="F187" s="82"/>
+      <c r="G187" s="82"/>
+      <c r="H187" s="82"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" s="82"/>
+      <c r="B188" s="82"/>
+      <c r="C188" s="82"/>
+      <c r="D188" s="82"/>
+      <c r="E188" s="82"/>
+      <c r="F188" s="82"/>
+      <c r="G188" s="82"/>
+      <c r="H188" s="82"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" s="82"/>
+      <c r="B189" s="82"/>
+      <c r="C189" s="82"/>
+      <c r="D189" s="82"/>
+      <c r="E189" s="82"/>
+      <c r="F189" s="82"/>
+      <c r="G189" s="82"/>
+      <c r="H189" s="82"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" s="82"/>
+      <c r="B190" s="82"/>
+      <c r="C190" s="82"/>
+      <c r="D190" s="82"/>
+      <c r="E190" s="82"/>
+      <c r="F190" s="82"/>
+      <c r="G190" s="82"/>
+      <c r="H190" s="82"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" s="82"/>
+      <c r="B191" s="82"/>
+      <c r="C191" s="82"/>
+      <c r="D191" s="82"/>
+      <c r="E191" s="82"/>
+      <c r="F191" s="82"/>
+      <c r="G191" s="82"/>
+      <c r="H191" s="82"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" s="82"/>
+      <c r="B192" s="82"/>
+      <c r="C192" s="82"/>
+      <c r="D192" s="82"/>
+      <c r="E192" s="82"/>
+      <c r="F192" s="82"/>
+      <c r="G192" s="82"/>
+      <c r="H192" s="82"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" s="82"/>
+      <c r="B193" s="82"/>
+      <c r="C193" s="82"/>
+      <c r="D193" s="82"/>
+      <c r="E193" s="82"/>
+      <c r="F193" s="82"/>
+      <c r="G193" s="82"/>
+      <c r="H193" s="82"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" s="82"/>
+      <c r="B194" s="82"/>
+      <c r="C194" s="82"/>
+      <c r="D194" s="82"/>
+      <c r="E194" s="82"/>
+      <c r="F194" s="82"/>
+      <c r="G194" s="82"/>
+      <c r="H194" s="82"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" s="82"/>
+      <c r="B195" s="82"/>
+      <c r="C195" s="82"/>
+      <c r="D195" s="82"/>
+      <c r="E195" s="82"/>
+      <c r="F195" s="82"/>
+      <c r="G195" s="82"/>
+      <c r="H195" s="82"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" s="82"/>
+      <c r="B196" s="82"/>
+      <c r="C196" s="82"/>
+      <c r="D196" s="82"/>
+      <c r="E196" s="82"/>
+      <c r="F196" s="82"/>
+      <c r="G196" s="82"/>
+      <c r="H196" s="82"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" s="82"/>
+      <c r="B197" s="82"/>
+      <c r="C197" s="82"/>
+      <c r="D197" s="82"/>
+      <c r="E197" s="82"/>
+      <c r="F197" s="82"/>
+      <c r="G197" s="82"/>
+      <c r="H197" s="82"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" s="82"/>
+      <c r="B198" s="82"/>
+      <c r="C198" s="82"/>
+      <c r="D198" s="82"/>
+      <c r="E198" s="82"/>
+      <c r="F198" s="82"/>
+      <c r="G198" s="82"/>
+      <c r="H198" s="82"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" s="82"/>
+      <c r="B199" s="82"/>
+      <c r="C199" s="82"/>
+      <c r="D199" s="82"/>
+      <c r="E199" s="82"/>
+      <c r="F199" s="82"/>
+      <c r="G199" s="82"/>
+      <c r="H199" s="82"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" s="82"/>
+      <c r="B200" s="82"/>
+      <c r="C200" s="82"/>
+      <c r="D200" s="82"/>
+      <c r="E200" s="82"/>
+      <c r="F200" s="82"/>
+      <c r="G200" s="82"/>
+      <c r="H200" s="82"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" s="82"/>
+      <c r="B201" s="82"/>
+      <c r="C201" s="82"/>
+      <c r="D201" s="82"/>
+      <c r="E201" s="82"/>
+      <c r="F201" s="82"/>
+      <c r="G201" s="82"/>
+      <c r="H201" s="82"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" s="82"/>
+      <c r="B202" s="82"/>
+      <c r="C202" s="82"/>
+      <c r="D202" s="82"/>
+      <c r="E202" s="82"/>
+      <c r="F202" s="82"/>
+      <c r="G202" s="82"/>
+      <c r="H202" s="82"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" s="82"/>
+      <c r="B203" s="82"/>
+      <c r="C203" s="82"/>
+      <c r="D203" s="82"/>
+      <c r="E203" s="82"/>
+      <c r="F203" s="82"/>
+      <c r="G203" s="82"/>
+      <c r="H203" s="82"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" s="82"/>
+      <c r="B204" s="82"/>
+      <c r="C204" s="82"/>
+      <c r="D204" s="82"/>
+      <c r="E204" s="82"/>
+      <c r="F204" s="82"/>
+      <c r="G204" s="82"/>
+      <c r="H204" s="82"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" s="82"/>
+      <c r="B205" s="82"/>
+      <c r="C205" s="82"/>
+      <c r="D205" s="82"/>
+      <c r="E205" s="82"/>
+      <c r="F205" s="82"/>
+      <c r="G205" s="82"/>
+      <c r="H205" s="82"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" s="82"/>
+      <c r="B206" s="82"/>
+      <c r="C206" s="82"/>
+      <c r="D206" s="82"/>
+      <c r="E206" s="82"/>
+      <c r="F206" s="82"/>
+      <c r="G206" s="82"/>
+      <c r="H206" s="82"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" s="82"/>
+      <c r="B207" s="82"/>
+      <c r="C207" s="82"/>
+      <c r="D207" s="82"/>
+      <c r="E207" s="82"/>
+      <c r="F207" s="82"/>
+      <c r="G207" s="82"/>
+      <c r="H207" s="82"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" s="82"/>
+      <c r="B208" s="82"/>
+      <c r="C208" s="82"/>
+      <c r="D208" s="82"/>
+      <c r="E208" s="82"/>
+      <c r="F208" s="82"/>
+      <c r="G208" s="82"/>
+      <c r="H208" s="82"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" s="82"/>
+      <c r="B209" s="82"/>
+      <c r="C209" s="82"/>
+      <c r="D209" s="82"/>
+      <c r="E209" s="82"/>
+      <c r="F209" s="82"/>
+      <c r="G209" s="82"/>
+      <c r="H209" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data_surveys.xlsx
+++ b/data_surveys.xlsx
@@ -2,24 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
-  <workbookPr autoCompressPictures="0"/>
+  <workbookPr autoCompressPictures="false"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacobo Morales\piaproba\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D9A70B-1878-4178-AD47-DDA928883F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IPAQ Short Form Scoring" sheetId="5" r:id="rId1"/>
     <sheet name="Registro de usuarios" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'IPAQ Short Form Scoring'!$A$2:$AD$179</definedName>
+    <definedName hidden="true" localSheetId="0" name="_xlnm._FilterDatabase">'IPAQ Short Form Scoring'!$A$2:$AD$179</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="false"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>Days</t>
   </si>
@@ -209,21 +208,21 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="12"/>
       </rPr>
       <t>(ENTER RAW DATA HERE)</t>
     </r>
@@ -256,9 +255,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Bachillerato</t>
-  </si>
-  <si>
     <t>Sexo</t>
   </si>
   <si>
@@ -271,17 +267,32 @@
     <t>Estado Civil</t>
   </si>
   <si>
-    <t>Trabajo</t>
+    <t>Etnia</t>
   </si>
   <si>
-    <t>Etnia</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Bachillerato General</t>
+  </si>
+  <si>
+    <t>Soltero/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachillerato </t>
+  </si>
+  <si>
+    <t>Trabajando</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,13 +306,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -330,21 +341,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <u/>
       <sz val="10"/>
       <color indexed="8"/>
@@ -352,7 +363,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -364,6 +375,14 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -387,19 +406,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,7 +453,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -446,7 +465,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -456,7 +475,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,17 +484,17 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -483,7 +502,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom/>
@@ -492,18 +511,18 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom/>
@@ -511,7 +530,7 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
@@ -521,20 +540,20 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom/>
@@ -542,34 +561,34 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom/>
@@ -577,11 +596,11 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -589,28 +608,28 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
@@ -619,23 +638,23 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
       <bottom style="dashed">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,18 +663,18 @@
       <right/>
       <top/>
       <bottom style="dashed">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="dashed">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,269 +693,289 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8" hidden="true"/>
+    <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="true"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FF538DD5"/>
@@ -959,7 +998,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1281,97 +1320,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="68" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="80" t="s">
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="75" t="s">
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="77" t="s">
         <v>58</v>
       </c>
       <c r="AB1" s="24"/>
     </row>
     <row r="2" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="70" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="74" t="s">
+      <c r="G2" s="73"/>
+      <c r="H2" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="72" t="s">
+      <c r="K2" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="45" t="s">
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="61"/>
-      <c r="S2" s="45" t="s">
+      <c r="R2" s="63"/>
+      <c r="S2" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="61"/>
-      <c r="U2" s="77" t="s">
+      <c r="T2" s="63"/>
+      <c r="U2" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="45" t="s">
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="75"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="77"/>
       <c r="AB2" s="24"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
@@ -1384,83 +1423,83 @@
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="56" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="67"/>
-      <c r="N3" s="55" t="s">
+      <c r="M3" s="69"/>
+      <c r="N3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="75"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="77"/>
       <c r="AB3" s="24"/>
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="51" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="51" t="s">
+      <c r="N4" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="49" t="s">
+      <c r="O4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="P4" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="75"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="77"/>
       <c r="AB4" s="24"/>
       <c r="AK4" s="2"/>
     </row>
     <row r="5" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="17" t="s">
         <v>0</v>
       </c>
@@ -1482,56 +1521,56 @@
       <c r="H5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="K5" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="51"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="R5" s="47" t="s">
+      <c r="L5" s="53"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="57" t="s">
+      <c r="S5" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="T5" s="47" t="s">
+      <c r="T5" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="57" t="s">
+      <c r="U5" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="53" t="s">
+      <c r="V5" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="53" t="s">
+      <c r="W5" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="X5" s="47" t="s">
+      <c r="X5" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="Y5" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="53" t="s">
+      <c r="Y5" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="AA5" s="75"/>
+      <c r="AA5" s="77"/>
       <c r="AB5" s="24"/>
       <c r="AK5" s="2"/>
     </row>
     <row r="6" spans="1:38" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="63"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="13" t="s">
         <v>40</v>
       </c>
@@ -1553,25 +1592,25 @@
       <c r="H6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="76"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="78"/>
       <c r="AB6" s="24"/>
       <c r="AK6" s="2"/>
     </row>
@@ -68765,2127 +68804,5974 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D293088-2130-428D-B84E-279361809554}">
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:J453"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col customWidth="true" max="1" min="1" width="15.44140625"/>
+    <col customWidth="true" max="2" min="2" width="14.77734375"/>
+    <col customWidth="true" max="3" min="3" width="14.88671875"/>
+    <col customWidth="true" max="4" min="4" width="14.21875"/>
+    <col customWidth="true" max="5" min="5" width="15.21875"/>
+    <col customWidth="true" max="6" min="6" width="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="D1" s="83" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="81" t="s">
+      <c r="F1" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="G1" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="J1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="85"/>
+      <c r="J2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="B3" s="43" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="82"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="82"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="82"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="82"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="82"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="82"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="82"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="82"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="82"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="82"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="82"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="82"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="82"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="82"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="82"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="82"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="82"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="82"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="82"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="82"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="82"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="82"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="82"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="82"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="82"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="82"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="82"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="82"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="82"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="82"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="82"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="82"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="82"/>
-      <c r="B53" s="82"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="82"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="82"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="82"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="82"/>
-      <c r="B55" s="82"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="82"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="82"/>
-      <c r="B56" s="82"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="82"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="82"/>
-      <c r="B57" s="82"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="82"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="82"/>
-      <c r="B58" s="82"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="82"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="82"/>
-      <c r="B59" s="82"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="82"/>
-      <c r="H59" s="82"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="82"/>
-      <c r="B60" s="82"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="82"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="82"/>
-      <c r="B61" s="82"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="82"/>
-      <c r="G61" s="82"/>
-      <c r="H61" s="82"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="82"/>
-      <c r="B62" s="82"/>
-      <c r="C62" s="82"/>
-      <c r="D62" s="82"/>
-      <c r="E62" s="82"/>
-      <c r="F62" s="82"/>
-      <c r="G62" s="82"/>
-      <c r="H62" s="82"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="82"/>
-      <c r="B63" s="82"/>
-      <c r="C63" s="82"/>
-      <c r="D63" s="82"/>
-      <c r="E63" s="82"/>
-      <c r="F63" s="82"/>
-      <c r="G63" s="82"/>
-      <c r="H63" s="82"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="82"/>
-      <c r="B64" s="82"/>
-      <c r="C64" s="82"/>
-      <c r="D64" s="82"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="82"/>
-      <c r="H64" s="82"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="82"/>
-      <c r="B65" s="82"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="82"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="82"/>
-      <c r="B66" s="82"/>
-      <c r="C66" s="82"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="82"/>
-      <c r="H66" s="82"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="82"/>
-      <c r="B67" s="82"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="82"/>
-      <c r="H67" s="82"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="82"/>
-      <c r="B68" s="82"/>
-      <c r="C68" s="82"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="82"/>
-      <c r="H68" s="82"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="82"/>
-      <c r="B69" s="82"/>
-      <c r="C69" s="82"/>
-      <c r="D69" s="82"/>
-      <c r="E69" s="82"/>
-      <c r="F69" s="82"/>
-      <c r="G69" s="82"/>
-      <c r="H69" s="82"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="82"/>
-      <c r="B70" s="82"/>
-      <c r="C70" s="82"/>
-      <c r="D70" s="82"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="82"/>
-      <c r="H70" s="82"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="82"/>
-      <c r="B71" s="82"/>
-      <c r="C71" s="82"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="82"/>
-      <c r="F71" s="82"/>
-      <c r="G71" s="82"/>
-      <c r="H71" s="82"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="82"/>
-      <c r="B72" s="82"/>
-      <c r="C72" s="82"/>
-      <c r="D72" s="82"/>
-      <c r="E72" s="82"/>
-      <c r="F72" s="82"/>
-      <c r="G72" s="82"/>
-      <c r="H72" s="82"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="82"/>
-      <c r="B73" s="82"/>
-      <c r="C73" s="82"/>
-      <c r="D73" s="82"/>
-      <c r="E73" s="82"/>
-      <c r="F73" s="82"/>
-      <c r="G73" s="82"/>
-      <c r="H73" s="82"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="82"/>
-      <c r="B74" s="82"/>
-      <c r="C74" s="82"/>
-      <c r="D74" s="82"/>
-      <c r="E74" s="82"/>
-      <c r="F74" s="82"/>
-      <c r="G74" s="82"/>
-      <c r="H74" s="82"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="82"/>
-      <c r="B75" s="82"/>
-      <c r="C75" s="82"/>
-      <c r="D75" s="82"/>
-      <c r="E75" s="82"/>
-      <c r="F75" s="82"/>
-      <c r="G75" s="82"/>
-      <c r="H75" s="82"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="82"/>
-      <c r="B76" s="82"/>
-      <c r="C76" s="82"/>
-      <c r="D76" s="82"/>
-      <c r="E76" s="82"/>
-      <c r="F76" s="82"/>
-      <c r="G76" s="82"/>
-      <c r="H76" s="82"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="82"/>
-      <c r="B77" s="82"/>
-      <c r="C77" s="82"/>
-      <c r="D77" s="82"/>
-      <c r="E77" s="82"/>
-      <c r="F77" s="82"/>
-      <c r="G77" s="82"/>
-      <c r="H77" s="82"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="82"/>
-      <c r="B78" s="82"/>
-      <c r="C78" s="82"/>
-      <c r="D78" s="82"/>
-      <c r="E78" s="82"/>
-      <c r="F78" s="82"/>
-      <c r="G78" s="82"/>
-      <c r="H78" s="82"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="82"/>
-      <c r="B79" s="82"/>
-      <c r="C79" s="82"/>
-      <c r="D79" s="82"/>
-      <c r="E79" s="82"/>
-      <c r="F79" s="82"/>
-      <c r="G79" s="82"/>
-      <c r="H79" s="82"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="82"/>
-      <c r="B80" s="82"/>
-      <c r="C80" s="82"/>
-      <c r="D80" s="82"/>
-      <c r="E80" s="82"/>
-      <c r="F80" s="82"/>
-      <c r="G80" s="82"/>
-      <c r="H80" s="82"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="82"/>
-      <c r="B81" s="82"/>
-      <c r="C81" s="82"/>
-      <c r="D81" s="82"/>
-      <c r="E81" s="82"/>
-      <c r="F81" s="82"/>
-      <c r="G81" s="82"/>
-      <c r="H81" s="82"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="82"/>
-      <c r="B82" s="82"/>
-      <c r="C82" s="82"/>
-      <c r="D82" s="82"/>
-      <c r="E82" s="82"/>
-      <c r="F82" s="82"/>
-      <c r="G82" s="82"/>
-      <c r="H82" s="82"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="82"/>
-      <c r="B83" s="82"/>
-      <c r="C83" s="82"/>
-      <c r="D83" s="82"/>
-      <c r="E83" s="82"/>
-      <c r="F83" s="82"/>
-      <c r="G83" s="82"/>
-      <c r="H83" s="82"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="82"/>
-      <c r="B84" s="82"/>
-      <c r="C84" s="82"/>
-      <c r="D84" s="82"/>
-      <c r="E84" s="82"/>
-      <c r="F84" s="82"/>
-      <c r="G84" s="82"/>
-      <c r="H84" s="82"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="82"/>
-      <c r="B85" s="82"/>
-      <c r="C85" s="82"/>
-      <c r="D85" s="82"/>
-      <c r="E85" s="82"/>
-      <c r="F85" s="82"/>
-      <c r="G85" s="82"/>
-      <c r="H85" s="82"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="82"/>
-      <c r="B86" s="82"/>
-      <c r="C86" s="82"/>
-      <c r="D86" s="82"/>
-      <c r="E86" s="82"/>
-      <c r="F86" s="82"/>
-      <c r="G86" s="82"/>
-      <c r="H86" s="82"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="82"/>
-      <c r="B87" s="82"/>
-      <c r="C87" s="82"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="82"/>
-      <c r="F87" s="82"/>
-      <c r="G87" s="82"/>
-      <c r="H87" s="82"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="82"/>
-      <c r="B88" s="82"/>
-      <c r="C88" s="82"/>
-      <c r="D88" s="82"/>
-      <c r="E88" s="82"/>
-      <c r="F88" s="82"/>
-      <c r="G88" s="82"/>
-      <c r="H88" s="82"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="82"/>
-      <c r="B89" s="82"/>
-      <c r="C89" s="82"/>
-      <c r="D89" s="82"/>
-      <c r="E89" s="82"/>
-      <c r="F89" s="82"/>
-      <c r="G89" s="82"/>
-      <c r="H89" s="82"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="82"/>
-      <c r="B90" s="82"/>
-      <c r="C90" s="82"/>
-      <c r="D90" s="82"/>
-      <c r="E90" s="82"/>
-      <c r="F90" s="82"/>
-      <c r="G90" s="82"/>
-      <c r="H90" s="82"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="82"/>
-      <c r="B91" s="82"/>
-      <c r="C91" s="82"/>
-      <c r="D91" s="82"/>
-      <c r="E91" s="82"/>
-      <c r="F91" s="82"/>
-      <c r="G91" s="82"/>
-      <c r="H91" s="82"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="82"/>
-      <c r="B92" s="82"/>
-      <c r="C92" s="82"/>
-      <c r="D92" s="82"/>
-      <c r="E92" s="82"/>
-      <c r="F92" s="82"/>
-      <c r="G92" s="82"/>
-      <c r="H92" s="82"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="82"/>
-      <c r="B93" s="82"/>
-      <c r="C93" s="82"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="82"/>
-      <c r="F93" s="82"/>
-      <c r="G93" s="82"/>
-      <c r="H93" s="82"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="82"/>
-      <c r="B94" s="82"/>
-      <c r="C94" s="82"/>
-      <c r="D94" s="82"/>
-      <c r="E94" s="82"/>
-      <c r="F94" s="82"/>
-      <c r="G94" s="82"/>
-      <c r="H94" s="82"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="82"/>
-      <c r="B95" s="82"/>
-      <c r="C95" s="82"/>
-      <c r="D95" s="82"/>
-      <c r="E95" s="82"/>
-      <c r="F95" s="82"/>
-      <c r="G95" s="82"/>
-      <c r="H95" s="82"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="82"/>
-      <c r="B96" s="82"/>
-      <c r="C96" s="82"/>
-      <c r="D96" s="82"/>
-      <c r="E96" s="82"/>
-      <c r="F96" s="82"/>
-      <c r="G96" s="82"/>
-      <c r="H96" s="82"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="82"/>
-      <c r="B97" s="82"/>
-      <c r="C97" s="82"/>
-      <c r="D97" s="82"/>
-      <c r="E97" s="82"/>
-      <c r="F97" s="82"/>
-      <c r="G97" s="82"/>
-      <c r="H97" s="82"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="82"/>
-      <c r="B98" s="82"/>
-      <c r="C98" s="82"/>
-      <c r="D98" s="82"/>
-      <c r="E98" s="82"/>
-      <c r="F98" s="82"/>
-      <c r="G98" s="82"/>
-      <c r="H98" s="82"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="82"/>
-      <c r="B99" s="82"/>
-      <c r="C99" s="82"/>
-      <c r="D99" s="82"/>
-      <c r="E99" s="82"/>
-      <c r="F99" s="82"/>
-      <c r="G99" s="82"/>
-      <c r="H99" s="82"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="82"/>
-      <c r="B100" s="82"/>
-      <c r="C100" s="82"/>
-      <c r="D100" s="82"/>
-      <c r="E100" s="82"/>
-      <c r="F100" s="82"/>
-      <c r="G100" s="82"/>
-      <c r="H100" s="82"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="82"/>
-      <c r="B101" s="82"/>
-      <c r="C101" s="82"/>
-      <c r="D101" s="82"/>
-      <c r="E101" s="82"/>
-      <c r="F101" s="82"/>
-      <c r="G101" s="82"/>
-      <c r="H101" s="82"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="82"/>
-      <c r="B102" s="82"/>
-      <c r="C102" s="82"/>
-      <c r="D102" s="82"/>
-      <c r="E102" s="82"/>
-      <c r="F102" s="82"/>
-      <c r="G102" s="82"/>
-      <c r="H102" s="82"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="82"/>
-      <c r="B103" s="82"/>
-      <c r="C103" s="82"/>
-      <c r="D103" s="82"/>
-      <c r="E103" s="82"/>
-      <c r="F103" s="82"/>
-      <c r="G103" s="82"/>
-      <c r="H103" s="82"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="82"/>
-      <c r="B104" s="82"/>
-      <c r="C104" s="82"/>
-      <c r="D104" s="82"/>
-      <c r="E104" s="82"/>
-      <c r="F104" s="82"/>
-      <c r="G104" s="82"/>
-      <c r="H104" s="82"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="82"/>
-      <c r="B105" s="82"/>
-      <c r="C105" s="82"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="82"/>
-      <c r="F105" s="82"/>
-      <c r="G105" s="82"/>
-      <c r="H105" s="82"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="82"/>
-      <c r="B106" s="82"/>
-      <c r="C106" s="82"/>
-      <c r="D106" s="82"/>
-      <c r="E106" s="82"/>
-      <c r="F106" s="82"/>
-      <c r="G106" s="82"/>
-      <c r="H106" s="82"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="82"/>
-      <c r="B107" s="82"/>
-      <c r="C107" s="82"/>
-      <c r="D107" s="82"/>
-      <c r="E107" s="82"/>
-      <c r="F107" s="82"/>
-      <c r="G107" s="82"/>
-      <c r="H107" s="82"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="82"/>
-      <c r="B108" s="82"/>
-      <c r="C108" s="82"/>
-      <c r="D108" s="82"/>
-      <c r="E108" s="82"/>
-      <c r="F108" s="82"/>
-      <c r="G108" s="82"/>
-      <c r="H108" s="82"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="82"/>
-      <c r="B109" s="82"/>
-      <c r="C109" s="82"/>
-      <c r="D109" s="82"/>
-      <c r="E109" s="82"/>
-      <c r="F109" s="82"/>
-      <c r="G109" s="82"/>
-      <c r="H109" s="82"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="82"/>
-      <c r="B110" s="82"/>
-      <c r="C110" s="82"/>
-      <c r="D110" s="82"/>
-      <c r="E110" s="82"/>
-      <c r="F110" s="82"/>
-      <c r="G110" s="82"/>
-      <c r="H110" s="82"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="82"/>
-      <c r="B111" s="82"/>
-      <c r="C111" s="82"/>
-      <c r="D111" s="82"/>
-      <c r="E111" s="82"/>
-      <c r="F111" s="82"/>
-      <c r="G111" s="82"/>
-      <c r="H111" s="82"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="82"/>
-      <c r="B112" s="82"/>
-      <c r="C112" s="82"/>
-      <c r="D112" s="82"/>
-      <c r="E112" s="82"/>
-      <c r="F112" s="82"/>
-      <c r="G112" s="82"/>
-      <c r="H112" s="82"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="82"/>
-      <c r="B113" s="82"/>
-      <c r="C113" s="82"/>
-      <c r="D113" s="82"/>
-      <c r="E113" s="82"/>
-      <c r="F113" s="82"/>
-      <c r="G113" s="82"/>
-      <c r="H113" s="82"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="82"/>
-      <c r="B114" s="82"/>
-      <c r="C114" s="82"/>
-      <c r="D114" s="82"/>
-      <c r="E114" s="82"/>
-      <c r="F114" s="82"/>
-      <c r="G114" s="82"/>
-      <c r="H114" s="82"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="82"/>
-      <c r="B115" s="82"/>
-      <c r="C115" s="82"/>
-      <c r="D115" s="82"/>
-      <c r="E115" s="82"/>
-      <c r="F115" s="82"/>
-      <c r="G115" s="82"/>
-      <c r="H115" s="82"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="82"/>
-      <c r="B116" s="82"/>
-      <c r="C116" s="82"/>
-      <c r="D116" s="82"/>
-      <c r="E116" s="82"/>
-      <c r="F116" s="82"/>
-      <c r="G116" s="82"/>
-      <c r="H116" s="82"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="82"/>
-      <c r="B117" s="82"/>
-      <c r="C117" s="82"/>
-      <c r="D117" s="82"/>
-      <c r="E117" s="82"/>
-      <c r="F117" s="82"/>
-      <c r="G117" s="82"/>
-      <c r="H117" s="82"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="82"/>
-      <c r="B118" s="82"/>
-      <c r="C118" s="82"/>
-      <c r="D118" s="82"/>
-      <c r="E118" s="82"/>
-      <c r="F118" s="82"/>
-      <c r="G118" s="82"/>
-      <c r="H118" s="82"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="82"/>
-      <c r="B119" s="82"/>
-      <c r="C119" s="82"/>
-      <c r="D119" s="82"/>
-      <c r="E119" s="82"/>
-      <c r="F119" s="82"/>
-      <c r="G119" s="82"/>
-      <c r="H119" s="82"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="82"/>
-      <c r="B120" s="82"/>
-      <c r="C120" s="82"/>
-      <c r="D120" s="82"/>
-      <c r="E120" s="82"/>
-      <c r="F120" s="82"/>
-      <c r="G120" s="82"/>
-      <c r="H120" s="82"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="82"/>
-      <c r="B121" s="82"/>
-      <c r="C121" s="82"/>
-      <c r="D121" s="82"/>
-      <c r="E121" s="82"/>
-      <c r="F121" s="82"/>
-      <c r="G121" s="82"/>
-      <c r="H121" s="82"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="82"/>
-      <c r="B122" s="82"/>
-      <c r="C122" s="82"/>
-      <c r="D122" s="82"/>
-      <c r="E122" s="82"/>
-      <c r="F122" s="82"/>
-      <c r="G122" s="82"/>
-      <c r="H122" s="82"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="82"/>
-      <c r="B123" s="82"/>
-      <c r="C123" s="82"/>
-      <c r="D123" s="82"/>
-      <c r="E123" s="82"/>
-      <c r="F123" s="82"/>
-      <c r="G123" s="82"/>
-      <c r="H123" s="82"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="82"/>
-      <c r="B124" s="82"/>
-      <c r="C124" s="82"/>
-      <c r="D124" s="82"/>
-      <c r="E124" s="82"/>
-      <c r="F124" s="82"/>
-      <c r="G124" s="82"/>
-      <c r="H124" s="82"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="82"/>
-      <c r="B125" s="82"/>
-      <c r="C125" s="82"/>
-      <c r="D125" s="82"/>
-      <c r="E125" s="82"/>
-      <c r="F125" s="82"/>
-      <c r="G125" s="82"/>
-      <c r="H125" s="82"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="82"/>
-      <c r="B126" s="82"/>
-      <c r="C126" s="82"/>
-      <c r="D126" s="82"/>
-      <c r="E126" s="82"/>
-      <c r="F126" s="82"/>
-      <c r="G126" s="82"/>
-      <c r="H126" s="82"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="82"/>
-      <c r="B127" s="82"/>
-      <c r="C127" s="82"/>
-      <c r="D127" s="82"/>
-      <c r="E127" s="82"/>
-      <c r="F127" s="82"/>
-      <c r="G127" s="82"/>
-      <c r="H127" s="82"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="82"/>
-      <c r="B128" s="82"/>
-      <c r="C128" s="82"/>
-      <c r="D128" s="82"/>
-      <c r="E128" s="82"/>
-      <c r="F128" s="82"/>
-      <c r="G128" s="82"/>
-      <c r="H128" s="82"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="82"/>
-      <c r="B129" s="82"/>
-      <c r="C129" s="82"/>
-      <c r="D129" s="82"/>
-      <c r="E129" s="82"/>
-      <c r="F129" s="82"/>
-      <c r="G129" s="82"/>
-      <c r="H129" s="82"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="82"/>
-      <c r="B130" s="82"/>
-      <c r="C130" s="82"/>
-      <c r="D130" s="82"/>
-      <c r="E130" s="82"/>
-      <c r="F130" s="82"/>
-      <c r="G130" s="82"/>
-      <c r="H130" s="82"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="82"/>
-      <c r="B131" s="82"/>
-      <c r="C131" s="82"/>
-      <c r="D131" s="82"/>
-      <c r="E131" s="82"/>
-      <c r="F131" s="82"/>
-      <c r="G131" s="82"/>
-      <c r="H131" s="82"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="82"/>
-      <c r="B132" s="82"/>
-      <c r="C132" s="82"/>
-      <c r="D132" s="82"/>
-      <c r="E132" s="82"/>
-      <c r="F132" s="82"/>
-      <c r="G132" s="82"/>
-      <c r="H132" s="82"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="82"/>
-      <c r="B133" s="82"/>
-      <c r="C133" s="82"/>
-      <c r="D133" s="82"/>
-      <c r="E133" s="82"/>
-      <c r="F133" s="82"/>
-      <c r="G133" s="82"/>
-      <c r="H133" s="82"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="82"/>
-      <c r="B134" s="82"/>
-      <c r="C134" s="82"/>
-      <c r="D134" s="82"/>
-      <c r="E134" s="82"/>
-      <c r="F134" s="82"/>
-      <c r="G134" s="82"/>
-      <c r="H134" s="82"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="82"/>
-      <c r="B135" s="82"/>
-      <c r="C135" s="82"/>
-      <c r="D135" s="82"/>
-      <c r="E135" s="82"/>
-      <c r="F135" s="82"/>
-      <c r="G135" s="82"/>
-      <c r="H135" s="82"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="82"/>
-      <c r="B136" s="82"/>
-      <c r="C136" s="82"/>
-      <c r="D136" s="82"/>
-      <c r="E136" s="82"/>
-      <c r="F136" s="82"/>
-      <c r="G136" s="82"/>
-      <c r="H136" s="82"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="82"/>
-      <c r="B137" s="82"/>
-      <c r="C137" s="82"/>
-      <c r="D137" s="82"/>
-      <c r="E137" s="82"/>
-      <c r="F137" s="82"/>
-      <c r="G137" s="82"/>
-      <c r="H137" s="82"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="82"/>
-      <c r="B138" s="82"/>
-      <c r="C138" s="82"/>
-      <c r="D138" s="82"/>
-      <c r="E138" s="82"/>
-      <c r="F138" s="82"/>
-      <c r="G138" s="82"/>
-      <c r="H138" s="82"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="82"/>
-      <c r="B139" s="82"/>
-      <c r="C139" s="82"/>
-      <c r="D139" s="82"/>
-      <c r="E139" s="82"/>
-      <c r="F139" s="82"/>
-      <c r="G139" s="82"/>
-      <c r="H139" s="82"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="82"/>
-      <c r="B140" s="82"/>
-      <c r="C140" s="82"/>
-      <c r="D140" s="82"/>
-      <c r="E140" s="82"/>
-      <c r="F140" s="82"/>
-      <c r="G140" s="82"/>
-      <c r="H140" s="82"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="82"/>
-      <c r="B141" s="82"/>
-      <c r="C141" s="82"/>
-      <c r="D141" s="82"/>
-      <c r="E141" s="82"/>
-      <c r="F141" s="82"/>
-      <c r="G141" s="82"/>
-      <c r="H141" s="82"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="82"/>
-      <c r="B142" s="82"/>
-      <c r="C142" s="82"/>
-      <c r="D142" s="82"/>
-      <c r="E142" s="82"/>
-      <c r="F142" s="82"/>
-      <c r="G142" s="82"/>
-      <c r="H142" s="82"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="82"/>
-      <c r="B143" s="82"/>
-      <c r="C143" s="82"/>
-      <c r="D143" s="82"/>
-      <c r="E143" s="82"/>
-      <c r="F143" s="82"/>
-      <c r="G143" s="82"/>
-      <c r="H143" s="82"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="82"/>
-      <c r="B144" s="82"/>
-      <c r="C144" s="82"/>
-      <c r="D144" s="82"/>
-      <c r="E144" s="82"/>
-      <c r="F144" s="82"/>
-      <c r="G144" s="82"/>
-      <c r="H144" s="82"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="82"/>
-      <c r="B145" s="82"/>
-      <c r="C145" s="82"/>
-      <c r="D145" s="82"/>
-      <c r="E145" s="82"/>
-      <c r="F145" s="82"/>
-      <c r="G145" s="82"/>
-      <c r="H145" s="82"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="82"/>
-      <c r="B146" s="82"/>
-      <c r="C146" s="82"/>
-      <c r="D146" s="82"/>
-      <c r="E146" s="82"/>
-      <c r="F146" s="82"/>
-      <c r="G146" s="82"/>
-      <c r="H146" s="82"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="82"/>
-      <c r="B147" s="82"/>
-      <c r="C147" s="82"/>
-      <c r="D147" s="82"/>
-      <c r="E147" s="82"/>
-      <c r="F147" s="82"/>
-      <c r="G147" s="82"/>
-      <c r="H147" s="82"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="82"/>
-      <c r="B148" s="82"/>
-      <c r="C148" s="82"/>
-      <c r="D148" s="82"/>
-      <c r="E148" s="82"/>
-      <c r="F148" s="82"/>
-      <c r="G148" s="82"/>
-      <c r="H148" s="82"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="82"/>
-      <c r="B149" s="82"/>
-      <c r="C149" s="82"/>
-      <c r="D149" s="82"/>
-      <c r="E149" s="82"/>
-      <c r="F149" s="82"/>
-      <c r="G149" s="82"/>
-      <c r="H149" s="82"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="82"/>
-      <c r="B150" s="82"/>
-      <c r="C150" s="82"/>
-      <c r="D150" s="82"/>
-      <c r="E150" s="82"/>
-      <c r="F150" s="82"/>
-      <c r="G150" s="82"/>
-      <c r="H150" s="82"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="82"/>
-      <c r="B151" s="82"/>
-      <c r="C151" s="82"/>
-      <c r="D151" s="82"/>
-      <c r="E151" s="82"/>
-      <c r="F151" s="82"/>
-      <c r="G151" s="82"/>
-      <c r="H151" s="82"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="82"/>
-      <c r="B152" s="82"/>
-      <c r="C152" s="82"/>
-      <c r="D152" s="82"/>
-      <c r="E152" s="82"/>
-      <c r="F152" s="82"/>
-      <c r="G152" s="82"/>
-      <c r="H152" s="82"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="82"/>
-      <c r="B153" s="82"/>
-      <c r="C153" s="82"/>
-      <c r="D153" s="82"/>
-      <c r="E153" s="82"/>
-      <c r="F153" s="82"/>
-      <c r="G153" s="82"/>
-      <c r="H153" s="82"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="82"/>
-      <c r="B154" s="82"/>
-      <c r="C154" s="82"/>
-      <c r="D154" s="82"/>
-      <c r="E154" s="82"/>
-      <c r="F154" s="82"/>
-      <c r="G154" s="82"/>
-      <c r="H154" s="82"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="82"/>
-      <c r="B155" s="82"/>
-      <c r="C155" s="82"/>
-      <c r="D155" s="82"/>
-      <c r="E155" s="82"/>
-      <c r="F155" s="82"/>
-      <c r="G155" s="82"/>
-      <c r="H155" s="82"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="82"/>
-      <c r="B156" s="82"/>
-      <c r="C156" s="82"/>
-      <c r="D156" s="82"/>
-      <c r="E156" s="82"/>
-      <c r="F156" s="82"/>
-      <c r="G156" s="82"/>
-      <c r="H156" s="82"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="82"/>
-      <c r="B157" s="82"/>
-      <c r="C157" s="82"/>
-      <c r="D157" s="82"/>
-      <c r="E157" s="82"/>
-      <c r="F157" s="82"/>
-      <c r="G157" s="82"/>
-      <c r="H157" s="82"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="82"/>
-      <c r="B158" s="82"/>
-      <c r="C158" s="82"/>
-      <c r="D158" s="82"/>
-      <c r="E158" s="82"/>
-      <c r="F158" s="82"/>
-      <c r="G158" s="82"/>
-      <c r="H158" s="82"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" s="82"/>
-      <c r="B159" s="82"/>
-      <c r="C159" s="82"/>
-      <c r="D159" s="82"/>
-      <c r="E159" s="82"/>
-      <c r="F159" s="82"/>
-      <c r="G159" s="82"/>
-      <c r="H159" s="82"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="82"/>
-      <c r="B160" s="82"/>
-      <c r="C160" s="82"/>
-      <c r="D160" s="82"/>
-      <c r="E160" s="82"/>
-      <c r="F160" s="82"/>
-      <c r="G160" s="82"/>
-      <c r="H160" s="82"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="82"/>
-      <c r="B161" s="82"/>
-      <c r="C161" s="82"/>
-      <c r="D161" s="82"/>
-      <c r="E161" s="82"/>
-      <c r="F161" s="82"/>
-      <c r="G161" s="82"/>
-      <c r="H161" s="82"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" s="82"/>
-      <c r="B162" s="82"/>
-      <c r="C162" s="82"/>
-      <c r="D162" s="82"/>
-      <c r="E162" s="82"/>
-      <c r="F162" s="82"/>
-      <c r="G162" s="82"/>
-      <c r="H162" s="82"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="82"/>
-      <c r="B163" s="82"/>
-      <c r="C163" s="82"/>
-      <c r="D163" s="82"/>
-      <c r="E163" s="82"/>
-      <c r="F163" s="82"/>
-      <c r="G163" s="82"/>
-      <c r="H163" s="82"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164" s="82"/>
-      <c r="B164" s="82"/>
-      <c r="C164" s="82"/>
-      <c r="D164" s="82"/>
-      <c r="E164" s="82"/>
-      <c r="F164" s="82"/>
-      <c r="G164" s="82"/>
-      <c r="H164" s="82"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="82"/>
-      <c r="B165" s="82"/>
-      <c r="C165" s="82"/>
-      <c r="D165" s="82"/>
-      <c r="E165" s="82"/>
-      <c r="F165" s="82"/>
-      <c r="G165" s="82"/>
-      <c r="H165" s="82"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="82"/>
-      <c r="B166" s="82"/>
-      <c r="C166" s="82"/>
-      <c r="D166" s="82"/>
-      <c r="E166" s="82"/>
-      <c r="F166" s="82"/>
-      <c r="G166" s="82"/>
-      <c r="H166" s="82"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="82"/>
-      <c r="B167" s="82"/>
-      <c r="C167" s="82"/>
-      <c r="D167" s="82"/>
-      <c r="E167" s="82"/>
-      <c r="F167" s="82"/>
-      <c r="G167" s="82"/>
-      <c r="H167" s="82"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="82"/>
-      <c r="B168" s="82"/>
-      <c r="C168" s="82"/>
-      <c r="D168" s="82"/>
-      <c r="E168" s="82"/>
-      <c r="F168" s="82"/>
-      <c r="G168" s="82"/>
-      <c r="H168" s="82"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" s="82"/>
-      <c r="B169" s="82"/>
-      <c r="C169" s="82"/>
-      <c r="D169" s="82"/>
-      <c r="E169" s="82"/>
-      <c r="F169" s="82"/>
-      <c r="G169" s="82"/>
-      <c r="H169" s="82"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="82"/>
-      <c r="B170" s="82"/>
-      <c r="C170" s="82"/>
-      <c r="D170" s="82"/>
-      <c r="E170" s="82"/>
-      <c r="F170" s="82"/>
-      <c r="G170" s="82"/>
-      <c r="H170" s="82"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171" s="82"/>
-      <c r="B171" s="82"/>
-      <c r="C171" s="82"/>
-      <c r="D171" s="82"/>
-      <c r="E171" s="82"/>
-      <c r="F171" s="82"/>
-      <c r="G171" s="82"/>
-      <c r="H171" s="82"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A172" s="82"/>
-      <c r="B172" s="82"/>
-      <c r="C172" s="82"/>
-      <c r="D172" s="82"/>
-      <c r="E172" s="82"/>
-      <c r="F172" s="82"/>
-      <c r="G172" s="82"/>
-      <c r="H172" s="82"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="82"/>
-      <c r="B173" s="82"/>
-      <c r="C173" s="82"/>
-      <c r="D173" s="82"/>
-      <c r="E173" s="82"/>
-      <c r="F173" s="82"/>
-      <c r="G173" s="82"/>
-      <c r="H173" s="82"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A174" s="82"/>
-      <c r="B174" s="82"/>
-      <c r="C174" s="82"/>
-      <c r="D174" s="82"/>
-      <c r="E174" s="82"/>
-      <c r="F174" s="82"/>
-      <c r="G174" s="82"/>
-      <c r="H174" s="82"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A175" s="82"/>
-      <c r="B175" s="82"/>
-      <c r="C175" s="82"/>
-      <c r="D175" s="82"/>
-      <c r="E175" s="82"/>
-      <c r="F175" s="82"/>
-      <c r="G175" s="82"/>
-      <c r="H175" s="82"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A176" s="82"/>
-      <c r="B176" s="82"/>
-      <c r="C176" s="82"/>
-      <c r="D176" s="82"/>
-      <c r="E176" s="82"/>
-      <c r="F176" s="82"/>
-      <c r="G176" s="82"/>
-      <c r="H176" s="82"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A177" s="82"/>
-      <c r="B177" s="82"/>
-      <c r="C177" s="82"/>
-      <c r="D177" s="82"/>
-      <c r="E177" s="82"/>
-      <c r="F177" s="82"/>
-      <c r="G177" s="82"/>
-      <c r="H177" s="82"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A178" s="82"/>
-      <c r="B178" s="82"/>
-      <c r="C178" s="82"/>
-      <c r="D178" s="82"/>
-      <c r="E178" s="82"/>
-      <c r="F178" s="82"/>
-      <c r="G178" s="82"/>
-      <c r="H178" s="82"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A179" s="82"/>
-      <c r="B179" s="82"/>
-      <c r="C179" s="82"/>
-      <c r="D179" s="82"/>
-      <c r="E179" s="82"/>
-      <c r="F179" s="82"/>
-      <c r="G179" s="82"/>
-      <c r="H179" s="82"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" s="82"/>
-      <c r="B180" s="82"/>
-      <c r="C180" s="82"/>
-      <c r="D180" s="82"/>
-      <c r="E180" s="82"/>
-      <c r="F180" s="82"/>
-      <c r="G180" s="82"/>
-      <c r="H180" s="82"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" s="82"/>
-      <c r="B181" s="82"/>
-      <c r="C181" s="82"/>
-      <c r="D181" s="82"/>
-      <c r="E181" s="82"/>
-      <c r="F181" s="82"/>
-      <c r="G181" s="82"/>
-      <c r="H181" s="82"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A182" s="82"/>
-      <c r="B182" s="82"/>
-      <c r="C182" s="82"/>
-      <c r="D182" s="82"/>
-      <c r="E182" s="82"/>
-      <c r="F182" s="82"/>
-      <c r="G182" s="82"/>
-      <c r="H182" s="82"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A183" s="82"/>
-      <c r="B183" s="82"/>
-      <c r="C183" s="82"/>
-      <c r="D183" s="82"/>
-      <c r="E183" s="82"/>
-      <c r="F183" s="82"/>
-      <c r="G183" s="82"/>
-      <c r="H183" s="82"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A184" s="82"/>
-      <c r="B184" s="82"/>
-      <c r="C184" s="82"/>
-      <c r="D184" s="82"/>
-      <c r="E184" s="82"/>
-      <c r="F184" s="82"/>
-      <c r="G184" s="82"/>
-      <c r="H184" s="82"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A185" s="82"/>
-      <c r="B185" s="82"/>
-      <c r="C185" s="82"/>
-      <c r="D185" s="82"/>
-      <c r="E185" s="82"/>
-      <c r="F185" s="82"/>
-      <c r="G185" s="82"/>
-      <c r="H185" s="82"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A186" s="82"/>
-      <c r="B186" s="82"/>
-      <c r="C186" s="82"/>
-      <c r="D186" s="82"/>
-      <c r="E186" s="82"/>
-      <c r="F186" s="82"/>
-      <c r="G186" s="82"/>
-      <c r="H186" s="82"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A187" s="82"/>
-      <c r="B187" s="82"/>
-      <c r="C187" s="82"/>
-      <c r="D187" s="82"/>
-      <c r="E187" s="82"/>
-      <c r="F187" s="82"/>
-      <c r="G187" s="82"/>
-      <c r="H187" s="82"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A188" s="82"/>
-      <c r="B188" s="82"/>
-      <c r="C188" s="82"/>
-      <c r="D188" s="82"/>
-      <c r="E188" s="82"/>
-      <c r="F188" s="82"/>
-      <c r="G188" s="82"/>
-      <c r="H188" s="82"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A189" s="82"/>
-      <c r="B189" s="82"/>
-      <c r="C189" s="82"/>
-      <c r="D189" s="82"/>
-      <c r="E189" s="82"/>
-      <c r="F189" s="82"/>
-      <c r="G189" s="82"/>
-      <c r="H189" s="82"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A190" s="82"/>
-      <c r="B190" s="82"/>
-      <c r="C190" s="82"/>
-      <c r="D190" s="82"/>
-      <c r="E190" s="82"/>
-      <c r="F190" s="82"/>
-      <c r="G190" s="82"/>
-      <c r="H190" s="82"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A191" s="82"/>
-      <c r="B191" s="82"/>
-      <c r="C191" s="82"/>
-      <c r="D191" s="82"/>
-      <c r="E191" s="82"/>
-      <c r="F191" s="82"/>
-      <c r="G191" s="82"/>
-      <c r="H191" s="82"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A192" s="82"/>
-      <c r="B192" s="82"/>
-      <c r="C192" s="82"/>
-      <c r="D192" s="82"/>
-      <c r="E192" s="82"/>
-      <c r="F192" s="82"/>
-      <c r="G192" s="82"/>
-      <c r="H192" s="82"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A193" s="82"/>
-      <c r="B193" s="82"/>
-      <c r="C193" s="82"/>
-      <c r="D193" s="82"/>
-      <c r="E193" s="82"/>
-      <c r="F193" s="82"/>
-      <c r="G193" s="82"/>
-      <c r="H193" s="82"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A194" s="82"/>
-      <c r="B194" s="82"/>
-      <c r="C194" s="82"/>
-      <c r="D194" s="82"/>
-      <c r="E194" s="82"/>
-      <c r="F194" s="82"/>
-      <c r="G194" s="82"/>
-      <c r="H194" s="82"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A195" s="82"/>
-      <c r="B195" s="82"/>
-      <c r="C195" s="82"/>
-      <c r="D195" s="82"/>
-      <c r="E195" s="82"/>
-      <c r="F195" s="82"/>
-      <c r="G195" s="82"/>
-      <c r="H195" s="82"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A196" s="82"/>
-      <c r="B196" s="82"/>
-      <c r="C196" s="82"/>
-      <c r="D196" s="82"/>
-      <c r="E196" s="82"/>
-      <c r="F196" s="82"/>
-      <c r="G196" s="82"/>
-      <c r="H196" s="82"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A197" s="82"/>
-      <c r="B197" s="82"/>
-      <c r="C197" s="82"/>
-      <c r="D197" s="82"/>
-      <c r="E197" s="82"/>
-      <c r="F197" s="82"/>
-      <c r="G197" s="82"/>
-      <c r="H197" s="82"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A198" s="82"/>
-      <c r="B198" s="82"/>
-      <c r="C198" s="82"/>
-      <c r="D198" s="82"/>
-      <c r="E198" s="82"/>
-      <c r="F198" s="82"/>
-      <c r="G198" s="82"/>
-      <c r="H198" s="82"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A199" s="82"/>
-      <c r="B199" s="82"/>
-      <c r="C199" s="82"/>
-      <c r="D199" s="82"/>
-      <c r="E199" s="82"/>
-      <c r="F199" s="82"/>
-      <c r="G199" s="82"/>
-      <c r="H199" s="82"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A200" s="82"/>
-      <c r="B200" s="82"/>
-      <c r="C200" s="82"/>
-      <c r="D200" s="82"/>
-      <c r="E200" s="82"/>
-      <c r="F200" s="82"/>
-      <c r="G200" s="82"/>
-      <c r="H200" s="82"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A201" s="82"/>
-      <c r="B201" s="82"/>
-      <c r="C201" s="82"/>
-      <c r="D201" s="82"/>
-      <c r="E201" s="82"/>
-      <c r="F201" s="82"/>
-      <c r="G201" s="82"/>
-      <c r="H201" s="82"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A202" s="82"/>
-      <c r="B202" s="82"/>
-      <c r="C202" s="82"/>
-      <c r="D202" s="82"/>
-      <c r="E202" s="82"/>
-      <c r="F202" s="82"/>
-      <c r="G202" s="82"/>
-      <c r="H202" s="82"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A203" s="82"/>
-      <c r="B203" s="82"/>
-      <c r="C203" s="82"/>
-      <c r="D203" s="82"/>
-      <c r="E203" s="82"/>
-      <c r="F203" s="82"/>
-      <c r="G203" s="82"/>
-      <c r="H203" s="82"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A204" s="82"/>
-      <c r="B204" s="82"/>
-      <c r="C204" s="82"/>
-      <c r="D204" s="82"/>
-      <c r="E204" s="82"/>
-      <c r="F204" s="82"/>
-      <c r="G204" s="82"/>
-      <c r="H204" s="82"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A205" s="82"/>
-      <c r="B205" s="82"/>
-      <c r="C205" s="82"/>
-      <c r="D205" s="82"/>
-      <c r="E205" s="82"/>
-      <c r="F205" s="82"/>
-      <c r="G205" s="82"/>
-      <c r="H205" s="82"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A206" s="82"/>
-      <c r="B206" s="82"/>
-      <c r="C206" s="82"/>
-      <c r="D206" s="82"/>
-      <c r="E206" s="82"/>
-      <c r="F206" s="82"/>
-      <c r="G206" s="82"/>
-      <c r="H206" s="82"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A207" s="82"/>
-      <c r="B207" s="82"/>
-      <c r="C207" s="82"/>
-      <c r="D207" s="82"/>
-      <c r="E207" s="82"/>
-      <c r="F207" s="82"/>
-      <c r="G207" s="82"/>
-      <c r="H207" s="82"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A208" s="82"/>
-      <c r="B208" s="82"/>
-      <c r="C208" s="82"/>
-      <c r="D208" s="82"/>
-      <c r="E208" s="82"/>
-      <c r="F208" s="82"/>
-      <c r="G208" s="82"/>
-      <c r="H208" s="82"/>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A209" s="82"/>
-      <c r="B209" s="82"/>
-      <c r="C209" s="82"/>
-      <c r="D209" s="82"/>
-      <c r="E209" s="82"/>
-      <c r="F209" s="82"/>
-      <c r="G209" s="82"/>
-      <c r="H209" s="82"/>
+      <c r="C3" s="43">
+        <v>17</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="43">
+        <v>1</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="43">
+        <v>2</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="43">
+        <v>23</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="43">
+        <v>1</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="43">
+        <v>3</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="43">
+        <v>20</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="43">
+        <v>1</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="J6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="J7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="J8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="J9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="J10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="J11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="J12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="J13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="J14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="J15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="J16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="J17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="J18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="J19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="J20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="J21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="J22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="J23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="J24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="J25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="J26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="J27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="J28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="J29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="J30">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="J31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="J32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="J33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="J34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="J35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="J36">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="J37">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="J38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="J39">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="J40">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="J41">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="J42">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="J43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="J44">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="J45">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="J46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="J47">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="J48">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="J49">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="J50">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="J51">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="J52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="J53">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="J54">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="J55">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="J56">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="J57">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="J58">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="J59">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="J60">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="J61">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="J62">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="J63">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="J64">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="J65">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="J66">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="J67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="J68">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="J69">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+      <c r="J70">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="J71">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="J72">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="J73">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="J74">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="J75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="J76">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
+      <c r="J77">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="J78">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="43"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
+      <c r="J79">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="43"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
+      <c r="J80">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="43"/>
+      <c r="J81">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="43"/>
+      <c r="J82">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="J83">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+      <c r="J84">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="43"/>
+      <c r="J85">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="43"/>
+      <c r="J86">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="43"/>
+      <c r="H87" s="43"/>
+      <c r="J87">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
+      <c r="J88">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
+      <c r="J89">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="43"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="43"/>
+      <c r="J90">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="43"/>
+      <c r="J91">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="43"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="J92">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="43"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+      <c r="J93">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="43"/>
+      <c r="J94">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="43"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="43"/>
+      <c r="J95">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="43"/>
+      <c r="J96">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="43"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="43"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="43"/>
+      <c r="J97">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="43"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="43"/>
+      <c r="J98">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="43"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="43"/>
+      <c r="J99">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="43"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="43"/>
+      <c r="J100">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="43"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="43"/>
+      <c r="F101" s="43"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="43"/>
+      <c r="J101">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="43"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="43"/>
+      <c r="J102">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="43"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="43"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="43"/>
+      <c r="J103">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="43"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="43"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="43"/>
+      <c r="J104">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="43"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="43"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="43"/>
+      <c r="J105">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="43"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="43"/>
+      <c r="F106" s="43"/>
+      <c r="G106" s="43"/>
+      <c r="H106" s="43"/>
+      <c r="J106">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="43"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="43"/>
+      <c r="F107" s="43"/>
+      <c r="G107" s="43"/>
+      <c r="H107" s="43"/>
+      <c r="J107">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="43"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="43"/>
+      <c r="G108" s="43"/>
+      <c r="H108" s="43"/>
+      <c r="J108">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="43"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="43"/>
+      <c r="F109" s="43"/>
+      <c r="G109" s="43"/>
+      <c r="H109" s="43"/>
+      <c r="J109">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="43"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="43"/>
+      <c r="F110" s="43"/>
+      <c r="G110" s="43"/>
+      <c r="H110" s="43"/>
+      <c r="J110">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="43"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="43"/>
+      <c r="G111" s="43"/>
+      <c r="H111" s="43"/>
+      <c r="J111">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="43"/>
+      <c r="B112" s="43"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="43"/>
+      <c r="E112" s="43"/>
+      <c r="F112" s="43"/>
+      <c r="G112" s="43"/>
+      <c r="H112" s="43"/>
+      <c r="J112">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="43"/>
+      <c r="B113" s="43"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="43"/>
+      <c r="E113" s="43"/>
+      <c r="F113" s="43"/>
+      <c r="G113" s="43"/>
+      <c r="H113" s="43"/>
+      <c r="J113">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="43"/>
+      <c r="B114" s="43"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="43"/>
+      <c r="E114" s="43"/>
+      <c r="F114" s="43"/>
+      <c r="G114" s="43"/>
+      <c r="H114" s="43"/>
+      <c r="J114">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="43"/>
+      <c r="B115" s="43"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="43"/>
+      <c r="E115" s="43"/>
+      <c r="F115" s="43"/>
+      <c r="G115" s="43"/>
+      <c r="H115" s="43"/>
+      <c r="J115">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="43"/>
+      <c r="B116" s="43"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="43"/>
+      <c r="E116" s="43"/>
+      <c r="F116" s="43"/>
+      <c r="G116" s="43"/>
+      <c r="H116" s="43"/>
+      <c r="J116">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="43"/>
+      <c r="B117" s="43"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="43"/>
+      <c r="E117" s="43"/>
+      <c r="F117" s="43"/>
+      <c r="G117" s="43"/>
+      <c r="H117" s="43"/>
+      <c r="J117">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="43"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="43"/>
+      <c r="E118" s="43"/>
+      <c r="F118" s="43"/>
+      <c r="G118" s="43"/>
+      <c r="H118" s="43"/>
+      <c r="J118">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="43"/>
+      <c r="B119" s="43"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="43"/>
+      <c r="E119" s="43"/>
+      <c r="F119" s="43"/>
+      <c r="G119" s="43"/>
+      <c r="H119" s="43"/>
+      <c r="J119">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="43"/>
+      <c r="B120" s="43"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="43"/>
+      <c r="E120" s="43"/>
+      <c r="F120" s="43"/>
+      <c r="G120" s="43"/>
+      <c r="H120" s="43"/>
+      <c r="J120">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="43"/>
+      <c r="B121" s="43"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="43"/>
+      <c r="E121" s="43"/>
+      <c r="F121" s="43"/>
+      <c r="G121" s="43"/>
+      <c r="H121" s="43"/>
+      <c r="J121">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="43"/>
+      <c r="B122" s="43"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="43"/>
+      <c r="E122" s="43"/>
+      <c r="F122" s="43"/>
+      <c r="G122" s="43"/>
+      <c r="H122" s="43"/>
+      <c r="J122">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="43"/>
+      <c r="B123" s="43"/>
+      <c r="C123" s="43"/>
+      <c r="D123" s="43"/>
+      <c r="E123" s="43"/>
+      <c r="F123" s="43"/>
+      <c r="G123" s="43"/>
+      <c r="H123" s="43"/>
+      <c r="J123">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="43"/>
+      <c r="B124" s="43"/>
+      <c r="C124" s="43"/>
+      <c r="D124" s="43"/>
+      <c r="E124" s="43"/>
+      <c r="F124" s="43"/>
+      <c r="G124" s="43"/>
+      <c r="H124" s="43"/>
+      <c r="J124">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="43"/>
+      <c r="B125" s="43"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="43"/>
+      <c r="E125" s="43"/>
+      <c r="F125" s="43"/>
+      <c r="G125" s="43"/>
+      <c r="H125" s="43"/>
+      <c r="J125">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="43"/>
+      <c r="B126" s="43"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="43"/>
+      <c r="E126" s="43"/>
+      <c r="F126" s="43"/>
+      <c r="G126" s="43"/>
+      <c r="H126" s="43"/>
+      <c r="J126">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="43"/>
+      <c r="B127" s="43"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="43"/>
+      <c r="E127" s="43"/>
+      <c r="F127" s="43"/>
+      <c r="G127" s="43"/>
+      <c r="H127" s="43"/>
+      <c r="J127">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="43"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="43"/>
+      <c r="E128" s="43"/>
+      <c r="F128" s="43"/>
+      <c r="G128" s="43"/>
+      <c r="H128" s="43"/>
+      <c r="J128">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="43"/>
+      <c r="B129" s="43"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="43"/>
+      <c r="E129" s="43"/>
+      <c r="F129" s="43"/>
+      <c r="G129" s="43"/>
+      <c r="H129" s="43"/>
+      <c r="J129">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="43"/>
+      <c r="B130" s="43"/>
+      <c r="C130" s="43"/>
+      <c r="D130" s="43"/>
+      <c r="E130" s="43"/>
+      <c r="F130" s="43"/>
+      <c r="G130" s="43"/>
+      <c r="H130" s="43"/>
+      <c r="J130">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="43"/>
+      <c r="B131" s="43"/>
+      <c r="C131" s="43"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="43"/>
+      <c r="F131" s="43"/>
+      <c r="G131" s="43"/>
+      <c r="H131" s="43"/>
+      <c r="J131">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="43"/>
+      <c r="B132" s="43"/>
+      <c r="C132" s="43"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="43"/>
+      <c r="F132" s="43"/>
+      <c r="G132" s="43"/>
+      <c r="H132" s="43"/>
+      <c r="J132">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="43"/>
+      <c r="B133" s="43"/>
+      <c r="C133" s="43"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="43"/>
+      <c r="F133" s="43"/>
+      <c r="G133" s="43"/>
+      <c r="H133" s="43"/>
+      <c r="J133">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="43"/>
+      <c r="B134" s="43"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="43"/>
+      <c r="F134" s="43"/>
+      <c r="G134" s="43"/>
+      <c r="H134" s="43"/>
+      <c r="J134">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="43"/>
+      <c r="B135" s="43"/>
+      <c r="C135" s="43"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="43"/>
+      <c r="F135" s="43"/>
+      <c r="G135" s="43"/>
+      <c r="H135" s="43"/>
+      <c r="J135">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="43"/>
+      <c r="B136" s="43"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="43"/>
+      <c r="F136" s="43"/>
+      <c r="G136" s="43"/>
+      <c r="H136" s="43"/>
+      <c r="J136">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="43"/>
+      <c r="B137" s="43"/>
+      <c r="C137" s="43"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="43"/>
+      <c r="F137" s="43"/>
+      <c r="G137" s="43"/>
+      <c r="H137" s="43"/>
+      <c r="J137">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="43"/>
+      <c r="B138" s="43"/>
+      <c r="C138" s="43"/>
+      <c r="D138" s="43"/>
+      <c r="E138" s="43"/>
+      <c r="F138" s="43"/>
+      <c r="G138" s="43"/>
+      <c r="H138" s="43"/>
+      <c r="J138">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="43"/>
+      <c r="B139" s="43"/>
+      <c r="C139" s="43"/>
+      <c r="D139" s="43"/>
+      <c r="E139" s="43"/>
+      <c r="F139" s="43"/>
+      <c r="G139" s="43"/>
+      <c r="H139" s="43"/>
+      <c r="J139">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="43"/>
+      <c r="B140" s="43"/>
+      <c r="C140" s="43"/>
+      <c r="D140" s="43"/>
+      <c r="E140" s="43"/>
+      <c r="F140" s="43"/>
+      <c r="G140" s="43"/>
+      <c r="H140" s="43"/>
+      <c r="J140">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="43"/>
+      <c r="B141" s="43"/>
+      <c r="C141" s="43"/>
+      <c r="D141" s="43"/>
+      <c r="E141" s="43"/>
+      <c r="F141" s="43"/>
+      <c r="G141" s="43"/>
+      <c r="H141" s="43"/>
+      <c r="J141">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="43"/>
+      <c r="B142" s="43"/>
+      <c r="C142" s="43"/>
+      <c r="D142" s="43"/>
+      <c r="E142" s="43"/>
+      <c r="F142" s="43"/>
+      <c r="G142" s="43"/>
+      <c r="H142" s="43"/>
+      <c r="J142">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="43"/>
+      <c r="B143" s="43"/>
+      <c r="C143" s="43"/>
+      <c r="D143" s="43"/>
+      <c r="E143" s="43"/>
+      <c r="F143" s="43"/>
+      <c r="G143" s="43"/>
+      <c r="H143" s="43"/>
+      <c r="J143">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="43"/>
+      <c r="B144" s="43"/>
+      <c r="C144" s="43"/>
+      <c r="D144" s="43"/>
+      <c r="E144" s="43"/>
+      <c r="F144" s="43"/>
+      <c r="G144" s="43"/>
+      <c r="H144" s="43"/>
+      <c r="J144">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" s="43"/>
+      <c r="B145" s="43"/>
+      <c r="C145" s="43"/>
+      <c r="D145" s="43"/>
+      <c r="E145" s="43"/>
+      <c r="F145" s="43"/>
+      <c r="G145" s="43"/>
+      <c r="H145" s="43"/>
+      <c r="J145">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="43"/>
+      <c r="B146" s="43"/>
+      <c r="C146" s="43"/>
+      <c r="D146" s="43"/>
+      <c r="E146" s="43"/>
+      <c r="F146" s="43"/>
+      <c r="G146" s="43"/>
+      <c r="H146" s="43"/>
+      <c r="J146">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="43"/>
+      <c r="B147" s="43"/>
+      <c r="C147" s="43"/>
+      <c r="D147" s="43"/>
+      <c r="E147" s="43"/>
+      <c r="F147" s="43"/>
+      <c r="G147" s="43"/>
+      <c r="H147" s="43"/>
+      <c r="J147">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="43"/>
+      <c r="B148" s="43"/>
+      <c r="C148" s="43"/>
+      <c r="D148" s="43"/>
+      <c r="E148" s="43"/>
+      <c r="F148" s="43"/>
+      <c r="G148" s="43"/>
+      <c r="H148" s="43"/>
+      <c r="J148">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" s="43"/>
+      <c r="B149" s="43"/>
+      <c r="C149" s="43"/>
+      <c r="D149" s="43"/>
+      <c r="E149" s="43"/>
+      <c r="F149" s="43"/>
+      <c r="G149" s="43"/>
+      <c r="H149" s="43"/>
+      <c r="J149">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="43"/>
+      <c r="B150" s="43"/>
+      <c r="C150" s="43"/>
+      <c r="D150" s="43"/>
+      <c r="E150" s="43"/>
+      <c r="F150" s="43"/>
+      <c r="G150" s="43"/>
+      <c r="H150" s="43"/>
+      <c r="J150">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" s="43"/>
+      <c r="B151" s="43"/>
+      <c r="C151" s="43"/>
+      <c r="D151" s="43"/>
+      <c r="E151" s="43"/>
+      <c r="F151" s="43"/>
+      <c r="G151" s="43"/>
+      <c r="H151" s="43"/>
+      <c r="J151">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="43"/>
+      <c r="B152" s="43"/>
+      <c r="C152" s="43"/>
+      <c r="D152" s="43"/>
+      <c r="E152" s="43"/>
+      <c r="F152" s="43"/>
+      <c r="G152" s="43"/>
+      <c r="H152" s="43"/>
+      <c r="J152">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="43"/>
+      <c r="B153" s="43"/>
+      <c r="C153" s="43"/>
+      <c r="D153" s="43"/>
+      <c r="E153" s="43"/>
+      <c r="F153" s="43"/>
+      <c r="G153" s="43"/>
+      <c r="H153" s="43"/>
+      <c r="J153">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" s="43"/>
+      <c r="B154" s="43"/>
+      <c r="C154" s="43"/>
+      <c r="D154" s="43"/>
+      <c r="E154" s="43"/>
+      <c r="F154" s="43"/>
+      <c r="G154" s="43"/>
+      <c r="H154" s="43"/>
+      <c r="J154">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" s="43"/>
+      <c r="B155" s="43"/>
+      <c r="C155" s="43"/>
+      <c r="D155" s="43"/>
+      <c r="E155" s="43"/>
+      <c r="F155" s="43"/>
+      <c r="G155" s="43"/>
+      <c r="H155" s="43"/>
+      <c r="J155">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" s="43"/>
+      <c r="B156" s="43"/>
+      <c r="C156" s="43"/>
+      <c r="D156" s="43"/>
+      <c r="E156" s="43"/>
+      <c r="F156" s="43"/>
+      <c r="G156" s="43"/>
+      <c r="H156" s="43"/>
+      <c r="J156">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="43"/>
+      <c r="B157" s="43"/>
+      <c r="C157" s="43"/>
+      <c r="D157" s="43"/>
+      <c r="E157" s="43"/>
+      <c r="F157" s="43"/>
+      <c r="G157" s="43"/>
+      <c r="H157" s="43"/>
+      <c r="J157">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="43"/>
+      <c r="B158" s="43"/>
+      <c r="C158" s="43"/>
+      <c r="D158" s="43"/>
+      <c r="E158" s="43"/>
+      <c r="F158" s="43"/>
+      <c r="G158" s="43"/>
+      <c r="H158" s="43"/>
+      <c r="J158">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" s="43"/>
+      <c r="B159" s="43"/>
+      <c r="C159" s="43"/>
+      <c r="D159" s="43"/>
+      <c r="E159" s="43"/>
+      <c r="F159" s="43"/>
+      <c r="G159" s="43"/>
+      <c r="H159" s="43"/>
+      <c r="J159">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" s="43"/>
+      <c r="B160" s="43"/>
+      <c r="C160" s="43"/>
+      <c r="D160" s="43"/>
+      <c r="E160" s="43"/>
+      <c r="F160" s="43"/>
+      <c r="G160" s="43"/>
+      <c r="H160" s="43"/>
+      <c r="J160">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" s="43"/>
+      <c r="B161" s="43"/>
+      <c r="C161" s="43"/>
+      <c r="D161" s="43"/>
+      <c r="E161" s="43"/>
+      <c r="F161" s="43"/>
+      <c r="G161" s="43"/>
+      <c r="H161" s="43"/>
+      <c r="J161">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" s="43"/>
+      <c r="B162" s="43"/>
+      <c r="C162" s="43"/>
+      <c r="D162" s="43"/>
+      <c r="E162" s="43"/>
+      <c r="F162" s="43"/>
+      <c r="G162" s="43"/>
+      <c r="H162" s="43"/>
+      <c r="J162">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="43"/>
+      <c r="B163" s="43"/>
+      <c r="C163" s="43"/>
+      <c r="D163" s="43"/>
+      <c r="E163" s="43"/>
+      <c r="F163" s="43"/>
+      <c r="G163" s="43"/>
+      <c r="H163" s="43"/>
+      <c r="J163">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="43"/>
+      <c r="B164" s="43"/>
+      <c r="C164" s="43"/>
+      <c r="D164" s="43"/>
+      <c r="E164" s="43"/>
+      <c r="F164" s="43"/>
+      <c r="G164" s="43"/>
+      <c r="H164" s="43"/>
+      <c r="J164">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" s="43"/>
+      <c r="B165" s="43"/>
+      <c r="C165" s="43"/>
+      <c r="D165" s="43"/>
+      <c r="E165" s="43"/>
+      <c r="F165" s="43"/>
+      <c r="G165" s="43"/>
+      <c r="H165" s="43"/>
+      <c r="J165">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" s="43"/>
+      <c r="B166" s="43"/>
+      <c r="C166" s="43"/>
+      <c r="D166" s="43"/>
+      <c r="E166" s="43"/>
+      <c r="F166" s="43"/>
+      <c r="G166" s="43"/>
+      <c r="H166" s="43"/>
+      <c r="J166">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" s="43"/>
+      <c r="B167" s="43"/>
+      <c r="C167" s="43"/>
+      <c r="D167" s="43"/>
+      <c r="E167" s="43"/>
+      <c r="F167" s="43"/>
+      <c r="G167" s="43"/>
+      <c r="H167" s="43"/>
+      <c r="J167">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" s="43"/>
+      <c r="B168" s="43"/>
+      <c r="C168" s="43"/>
+      <c r="D168" s="43"/>
+      <c r="E168" s="43"/>
+      <c r="F168" s="43"/>
+      <c r="G168" s="43"/>
+      <c r="H168" s="43"/>
+      <c r="J168">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" s="43"/>
+      <c r="B169" s="43"/>
+      <c r="C169" s="43"/>
+      <c r="D169" s="43"/>
+      <c r="E169" s="43"/>
+      <c r="F169" s="43"/>
+      <c r="G169" s="43"/>
+      <c r="H169" s="43"/>
+      <c r="J169">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" s="43"/>
+      <c r="B170" s="43"/>
+      <c r="C170" s="43"/>
+      <c r="D170" s="43"/>
+      <c r="E170" s="43"/>
+      <c r="F170" s="43"/>
+      <c r="G170" s="43"/>
+      <c r="H170" s="43"/>
+      <c r="J170">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" s="43"/>
+      <c r="B171" s="43"/>
+      <c r="C171" s="43"/>
+      <c r="D171" s="43"/>
+      <c r="E171" s="43"/>
+      <c r="F171" s="43"/>
+      <c r="G171" s="43"/>
+      <c r="H171" s="43"/>
+      <c r="J171">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" s="43"/>
+      <c r="B172" s="43"/>
+      <c r="C172" s="43"/>
+      <c r="D172" s="43"/>
+      <c r="E172" s="43"/>
+      <c r="F172" s="43"/>
+      <c r="G172" s="43"/>
+      <c r="H172" s="43"/>
+      <c r="J172">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" s="43"/>
+      <c r="B173" s="43"/>
+      <c r="C173" s="43"/>
+      <c r="D173" s="43"/>
+      <c r="E173" s="43"/>
+      <c r="F173" s="43"/>
+      <c r="G173" s="43"/>
+      <c r="H173" s="43"/>
+      <c r="J173">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" s="43"/>
+      <c r="B174" s="43"/>
+      <c r="C174" s="43"/>
+      <c r="D174" s="43"/>
+      <c r="E174" s="43"/>
+      <c r="F174" s="43"/>
+      <c r="G174" s="43"/>
+      <c r="H174" s="43"/>
+      <c r="J174">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" s="43"/>
+      <c r="B175" s="43"/>
+      <c r="C175" s="43"/>
+      <c r="D175" s="43"/>
+      <c r="E175" s="43"/>
+      <c r="F175" s="43"/>
+      <c r="G175" s="43"/>
+      <c r="H175" s="43"/>
+      <c r="J175">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" s="43"/>
+      <c r="B176" s="43"/>
+      <c r="C176" s="43"/>
+      <c r="D176" s="43"/>
+      <c r="E176" s="43"/>
+      <c r="F176" s="43"/>
+      <c r="G176" s="43"/>
+      <c r="H176" s="43"/>
+      <c r="J176">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" s="43"/>
+      <c r="B177" s="43"/>
+      <c r="C177" s="43"/>
+      <c r="D177" s="43"/>
+      <c r="E177" s="43"/>
+      <c r="F177" s="43"/>
+      <c r="G177" s="43"/>
+      <c r="H177" s="43"/>
+      <c r="J177">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" s="43"/>
+      <c r="B178" s="43"/>
+      <c r="C178" s="43"/>
+      <c r="D178" s="43"/>
+      <c r="E178" s="43"/>
+      <c r="F178" s="43"/>
+      <c r="G178" s="43"/>
+      <c r="H178" s="43"/>
+      <c r="J178">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" s="43"/>
+      <c r="B179" s="43"/>
+      <c r="C179" s="43"/>
+      <c r="D179" s="43"/>
+      <c r="E179" s="43"/>
+      <c r="F179" s="43"/>
+      <c r="G179" s="43"/>
+      <c r="H179" s="43"/>
+      <c r="J179">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" s="43"/>
+      <c r="B180" s="43"/>
+      <c r="C180" s="43"/>
+      <c r="D180" s="43"/>
+      <c r="E180" s="43"/>
+      <c r="F180" s="43"/>
+      <c r="G180" s="43"/>
+      <c r="H180" s="43"/>
+      <c r="J180">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181" s="43"/>
+      <c r="B181" s="43"/>
+      <c r="C181" s="43"/>
+      <c r="D181" s="43"/>
+      <c r="E181" s="43"/>
+      <c r="F181" s="43"/>
+      <c r="G181" s="43"/>
+      <c r="H181" s="43"/>
+      <c r="J181">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182" s="43"/>
+      <c r="B182" s="43"/>
+      <c r="C182" s="43"/>
+      <c r="D182" s="43"/>
+      <c r="E182" s="43"/>
+      <c r="F182" s="43"/>
+      <c r="G182" s="43"/>
+      <c r="H182" s="43"/>
+      <c r="J182">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183" s="43"/>
+      <c r="B183" s="43"/>
+      <c r="C183" s="43"/>
+      <c r="D183" s="43"/>
+      <c r="E183" s="43"/>
+      <c r="F183" s="43"/>
+      <c r="G183" s="43"/>
+      <c r="H183" s="43"/>
+      <c r="J183">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184" s="43"/>
+      <c r="B184" s="43"/>
+      <c r="C184" s="43"/>
+      <c r="D184" s="43"/>
+      <c r="E184" s="43"/>
+      <c r="F184" s="43"/>
+      <c r="G184" s="43"/>
+      <c r="H184" s="43"/>
+      <c r="J184">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" s="43"/>
+      <c r="B185" s="43"/>
+      <c r="C185" s="43"/>
+      <c r="D185" s="43"/>
+      <c r="E185" s="43"/>
+      <c r="F185" s="43"/>
+      <c r="G185" s="43"/>
+      <c r="H185" s="43"/>
+      <c r="J185">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186" s="43"/>
+      <c r="B186" s="43"/>
+      <c r="C186" s="43"/>
+      <c r="D186" s="43"/>
+      <c r="E186" s="43"/>
+      <c r="F186" s="43"/>
+      <c r="G186" s="43"/>
+      <c r="H186" s="43"/>
+      <c r="J186">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187" s="43"/>
+      <c r="B187" s="43"/>
+      <c r="C187" s="43"/>
+      <c r="D187" s="43"/>
+      <c r="E187" s="43"/>
+      <c r="F187" s="43"/>
+      <c r="G187" s="43"/>
+      <c r="H187" s="43"/>
+      <c r="J187">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188" s="43"/>
+      <c r="B188" s="43"/>
+      <c r="C188" s="43"/>
+      <c r="D188" s="43"/>
+      <c r="E188" s="43"/>
+      <c r="F188" s="43"/>
+      <c r="G188" s="43"/>
+      <c r="H188" s="43"/>
+      <c r="J188">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189" s="43"/>
+      <c r="B189" s="43"/>
+      <c r="C189" s="43"/>
+      <c r="D189" s="43"/>
+      <c r="E189" s="43"/>
+      <c r="F189" s="43"/>
+      <c r="G189" s="43"/>
+      <c r="H189" s="43"/>
+      <c r="J189">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190" s="43"/>
+      <c r="B190" s="43"/>
+      <c r="C190" s="43"/>
+      <c r="D190" s="43"/>
+      <c r="E190" s="43"/>
+      <c r="F190" s="43"/>
+      <c r="G190" s="43"/>
+      <c r="H190" s="43"/>
+      <c r="J190">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191" s="43"/>
+      <c r="B191" s="43"/>
+      <c r="C191" s="43"/>
+      <c r="D191" s="43"/>
+      <c r="E191" s="43"/>
+      <c r="F191" s="43"/>
+      <c r="G191" s="43"/>
+      <c r="H191" s="43"/>
+      <c r="J191">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192" s="43"/>
+      <c r="B192" s="43"/>
+      <c r="C192" s="43"/>
+      <c r="D192" s="43"/>
+      <c r="E192" s="43"/>
+      <c r="F192" s="43"/>
+      <c r="G192" s="43"/>
+      <c r="H192" s="43"/>
+      <c r="J192">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193" s="43"/>
+      <c r="B193" s="43"/>
+      <c r="C193" s="43"/>
+      <c r="D193" s="43"/>
+      <c r="E193" s="43"/>
+      <c r="F193" s="43"/>
+      <c r="G193" s="43"/>
+      <c r="H193" s="43"/>
+      <c r="J193">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194" s="43"/>
+      <c r="B194" s="43"/>
+      <c r="C194" s="43"/>
+      <c r="D194" s="43"/>
+      <c r="E194" s="43"/>
+      <c r="F194" s="43"/>
+      <c r="G194" s="43"/>
+      <c r="H194" s="43"/>
+      <c r="J194">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195" s="43"/>
+      <c r="B195" s="43"/>
+      <c r="C195" s="43"/>
+      <c r="D195" s="43"/>
+      <c r="E195" s="43"/>
+      <c r="F195" s="43"/>
+      <c r="G195" s="43"/>
+      <c r="H195" s="43"/>
+      <c r="J195">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="A196" s="43"/>
+      <c r="B196" s="43"/>
+      <c r="C196" s="43"/>
+      <c r="D196" s="43"/>
+      <c r="E196" s="43"/>
+      <c r="F196" s="43"/>
+      <c r="G196" s="43"/>
+      <c r="H196" s="43"/>
+      <c r="J196">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="A197" s="43"/>
+      <c r="B197" s="43"/>
+      <c r="C197" s="43"/>
+      <c r="D197" s="43"/>
+      <c r="E197" s="43"/>
+      <c r="F197" s="43"/>
+      <c r="G197" s="43"/>
+      <c r="H197" s="43"/>
+      <c r="J197">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="A198" s="43"/>
+      <c r="B198" s="43"/>
+      <c r="C198" s="43"/>
+      <c r="D198" s="43"/>
+      <c r="E198" s="43"/>
+      <c r="F198" s="43"/>
+      <c r="G198" s="43"/>
+      <c r="H198" s="43"/>
+      <c r="J198">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="A199" s="43"/>
+      <c r="B199" s="43"/>
+      <c r="C199" s="43"/>
+      <c r="D199" s="43"/>
+      <c r="E199" s="43"/>
+      <c r="F199" s="43"/>
+      <c r="G199" s="43"/>
+      <c r="H199" s="43"/>
+      <c r="J199">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="A200" s="43"/>
+      <c r="B200" s="43"/>
+      <c r="C200" s="43"/>
+      <c r="D200" s="43"/>
+      <c r="E200" s="43"/>
+      <c r="F200" s="43"/>
+      <c r="G200" s="43"/>
+      <c r="H200" s="43"/>
+      <c r="J200">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
+      <c r="A201" s="43"/>
+      <c r="B201" s="43"/>
+      <c r="C201" s="43"/>
+      <c r="D201" s="43"/>
+      <c r="E201" s="43"/>
+      <c r="F201" s="43"/>
+      <c r="G201" s="43"/>
+      <c r="H201" s="43"/>
+      <c r="J201">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
+      <c r="A202" s="43"/>
+      <c r="B202" s="43"/>
+      <c r="C202" s="43"/>
+      <c r="D202" s="43"/>
+      <c r="E202" s="43"/>
+      <c r="F202" s="43"/>
+      <c r="G202" s="43"/>
+      <c r="H202" s="43"/>
+      <c r="J202">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
+      <c r="A203" s="43"/>
+      <c r="B203" s="43"/>
+      <c r="C203" s="43"/>
+      <c r="D203" s="43"/>
+      <c r="E203" s="43"/>
+      <c r="F203" s="43"/>
+      <c r="G203" s="43"/>
+      <c r="H203" s="43"/>
+      <c r="J203">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="A204" s="43"/>
+      <c r="B204" s="43"/>
+      <c r="C204" s="43"/>
+      <c r="D204" s="43"/>
+      <c r="E204" s="43"/>
+      <c r="F204" s="43"/>
+      <c r="G204" s="43"/>
+      <c r="H204" s="43"/>
+      <c r="J204">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="A205" s="43"/>
+      <c r="B205" s="43"/>
+      <c r="C205" s="43"/>
+      <c r="D205" s="43"/>
+      <c r="E205" s="43"/>
+      <c r="F205" s="43"/>
+      <c r="G205" s="43"/>
+      <c r="H205" s="43"/>
+      <c r="J205">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="A206" s="43"/>
+      <c r="B206" s="43"/>
+      <c r="C206" s="43"/>
+      <c r="D206" s="43"/>
+      <c r="E206" s="43"/>
+      <c r="F206" s="43"/>
+      <c r="G206" s="43"/>
+      <c r="H206" s="43"/>
+      <c r="J206">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="A207" s="43"/>
+      <c r="B207" s="43"/>
+      <c r="C207" s="43"/>
+      <c r="D207" s="43"/>
+      <c r="E207" s="43"/>
+      <c r="F207" s="43"/>
+      <c r="G207" s="43"/>
+      <c r="H207" s="43"/>
+      <c r="J207">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
+      <c r="A208" s="43"/>
+      <c r="B208" s="43"/>
+      <c r="C208" s="43"/>
+      <c r="D208" s="43"/>
+      <c r="E208" s="43"/>
+      <c r="F208" s="43"/>
+      <c r="G208" s="43"/>
+      <c r="H208" s="43"/>
+      <c r="J208">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="A209" s="43"/>
+      <c r="B209" s="43"/>
+      <c r="C209" s="43"/>
+      <c r="D209" s="43"/>
+      <c r="E209" s="43"/>
+      <c r="F209" s="43"/>
+      <c r="G209" s="43"/>
+      <c r="H209" s="43"/>
+      <c r="J209">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210" s="43"/>
+      <c r="B210" s="43"/>
+      <c r="C210" s="43"/>
+      <c r="D210" s="43"/>
+      <c r="E210" s="43"/>
+      <c r="F210" s="43"/>
+      <c r="G210" s="43"/>
+      <c r="H210" s="43"/>
+      <c r="J210">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="A211" s="43"/>
+      <c r="B211" s="43"/>
+      <c r="C211" s="43"/>
+      <c r="D211" s="43"/>
+      <c r="E211" s="43"/>
+      <c r="F211" s="43"/>
+      <c r="G211" s="43"/>
+      <c r="H211" s="43"/>
+      <c r="J211">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
+      <c r="A212" s="43"/>
+      <c r="B212" s="43"/>
+      <c r="C212" s="43"/>
+      <c r="D212" s="43"/>
+      <c r="E212" s="43"/>
+      <c r="F212" s="43"/>
+      <c r="G212" s="43"/>
+      <c r="H212" s="43"/>
+      <c r="J212">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
+      <c r="A213" s="43"/>
+      <c r="B213" s="43"/>
+      <c r="C213" s="43"/>
+      <c r="D213" s="43"/>
+      <c r="E213" s="43"/>
+      <c r="F213" s="43"/>
+      <c r="G213" s="43"/>
+      <c r="H213" s="43"/>
+      <c r="J213">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="A214" s="43"/>
+      <c r="B214" s="43"/>
+      <c r="C214" s="43"/>
+      <c r="D214" s="43"/>
+      <c r="E214" s="43"/>
+      <c r="F214" s="43"/>
+      <c r="G214" s="43"/>
+      <c r="H214" s="43"/>
+      <c r="J214">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
+      <c r="A215" s="43"/>
+      <c r="B215" s="43"/>
+      <c r="C215" s="43"/>
+      <c r="D215" s="43"/>
+      <c r="E215" s="43"/>
+      <c r="F215" s="43"/>
+      <c r="G215" s="43"/>
+      <c r="H215" s="43"/>
+      <c r="J215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
+      <c r="A216" s="43"/>
+      <c r="B216" s="43"/>
+      <c r="C216" s="43"/>
+      <c r="D216" s="43"/>
+      <c r="E216" s="43"/>
+      <c r="F216" s="43"/>
+      <c r="G216" s="43"/>
+      <c r="H216" s="43"/>
+      <c r="J216">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
+      <c r="A217" s="43"/>
+      <c r="B217" s="43"/>
+      <c r="C217" s="43"/>
+      <c r="D217" s="43"/>
+      <c r="E217" s="43"/>
+      <c r="F217" s="43"/>
+      <c r="G217" s="43"/>
+      <c r="H217" s="43"/>
+      <c r="J217">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
+      <c r="A218" s="43"/>
+      <c r="B218" s="43"/>
+      <c r="C218" s="43"/>
+      <c r="D218" s="43"/>
+      <c r="E218" s="43"/>
+      <c r="F218" s="43"/>
+      <c r="G218" s="43"/>
+      <c r="H218" s="43"/>
+      <c r="J218">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
+      <c r="A219" s="43"/>
+      <c r="B219" s="43"/>
+      <c r="C219" s="43"/>
+      <c r="D219" s="43"/>
+      <c r="E219" s="43"/>
+      <c r="F219" s="43"/>
+      <c r="G219" s="43"/>
+      <c r="H219" s="43"/>
+      <c r="J219">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
+      <c r="A220" s="43"/>
+      <c r="B220" s="43"/>
+      <c r="C220" s="43"/>
+      <c r="D220" s="43"/>
+      <c r="E220" s="43"/>
+      <c r="F220" s="43"/>
+      <c r="G220" s="43"/>
+      <c r="H220" s="43"/>
+      <c r="J220">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
+      <c r="A221" s="43"/>
+      <c r="B221" s="43"/>
+      <c r="C221" s="43"/>
+      <c r="D221" s="43"/>
+      <c r="E221" s="43"/>
+      <c r="F221" s="43"/>
+      <c r="G221" s="43"/>
+      <c r="H221" s="43"/>
+      <c r="J221">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
+      <c r="A222" s="43"/>
+      <c r="B222" s="43"/>
+      <c r="C222" s="43"/>
+      <c r="D222" s="43"/>
+      <c r="E222" s="43"/>
+      <c r="F222" s="43"/>
+      <c r="G222" s="43"/>
+      <c r="H222" s="43"/>
+      <c r="J222">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
+      <c r="A223" s="43"/>
+      <c r="B223" s="43"/>
+      <c r="C223" s="43"/>
+      <c r="D223" s="43"/>
+      <c r="E223" s="43"/>
+      <c r="F223" s="43"/>
+      <c r="G223" s="43"/>
+      <c r="H223" s="43"/>
+      <c r="J223">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
+      <c r="A224" s="43"/>
+      <c r="B224" s="43"/>
+      <c r="C224" s="43"/>
+      <c r="D224" s="43"/>
+      <c r="E224" s="43"/>
+      <c r="F224" s="43"/>
+      <c r="G224" s="43"/>
+      <c r="H224" s="43"/>
+      <c r="J224">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
+      <c r="A225" s="43"/>
+      <c r="B225" s="43"/>
+      <c r="C225" s="43"/>
+      <c r="D225" s="43"/>
+      <c r="E225" s="43"/>
+      <c r="F225" s="43"/>
+      <c r="G225" s="43"/>
+      <c r="H225" s="43"/>
+      <c r="J225">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
+      <c r="A226" s="43"/>
+      <c r="B226" s="43"/>
+      <c r="C226" s="43"/>
+      <c r="D226" s="43"/>
+      <c r="E226" s="43"/>
+      <c r="F226" s="43"/>
+      <c r="G226" s="43"/>
+      <c r="H226" s="43"/>
+      <c r="J226">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
+      <c r="A227" s="43"/>
+      <c r="B227" s="43"/>
+      <c r="C227" s="43"/>
+      <c r="D227" s="43"/>
+      <c r="E227" s="43"/>
+      <c r="F227" s="43"/>
+      <c r="G227" s="43"/>
+      <c r="H227" s="43"/>
+      <c r="J227">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
+      <c r="A228" s="43"/>
+      <c r="B228" s="43"/>
+      <c r="C228" s="43"/>
+      <c r="D228" s="43"/>
+      <c r="E228" s="43"/>
+      <c r="F228" s="43"/>
+      <c r="G228" s="43"/>
+      <c r="H228" s="43"/>
+      <c r="J228">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
+      <c r="A229" s="43"/>
+      <c r="B229" s="43"/>
+      <c r="C229" s="43"/>
+      <c r="D229" s="43"/>
+      <c r="E229" s="43"/>
+      <c r="F229" s="43"/>
+      <c r="G229" s="43"/>
+      <c r="H229" s="43"/>
+      <c r="J229">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
+      <c r="A230" s="43"/>
+      <c r="B230" s="43"/>
+      <c r="C230" s="43"/>
+      <c r="D230" s="43"/>
+      <c r="E230" s="43"/>
+      <c r="F230" s="43"/>
+      <c r="G230" s="43"/>
+      <c r="H230" s="43"/>
+      <c r="J230">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
+      <c r="A231" s="43"/>
+      <c r="B231" s="43"/>
+      <c r="C231" s="43"/>
+      <c r="D231" s="43"/>
+      <c r="E231" s="43"/>
+      <c r="F231" s="43"/>
+      <c r="G231" s="43"/>
+      <c r="H231" s="43"/>
+      <c r="J231">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
+      <c r="A232" s="43"/>
+      <c r="B232" s="43"/>
+      <c r="C232" s="43"/>
+      <c r="D232" s="43"/>
+      <c r="E232" s="43"/>
+      <c r="F232" s="43"/>
+      <c r="G232" s="43"/>
+      <c r="H232" s="43"/>
+      <c r="J232">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
+      <c r="A233" s="43"/>
+      <c r="B233" s="43"/>
+      <c r="C233" s="43"/>
+      <c r="D233" s="43"/>
+      <c r="E233" s="43"/>
+      <c r="F233" s="43"/>
+      <c r="G233" s="43"/>
+      <c r="H233" s="43"/>
+      <c r="J233">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
+      <c r="A234" s="43"/>
+      <c r="B234" s="43"/>
+      <c r="C234" s="43"/>
+      <c r="D234" s="43"/>
+      <c r="E234" s="43"/>
+      <c r="F234" s="43"/>
+      <c r="G234" s="43"/>
+      <c r="H234" s="43"/>
+      <c r="J234">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10">
+      <c r="A235" s="43"/>
+      <c r="B235" s="43"/>
+      <c r="C235" s="43"/>
+      <c r="D235" s="43"/>
+      <c r="E235" s="43"/>
+      <c r="F235" s="43"/>
+      <c r="G235" s="43"/>
+      <c r="H235" s="43"/>
+      <c r="J235">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10">
+      <c r="A236" s="43"/>
+      <c r="B236" s="43"/>
+      <c r="C236" s="43"/>
+      <c r="D236" s="43"/>
+      <c r="E236" s="43"/>
+      <c r="F236" s="43"/>
+      <c r="G236" s="43"/>
+      <c r="H236" s="43"/>
+      <c r="J236">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
+      <c r="A237" s="43"/>
+      <c r="B237" s="43"/>
+      <c r="C237" s="43"/>
+      <c r="D237" s="43"/>
+      <c r="E237" s="43"/>
+      <c r="F237" s="43"/>
+      <c r="G237" s="43"/>
+      <c r="H237" s="43"/>
+      <c r="J237">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10">
+      <c r="A238" s="43"/>
+      <c r="B238" s="43"/>
+      <c r="C238" s="43"/>
+      <c r="D238" s="43"/>
+      <c r="E238" s="43"/>
+      <c r="F238" s="43"/>
+      <c r="G238" s="43"/>
+      <c r="H238" s="43"/>
+      <c r="J238">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
+      <c r="A239" s="43"/>
+      <c r="B239" s="43"/>
+      <c r="C239" s="43"/>
+      <c r="D239" s="43"/>
+      <c r="E239" s="43"/>
+      <c r="F239" s="43"/>
+      <c r="G239" s="43"/>
+      <c r="H239" s="43"/>
+      <c r="J239">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10">
+      <c r="A240" s="43"/>
+      <c r="B240" s="43"/>
+      <c r="C240" s="43"/>
+      <c r="D240" s="43"/>
+      <c r="E240" s="43"/>
+      <c r="F240" s="43"/>
+      <c r="G240" s="43"/>
+      <c r="H240" s="43"/>
+      <c r="J240">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
+      <c r="A241" s="43"/>
+      <c r="B241" s="43"/>
+      <c r="C241" s="43"/>
+      <c r="D241" s="43"/>
+      <c r="E241" s="43"/>
+      <c r="F241" s="43"/>
+      <c r="G241" s="43"/>
+      <c r="H241" s="43"/>
+      <c r="J241">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10">
+      <c r="A242" s="43"/>
+      <c r="B242" s="43"/>
+      <c r="C242" s="43"/>
+      <c r="D242" s="43"/>
+      <c r="E242" s="43"/>
+      <c r="F242" s="43"/>
+      <c r="G242" s="43"/>
+      <c r="H242" s="43"/>
+      <c r="J242">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10">
+      <c r="A243" s="43"/>
+      <c r="B243" s="43"/>
+      <c r="C243" s="43"/>
+      <c r="D243" s="43"/>
+      <c r="E243" s="43"/>
+      <c r="F243" s="43"/>
+      <c r="G243" s="43"/>
+      <c r="H243" s="43"/>
+      <c r="J243">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
+      <c r="A244" s="43"/>
+      <c r="B244" s="43"/>
+      <c r="C244" s="43"/>
+      <c r="D244" s="43"/>
+      <c r="E244" s="43"/>
+      <c r="F244" s="43"/>
+      <c r="G244" s="43"/>
+      <c r="H244" s="43"/>
+      <c r="J244">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10">
+      <c r="A245" s="43"/>
+      <c r="B245" s="43"/>
+      <c r="C245" s="43"/>
+      <c r="D245" s="43"/>
+      <c r="E245" s="43"/>
+      <c r="F245" s="43"/>
+      <c r="G245" s="43"/>
+      <c r="H245" s="43"/>
+      <c r="J245">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10">
+      <c r="A246" s="43"/>
+      <c r="B246" s="43"/>
+      <c r="C246" s="43"/>
+      <c r="D246" s="43"/>
+      <c r="E246" s="43"/>
+      <c r="F246" s="43"/>
+      <c r="G246" s="43"/>
+      <c r="H246" s="43"/>
+      <c r="J246">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10">
+      <c r="A247" s="43"/>
+      <c r="B247" s="43"/>
+      <c r="C247" s="43"/>
+      <c r="D247" s="43"/>
+      <c r="E247" s="43"/>
+      <c r="F247" s="43"/>
+      <c r="G247" s="43"/>
+      <c r="H247" s="43"/>
+      <c r="J247">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10">
+      <c r="A248" s="43"/>
+      <c r="B248" s="43"/>
+      <c r="C248" s="43"/>
+      <c r="D248" s="43"/>
+      <c r="E248" s="43"/>
+      <c r="F248" s="43"/>
+      <c r="G248" s="43"/>
+      <c r="H248" s="43"/>
+      <c r="J248">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10">
+      <c r="A249" s="43"/>
+      <c r="B249" s="43"/>
+      <c r="C249" s="43"/>
+      <c r="D249" s="43"/>
+      <c r="E249" s="43"/>
+      <c r="F249" s="43"/>
+      <c r="G249" s="43"/>
+      <c r="H249" s="43"/>
+      <c r="J249">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10">
+      <c r="A250" s="43"/>
+      <c r="B250" s="43"/>
+      <c r="C250" s="43"/>
+      <c r="D250" s="43"/>
+      <c r="E250" s="43"/>
+      <c r="F250" s="43"/>
+      <c r="G250" s="43"/>
+      <c r="H250" s="43"/>
+      <c r="J250">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10">
+      <c r="A251" s="43"/>
+      <c r="B251" s="43"/>
+      <c r="C251" s="43"/>
+      <c r="D251" s="43"/>
+      <c r="E251" s="43"/>
+      <c r="F251" s="43"/>
+      <c r="G251" s="43"/>
+      <c r="H251" s="43"/>
+      <c r="J251">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10">
+      <c r="A252" s="43"/>
+      <c r="B252" s="43"/>
+      <c r="C252" s="43"/>
+      <c r="D252" s="43"/>
+      <c r="E252" s="43"/>
+      <c r="F252" s="43"/>
+      <c r="G252" s="43"/>
+      <c r="H252" s="43"/>
+      <c r="J252">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10">
+      <c r="A253" s="43"/>
+      <c r="B253" s="43"/>
+      <c r="C253" s="43"/>
+      <c r="D253" s="43"/>
+      <c r="E253" s="43"/>
+      <c r="F253" s="43"/>
+      <c r="G253" s="43"/>
+      <c r="H253" s="43"/>
+      <c r="J253">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10">
+      <c r="A254" s="43"/>
+      <c r="B254" s="43"/>
+      <c r="C254" s="43"/>
+      <c r="D254" s="43"/>
+      <c r="E254" s="43"/>
+      <c r="F254" s="43"/>
+      <c r="G254" s="43"/>
+      <c r="H254" s="43"/>
+      <c r="J254">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10">
+      <c r="A255" s="43"/>
+      <c r="B255" s="43"/>
+      <c r="C255" s="43"/>
+      <c r="D255" s="43"/>
+      <c r="E255" s="43"/>
+      <c r="F255" s="43"/>
+      <c r="G255" s="43"/>
+      <c r="H255" s="43"/>
+      <c r="J255">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10">
+      <c r="A256" s="43"/>
+      <c r="B256" s="43"/>
+      <c r="C256" s="43"/>
+      <c r="D256" s="43"/>
+      <c r="E256" s="43"/>
+      <c r="F256" s="43"/>
+      <c r="G256" s="43"/>
+      <c r="H256" s="43"/>
+      <c r="J256">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10">
+      <c r="A257" s="43"/>
+      <c r="B257" s="43"/>
+      <c r="C257" s="43"/>
+      <c r="D257" s="43"/>
+      <c r="E257" s="43"/>
+      <c r="F257" s="43"/>
+      <c r="G257" s="43"/>
+      <c r="H257" s="43"/>
+      <c r="J257">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10">
+      <c r="A258" s="43"/>
+      <c r="B258" s="43"/>
+      <c r="C258" s="43"/>
+      <c r="D258" s="43"/>
+      <c r="E258" s="43"/>
+      <c r="F258" s="43"/>
+      <c r="G258" s="43"/>
+      <c r="H258" s="43"/>
+      <c r="J258">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10">
+      <c r="A259" s="43"/>
+      <c r="B259" s="43"/>
+      <c r="C259" s="43"/>
+      <c r="D259" s="43"/>
+      <c r="E259" s="43"/>
+      <c r="F259" s="43"/>
+      <c r="G259" s="43"/>
+      <c r="H259" s="43"/>
+      <c r="J259">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10">
+      <c r="A260" s="43"/>
+      <c r="B260" s="43"/>
+      <c r="C260" s="43"/>
+      <c r="D260" s="43"/>
+      <c r="E260" s="43"/>
+      <c r="F260" s="43"/>
+      <c r="G260" s="43"/>
+      <c r="H260" s="43"/>
+      <c r="J260">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10">
+      <c r="A261" s="43"/>
+      <c r="B261" s="43"/>
+      <c r="C261" s="43"/>
+      <c r="D261" s="43"/>
+      <c r="E261" s="43"/>
+      <c r="F261" s="43"/>
+      <c r="G261" s="43"/>
+      <c r="H261" s="43"/>
+      <c r="J261">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10">
+      <c r="A262" s="43"/>
+      <c r="B262" s="43"/>
+      <c r="C262" s="43"/>
+      <c r="D262" s="43"/>
+      <c r="E262" s="43"/>
+      <c r="F262" s="43"/>
+      <c r="G262" s="43"/>
+      <c r="H262" s="43"/>
+      <c r="J262">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10">
+      <c r="A263" s="43"/>
+      <c r="B263" s="43"/>
+      <c r="C263" s="43"/>
+      <c r="D263" s="43"/>
+      <c r="E263" s="43"/>
+      <c r="F263" s="43"/>
+      <c r="G263" s="43"/>
+      <c r="H263" s="43"/>
+      <c r="J263">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10">
+      <c r="A264" s="43"/>
+      <c r="B264" s="43"/>
+      <c r="C264" s="43"/>
+      <c r="D264" s="43"/>
+      <c r="E264" s="43"/>
+      <c r="F264" s="43"/>
+      <c r="G264" s="43"/>
+      <c r="H264" s="43"/>
+      <c r="J264">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10">
+      <c r="A265" s="43"/>
+      <c r="B265" s="43"/>
+      <c r="C265" s="43"/>
+      <c r="D265" s="43"/>
+      <c r="E265" s="43"/>
+      <c r="F265" s="43"/>
+      <c r="G265" s="43"/>
+      <c r="H265" s="43"/>
+      <c r="J265">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10">
+      <c r="A266" s="43"/>
+      <c r="B266" s="43"/>
+      <c r="C266" s="43"/>
+      <c r="D266" s="43"/>
+      <c r="E266" s="43"/>
+      <c r="F266" s="43"/>
+      <c r="G266" s="43"/>
+      <c r="H266" s="43"/>
+      <c r="J266">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10">
+      <c r="A267" s="43"/>
+      <c r="B267" s="43"/>
+      <c r="C267" s="43"/>
+      <c r="D267" s="43"/>
+      <c r="E267" s="43"/>
+      <c r="F267" s="43"/>
+      <c r="G267" s="43"/>
+      <c r="H267" s="43"/>
+      <c r="J267">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10">
+      <c r="A268" s="43"/>
+      <c r="B268" s="43"/>
+      <c r="C268" s="43"/>
+      <c r="D268" s="43"/>
+      <c r="E268" s="43"/>
+      <c r="F268" s="43"/>
+      <c r="G268" s="43"/>
+      <c r="H268" s="43"/>
+      <c r="J268">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10">
+      <c r="A269" s="43"/>
+      <c r="B269" s="43"/>
+      <c r="C269" s="43"/>
+      <c r="D269" s="43"/>
+      <c r="E269" s="43"/>
+      <c r="F269" s="43"/>
+      <c r="G269" s="43"/>
+      <c r="H269" s="43"/>
+      <c r="J269">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10">
+      <c r="A270" s="43"/>
+      <c r="B270" s="43"/>
+      <c r="C270" s="43"/>
+      <c r="D270" s="43"/>
+      <c r="E270" s="43"/>
+      <c r="F270" s="43"/>
+      <c r="G270" s="43"/>
+      <c r="H270" s="43"/>
+      <c r="J270">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10">
+      <c r="A271" s="43"/>
+      <c r="B271" s="43"/>
+      <c r="C271" s="43"/>
+      <c r="D271" s="43"/>
+      <c r="E271" s="43"/>
+      <c r="F271" s="43"/>
+      <c r="G271" s="43"/>
+      <c r="H271" s="43"/>
+      <c r="J271">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10">
+      <c r="A272" s="43"/>
+      <c r="B272" s="43"/>
+      <c r="C272" s="43"/>
+      <c r="D272" s="43"/>
+      <c r="E272" s="43"/>
+      <c r="F272" s="43"/>
+      <c r="G272" s="43"/>
+      <c r="H272" s="43"/>
+      <c r="J272">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10">
+      <c r="A273" s="43"/>
+      <c r="B273" s="43"/>
+      <c r="C273" s="43"/>
+      <c r="D273" s="43"/>
+      <c r="E273" s="43"/>
+      <c r="F273" s="43"/>
+      <c r="G273" s="43"/>
+      <c r="H273" s="43"/>
+      <c r="J273">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10">
+      <c r="A274" s="43"/>
+      <c r="B274" s="43"/>
+      <c r="C274" s="43"/>
+      <c r="D274" s="43"/>
+      <c r="E274" s="43"/>
+      <c r="F274" s="43"/>
+      <c r="G274" s="43"/>
+      <c r="H274" s="43"/>
+      <c r="J274">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10">
+      <c r="A275" s="43"/>
+      <c r="B275" s="43"/>
+      <c r="C275" s="43"/>
+      <c r="D275" s="43"/>
+      <c r="E275" s="43"/>
+      <c r="F275" s="43"/>
+      <c r="G275" s="43"/>
+      <c r="H275" s="43"/>
+      <c r="J275">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10">
+      <c r="A276" s="43"/>
+      <c r="B276" s="43"/>
+      <c r="C276" s="43"/>
+      <c r="D276" s="43"/>
+      <c r="E276" s="43"/>
+      <c r="F276" s="43"/>
+      <c r="G276" s="43"/>
+      <c r="H276" s="43"/>
+      <c r="J276">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10">
+      <c r="A277" s="43"/>
+      <c r="B277" s="43"/>
+      <c r="C277" s="43"/>
+      <c r="D277" s="43"/>
+      <c r="E277" s="43"/>
+      <c r="F277" s="43"/>
+      <c r="G277" s="43"/>
+      <c r="H277" s="43"/>
+      <c r="J277">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10">
+      <c r="A278" s="43"/>
+      <c r="B278" s="43"/>
+      <c r="C278" s="43"/>
+      <c r="D278" s="43"/>
+      <c r="E278" s="43"/>
+      <c r="F278" s="43"/>
+      <c r="G278" s="43"/>
+      <c r="H278" s="43"/>
+      <c r="J278">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10">
+      <c r="A279" s="43"/>
+      <c r="B279" s="43"/>
+      <c r="C279" s="43"/>
+      <c r="D279" s="43"/>
+      <c r="E279" s="43"/>
+      <c r="F279" s="43"/>
+      <c r="G279" s="43"/>
+      <c r="H279" s="43"/>
+      <c r="J279">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10">
+      <c r="A280" s="43"/>
+      <c r="B280" s="43"/>
+      <c r="C280" s="43"/>
+      <c r="D280" s="43"/>
+      <c r="E280" s="43"/>
+      <c r="F280" s="43"/>
+      <c r="G280" s="43"/>
+      <c r="H280" s="43"/>
+      <c r="J280">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10">
+      <c r="A281" s="43"/>
+      <c r="B281" s="43"/>
+      <c r="C281" s="43"/>
+      <c r="D281" s="43"/>
+      <c r="E281" s="43"/>
+      <c r="F281" s="43"/>
+      <c r="G281" s="43"/>
+      <c r="H281" s="43"/>
+      <c r="J281">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10">
+      <c r="A282" s="43"/>
+      <c r="B282" s="43"/>
+      <c r="C282" s="43"/>
+      <c r="D282" s="43"/>
+      <c r="E282" s="43"/>
+      <c r="F282" s="43"/>
+      <c r="G282" s="43"/>
+      <c r="H282" s="43"/>
+      <c r="J282">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10">
+      <c r="A283" s="43"/>
+      <c r="B283" s="43"/>
+      <c r="C283" s="43"/>
+      <c r="D283" s="43"/>
+      <c r="E283" s="43"/>
+      <c r="F283" s="43"/>
+      <c r="G283" s="43"/>
+      <c r="H283" s="43"/>
+      <c r="J283">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10">
+      <c r="A284" s="43"/>
+      <c r="B284" s="43"/>
+      <c r="C284" s="43"/>
+      <c r="D284" s="43"/>
+      <c r="E284" s="43"/>
+      <c r="F284" s="43"/>
+      <c r="G284" s="43"/>
+      <c r="H284" s="43"/>
+      <c r="J284">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10">
+      <c r="A285" s="43"/>
+      <c r="B285" s="43"/>
+      <c r="C285" s="43"/>
+      <c r="D285" s="43"/>
+      <c r="E285" s="43"/>
+      <c r="F285" s="43"/>
+      <c r="G285" s="43"/>
+      <c r="H285" s="43"/>
+      <c r="J285">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10">
+      <c r="A286" s="43"/>
+      <c r="B286" s="43"/>
+      <c r="C286" s="43"/>
+      <c r="D286" s="43"/>
+      <c r="E286" s="43"/>
+      <c r="F286" s="43"/>
+      <c r="G286" s="43"/>
+      <c r="H286" s="43"/>
+      <c r="J286">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10">
+      <c r="A287" s="43"/>
+      <c r="B287" s="43"/>
+      <c r="C287" s="43"/>
+      <c r="D287" s="43"/>
+      <c r="E287" s="43"/>
+      <c r="F287" s="43"/>
+      <c r="G287" s="43"/>
+      <c r="H287" s="43"/>
+      <c r="J287">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10">
+      <c r="A288" s="43"/>
+      <c r="B288" s="43"/>
+      <c r="C288" s="43"/>
+      <c r="D288" s="43"/>
+      <c r="E288" s="43"/>
+      <c r="F288" s="43"/>
+      <c r="G288" s="43"/>
+      <c r="H288" s="43"/>
+      <c r="J288">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10">
+      <c r="A289" s="43"/>
+      <c r="B289" s="43"/>
+      <c r="C289" s="43"/>
+      <c r="D289" s="43"/>
+      <c r="E289" s="43"/>
+      <c r="F289" s="43"/>
+      <c r="G289" s="43"/>
+      <c r="H289" s="43"/>
+      <c r="J289">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10">
+      <c r="A290" s="43"/>
+      <c r="B290" s="43"/>
+      <c r="C290" s="43"/>
+      <c r="D290" s="43"/>
+      <c r="E290" s="43"/>
+      <c r="F290" s="43"/>
+      <c r="G290" s="43"/>
+      <c r="H290" s="43"/>
+      <c r="J290">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10">
+      <c r="A291" s="43"/>
+      <c r="B291" s="43"/>
+      <c r="C291" s="43"/>
+      <c r="D291" s="43"/>
+      <c r="E291" s="43"/>
+      <c r="F291" s="43"/>
+      <c r="G291" s="43"/>
+      <c r="H291" s="43"/>
+      <c r="J291">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10">
+      <c r="A292" s="43"/>
+      <c r="B292" s="43"/>
+      <c r="C292" s="43"/>
+      <c r="D292" s="43"/>
+      <c r="E292" s="43"/>
+      <c r="F292" s="43"/>
+      <c r="G292" s="43"/>
+      <c r="H292" s="43"/>
+      <c r="J292">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10">
+      <c r="A293" s="43"/>
+      <c r="B293" s="43"/>
+      <c r="C293" s="43"/>
+      <c r="D293" s="43"/>
+      <c r="E293" s="43"/>
+      <c r="F293" s="43"/>
+      <c r="G293" s="43"/>
+      <c r="H293" s="43"/>
+      <c r="J293">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10">
+      <c r="A294" s="43"/>
+      <c r="B294" s="43"/>
+      <c r="C294" s="43"/>
+      <c r="D294" s="43"/>
+      <c r="E294" s="43"/>
+      <c r="F294" s="43"/>
+      <c r="G294" s="43"/>
+      <c r="H294" s="43"/>
+      <c r="J294">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10">
+      <c r="A295" s="43"/>
+      <c r="B295" s="43"/>
+      <c r="C295" s="43"/>
+      <c r="D295" s="43"/>
+      <c r="E295" s="43"/>
+      <c r="F295" s="43"/>
+      <c r="G295" s="43"/>
+      <c r="H295" s="43"/>
+      <c r="J295">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10">
+      <c r="A296" s="43"/>
+      <c r="B296" s="43"/>
+      <c r="C296" s="43"/>
+      <c r="D296" s="43"/>
+      <c r="E296" s="43"/>
+      <c r="F296" s="43"/>
+      <c r="G296" s="43"/>
+      <c r="H296" s="43"/>
+      <c r="J296">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10">
+      <c r="A297" s="43"/>
+      <c r="B297" s="43"/>
+      <c r="C297" s="43"/>
+      <c r="D297" s="43"/>
+      <c r="E297" s="43"/>
+      <c r="F297" s="43"/>
+      <c r="G297" s="43"/>
+      <c r="H297" s="43"/>
+      <c r="J297">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10">
+      <c r="A298" s="43"/>
+      <c r="B298" s="43"/>
+      <c r="C298" s="43"/>
+      <c r="D298" s="43"/>
+      <c r="E298" s="43"/>
+      <c r="F298" s="43"/>
+      <c r="G298" s="43"/>
+      <c r="H298" s="43"/>
+      <c r="J298">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10">
+      <c r="A299" s="43"/>
+      <c r="B299" s="43"/>
+      <c r="C299" s="43"/>
+      <c r="D299" s="43"/>
+      <c r="E299" s="43"/>
+      <c r="F299" s="43"/>
+      <c r="G299" s="43"/>
+      <c r="H299" s="43"/>
+      <c r="J299">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10">
+      <c r="A300" s="43"/>
+      <c r="B300" s="43"/>
+      <c r="C300" s="43"/>
+      <c r="D300" s="43"/>
+      <c r="E300" s="43"/>
+      <c r="F300" s="43"/>
+      <c r="G300" s="43"/>
+      <c r="H300" s="43"/>
+      <c r="J300">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10">
+      <c r="A301" s="43"/>
+      <c r="B301" s="43"/>
+      <c r="C301" s="43"/>
+      <c r="D301" s="43"/>
+      <c r="E301" s="43"/>
+      <c r="F301" s="43"/>
+      <c r="G301" s="43"/>
+      <c r="H301" s="43"/>
+      <c r="J301">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10">
+      <c r="A302" s="43"/>
+      <c r="B302" s="43"/>
+      <c r="C302" s="43"/>
+      <c r="D302" s="43"/>
+      <c r="E302" s="43"/>
+      <c r="F302" s="43"/>
+      <c r="G302" s="43"/>
+      <c r="H302" s="43"/>
+      <c r="J302">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10">
+      <c r="A303" s="43"/>
+      <c r="B303" s="43"/>
+      <c r="C303" s="43"/>
+      <c r="D303" s="43"/>
+      <c r="E303" s="43"/>
+      <c r="F303" s="43"/>
+      <c r="G303" s="43"/>
+      <c r="H303" s="43"/>
+      <c r="J303">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10">
+      <c r="A304" s="43"/>
+      <c r="B304" s="43"/>
+      <c r="C304" s="43"/>
+      <c r="D304" s="43"/>
+      <c r="E304" s="43"/>
+      <c r="F304" s="43"/>
+      <c r="G304" s="43"/>
+      <c r="H304" s="43"/>
+      <c r="J304">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10">
+      <c r="A305" s="43"/>
+      <c r="B305" s="43"/>
+      <c r="C305" s="43"/>
+      <c r="D305" s="43"/>
+      <c r="E305" s="43"/>
+      <c r="F305" s="43"/>
+      <c r="G305" s="43"/>
+      <c r="H305" s="43"/>
+      <c r="J305">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10">
+      <c r="A306" s="43"/>
+      <c r="B306" s="43"/>
+      <c r="C306" s="43"/>
+      <c r="D306" s="43"/>
+      <c r="E306" s="43"/>
+      <c r="F306" s="43"/>
+      <c r="G306" s="43"/>
+      <c r="H306" s="43"/>
+      <c r="J306">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10">
+      <c r="A307" s="43"/>
+      <c r="B307" s="43"/>
+      <c r="C307" s="43"/>
+      <c r="D307" s="43"/>
+      <c r="E307" s="43"/>
+      <c r="F307" s="43"/>
+      <c r="G307" s="43"/>
+      <c r="H307" s="43"/>
+      <c r="J307">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10">
+      <c r="A308" s="43"/>
+      <c r="B308" s="43"/>
+      <c r="C308" s="43"/>
+      <c r="D308" s="43"/>
+      <c r="E308" s="43"/>
+      <c r="F308" s="43"/>
+      <c r="G308" s="43"/>
+      <c r="H308" s="43"/>
+      <c r="J308">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10">
+      <c r="A309" s="43"/>
+      <c r="B309" s="43"/>
+      <c r="C309" s="43"/>
+      <c r="D309" s="43"/>
+      <c r="E309" s="43"/>
+      <c r="F309" s="43"/>
+      <c r="G309" s="43"/>
+      <c r="H309" s="43"/>
+      <c r="J309">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10">
+      <c r="A310" s="43"/>
+      <c r="B310" s="43"/>
+      <c r="C310" s="43"/>
+      <c r="D310" s="43"/>
+      <c r="E310" s="43"/>
+      <c r="F310" s="43"/>
+      <c r="G310" s="43"/>
+      <c r="H310" s="43"/>
+      <c r="J310">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10">
+      <c r="A311" s="43"/>
+      <c r="B311" s="43"/>
+      <c r="C311" s="43"/>
+      <c r="D311" s="43"/>
+      <c r="E311" s="43"/>
+      <c r="F311" s="43"/>
+      <c r="G311" s="43"/>
+      <c r="H311" s="43"/>
+      <c r="J311">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10">
+      <c r="A312" s="43"/>
+      <c r="B312" s="43"/>
+      <c r="C312" s="43"/>
+      <c r="D312" s="43"/>
+      <c r="E312" s="43"/>
+      <c r="F312" s="43"/>
+      <c r="G312" s="43"/>
+      <c r="H312" s="43"/>
+      <c r="J312">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10">
+      <c r="A313" s="43"/>
+      <c r="B313" s="43"/>
+      <c r="C313" s="43"/>
+      <c r="D313" s="43"/>
+      <c r="E313" s="43"/>
+      <c r="F313" s="43"/>
+      <c r="G313" s="43"/>
+      <c r="H313" s="43"/>
+      <c r="J313">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10">
+      <c r="A314" s="43"/>
+      <c r="B314" s="43"/>
+      <c r="C314" s="43"/>
+      <c r="D314" s="43"/>
+      <c r="E314" s="43"/>
+      <c r="F314" s="43"/>
+      <c r="G314" s="43"/>
+      <c r="H314" s="43"/>
+      <c r="J314">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10">
+      <c r="A315" s="43"/>
+      <c r="B315" s="43"/>
+      <c r="C315" s="43"/>
+      <c r="D315" s="43"/>
+      <c r="E315" s="43"/>
+      <c r="F315" s="43"/>
+      <c r="G315" s="43"/>
+      <c r="H315" s="43"/>
+      <c r="J315">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10">
+      <c r="A316" s="43"/>
+      <c r="B316" s="43"/>
+      <c r="C316" s="43"/>
+      <c r="D316" s="43"/>
+      <c r="E316" s="43"/>
+      <c r="F316" s="43"/>
+      <c r="G316" s="43"/>
+      <c r="H316" s="43"/>
+      <c r="J316">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10">
+      <c r="A317" s="43"/>
+      <c r="B317" s="43"/>
+      <c r="C317" s="43"/>
+      <c r="D317" s="43"/>
+      <c r="E317" s="43"/>
+      <c r="F317" s="43"/>
+      <c r="G317" s="43"/>
+      <c r="H317" s="43"/>
+      <c r="J317">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10">
+      <c r="A318" s="43"/>
+      <c r="B318" s="43"/>
+      <c r="C318" s="43"/>
+      <c r="D318" s="43"/>
+      <c r="E318" s="43"/>
+      <c r="F318" s="43"/>
+      <c r="G318" s="43"/>
+      <c r="H318" s="43"/>
+      <c r="J318">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10">
+      <c r="A319" s="43"/>
+      <c r="B319" s="43"/>
+      <c r="C319" s="43"/>
+      <c r="D319" s="43"/>
+      <c r="E319" s="43"/>
+      <c r="F319" s="43"/>
+      <c r="G319" s="43"/>
+      <c r="H319" s="43"/>
+      <c r="J319">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10">
+      <c r="A320" s="43"/>
+      <c r="B320" s="43"/>
+      <c r="C320" s="43"/>
+      <c r="D320" s="43"/>
+      <c r="E320" s="43"/>
+      <c r="F320" s="43"/>
+      <c r="G320" s="43"/>
+      <c r="H320" s="43"/>
+      <c r="J320">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10">
+      <c r="A321" s="43"/>
+      <c r="B321" s="43"/>
+      <c r="C321" s="43"/>
+      <c r="D321" s="43"/>
+      <c r="E321" s="43"/>
+      <c r="F321" s="43"/>
+      <c r="G321" s="43"/>
+      <c r="H321" s="43"/>
+      <c r="J321">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10">
+      <c r="A322" s="43"/>
+      <c r="B322" s="43"/>
+      <c r="C322" s="43"/>
+      <c r="D322" s="43"/>
+      <c r="E322" s="43"/>
+      <c r="F322" s="43"/>
+      <c r="G322" s="43"/>
+      <c r="H322" s="43"/>
+      <c r="J322">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10">
+      <c r="A323" s="43"/>
+      <c r="B323" s="43"/>
+      <c r="C323" s="43"/>
+      <c r="D323" s="43"/>
+      <c r="E323" s="43"/>
+      <c r="F323" s="43"/>
+      <c r="G323" s="43"/>
+      <c r="H323" s="43"/>
+      <c r="J323">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10">
+      <c r="A324" s="43"/>
+      <c r="B324" s="43"/>
+      <c r="C324" s="43"/>
+      <c r="D324" s="43"/>
+      <c r="E324" s="43"/>
+      <c r="F324" s="43"/>
+      <c r="G324" s="43"/>
+      <c r="H324" s="43"/>
+      <c r="J324">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10">
+      <c r="A325" s="43"/>
+      <c r="B325" s="43"/>
+      <c r="C325" s="43"/>
+      <c r="D325" s="43"/>
+      <c r="E325" s="43"/>
+      <c r="F325" s="43"/>
+      <c r="G325" s="43"/>
+      <c r="H325" s="43"/>
+      <c r="J325">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10">
+      <c r="A326" s="43"/>
+      <c r="B326" s="43"/>
+      <c r="C326" s="43"/>
+      <c r="D326" s="43"/>
+      <c r="E326" s="43"/>
+      <c r="F326" s="43"/>
+      <c r="G326" s="43"/>
+      <c r="H326" s="43"/>
+      <c r="J326">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10">
+      <c r="A327" s="43"/>
+      <c r="B327" s="43"/>
+      <c r="C327" s="43"/>
+      <c r="D327" s="43"/>
+      <c r="E327" s="43"/>
+      <c r="F327" s="43"/>
+      <c r="G327" s="43"/>
+      <c r="H327" s="43"/>
+      <c r="J327">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10">
+      <c r="A328" s="43"/>
+      <c r="B328" s="43"/>
+      <c r="C328" s="43"/>
+      <c r="D328" s="43"/>
+      <c r="E328" s="43"/>
+      <c r="F328" s="43"/>
+      <c r="G328" s="43"/>
+      <c r="H328" s="43"/>
+      <c r="J328">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10">
+      <c r="A329" s="43"/>
+      <c r="B329" s="43"/>
+      <c r="C329" s="43"/>
+      <c r="D329" s="43"/>
+      <c r="E329" s="43"/>
+      <c r="F329" s="43"/>
+      <c r="G329" s="43"/>
+      <c r="H329" s="43"/>
+      <c r="J329">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10">
+      <c r="A330" s="43"/>
+      <c r="B330" s="43"/>
+      <c r="C330" s="43"/>
+      <c r="D330" s="43"/>
+      <c r="E330" s="43"/>
+      <c r="F330" s="43"/>
+      <c r="G330" s="43"/>
+      <c r="H330" s="43"/>
+      <c r="J330">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10">
+      <c r="A331" s="43"/>
+      <c r="B331" s="43"/>
+      <c r="C331" s="43"/>
+      <c r="D331" s="43"/>
+      <c r="E331" s="43"/>
+      <c r="F331" s="43"/>
+      <c r="G331" s="43"/>
+      <c r="H331" s="43"/>
+      <c r="J331">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10">
+      <c r="A332" s="43"/>
+      <c r="B332" s="43"/>
+      <c r="C332" s="43"/>
+      <c r="D332" s="43"/>
+      <c r="E332" s="43"/>
+      <c r="F332" s="43"/>
+      <c r="G332" s="43"/>
+      <c r="H332" s="43"/>
+      <c r="J332">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10">
+      <c r="A333" s="43"/>
+      <c r="B333" s="43"/>
+      <c r="C333" s="43"/>
+      <c r="D333" s="43"/>
+      <c r="E333" s="43"/>
+      <c r="F333" s="43"/>
+      <c r="G333" s="43"/>
+      <c r="H333" s="43"/>
+      <c r="J333">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10">
+      <c r="A334" s="43"/>
+      <c r="B334" s="43"/>
+      <c r="C334" s="43"/>
+      <c r="D334" s="43"/>
+      <c r="E334" s="43"/>
+      <c r="F334" s="43"/>
+      <c r="G334" s="43"/>
+      <c r="H334" s="43"/>
+      <c r="J334">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10">
+      <c r="A335" s="43"/>
+      <c r="B335" s="43"/>
+      <c r="C335" s="43"/>
+      <c r="D335" s="43"/>
+      <c r="E335" s="43"/>
+      <c r="F335" s="43"/>
+      <c r="G335" s="43"/>
+      <c r="H335" s="43"/>
+      <c r="J335">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10">
+      <c r="A336" s="43"/>
+      <c r="B336" s="43"/>
+      <c r="C336" s="43"/>
+      <c r="D336" s="43"/>
+      <c r="E336" s="43"/>
+      <c r="F336" s="43"/>
+      <c r="G336" s="43"/>
+      <c r="H336" s="43"/>
+      <c r="J336">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10">
+      <c r="A337" s="43"/>
+      <c r="B337" s="43"/>
+      <c r="C337" s="43"/>
+      <c r="D337" s="43"/>
+      <c r="E337" s="43"/>
+      <c r="F337" s="43"/>
+      <c r="G337" s="43"/>
+      <c r="H337" s="43"/>
+      <c r="J337">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10">
+      <c r="A338" s="43"/>
+      <c r="B338" s="43"/>
+      <c r="C338" s="43"/>
+      <c r="D338" s="43"/>
+      <c r="E338" s="43"/>
+      <c r="F338" s="43"/>
+      <c r="G338" s="43"/>
+      <c r="H338" s="43"/>
+      <c r="J338">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10">
+      <c r="A339" s="43"/>
+      <c r="B339" s="43"/>
+      <c r="C339" s="43"/>
+      <c r="D339" s="43"/>
+      <c r="E339" s="43"/>
+      <c r="F339" s="43"/>
+      <c r="G339" s="43"/>
+      <c r="H339" s="43"/>
+      <c r="J339">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10">
+      <c r="A340" s="43"/>
+      <c r="B340" s="43"/>
+      <c r="C340" s="43"/>
+      <c r="D340" s="43"/>
+      <c r="E340" s="43"/>
+      <c r="F340" s="43"/>
+      <c r="G340" s="43"/>
+      <c r="H340" s="43"/>
+      <c r="J340">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10">
+      <c r="A341" s="43"/>
+      <c r="B341" s="43"/>
+      <c r="C341" s="43"/>
+      <c r="D341" s="43"/>
+      <c r="E341" s="43"/>
+      <c r="F341" s="43"/>
+      <c r="G341" s="43"/>
+      <c r="H341" s="43"/>
+      <c r="J341">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10">
+      <c r="A342" s="43"/>
+      <c r="B342" s="43"/>
+      <c r="C342" s="43"/>
+      <c r="D342" s="43"/>
+      <c r="E342" s="43"/>
+      <c r="F342" s="43"/>
+      <c r="G342" s="43"/>
+      <c r="H342" s="43"/>
+      <c r="J342">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10">
+      <c r="A343" s="43"/>
+      <c r="B343" s="43"/>
+      <c r="C343" s="43"/>
+      <c r="D343" s="43"/>
+      <c r="E343" s="43"/>
+      <c r="F343" s="43"/>
+      <c r="G343" s="43"/>
+      <c r="H343" s="43"/>
+      <c r="J343">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10">
+      <c r="A344" s="43"/>
+      <c r="B344" s="43"/>
+      <c r="C344" s="43"/>
+      <c r="D344" s="43"/>
+      <c r="E344" s="43"/>
+      <c r="F344" s="43"/>
+      <c r="G344" s="43"/>
+      <c r="H344" s="43"/>
+      <c r="J344">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10">
+      <c r="A345" s="43"/>
+      <c r="B345" s="43"/>
+      <c r="C345" s="43"/>
+      <c r="D345" s="43"/>
+      <c r="E345" s="43"/>
+      <c r="F345" s="43"/>
+      <c r="G345" s="43"/>
+      <c r="H345" s="43"/>
+      <c r="J345">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10">
+      <c r="A346" s="43"/>
+      <c r="B346" s="43"/>
+      <c r="C346" s="43"/>
+      <c r="D346" s="43"/>
+      <c r="E346" s="43"/>
+      <c r="F346" s="43"/>
+      <c r="G346" s="43"/>
+      <c r="H346" s="43"/>
+      <c r="J346">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10">
+      <c r="A347" s="43"/>
+      <c r="B347" s="43"/>
+      <c r="C347" s="43"/>
+      <c r="D347" s="43"/>
+      <c r="E347" s="43"/>
+      <c r="F347" s="43"/>
+      <c r="G347" s="43"/>
+      <c r="H347" s="43"/>
+      <c r="J347">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10">
+      <c r="A348" s="43"/>
+      <c r="B348" s="43"/>
+      <c r="C348" s="43"/>
+      <c r="D348" s="43"/>
+      <c r="E348" s="43"/>
+      <c r="F348" s="43"/>
+      <c r="G348" s="43"/>
+      <c r="H348" s="43"/>
+      <c r="J348">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10">
+      <c r="A349" s="43"/>
+      <c r="B349" s="43"/>
+      <c r="C349" s="43"/>
+      <c r="D349" s="43"/>
+      <c r="E349" s="43"/>
+      <c r="F349" s="43"/>
+      <c r="G349" s="43"/>
+      <c r="H349" s="43"/>
+      <c r="J349">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10">
+      <c r="A350" s="43"/>
+      <c r="B350" s="43"/>
+      <c r="C350" s="43"/>
+      <c r="D350" s="43"/>
+      <c r="E350" s="43"/>
+      <c r="F350" s="43"/>
+      <c r="G350" s="43"/>
+      <c r="H350" s="43"/>
+      <c r="J350">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10">
+      <c r="A351" s="43"/>
+      <c r="B351" s="43"/>
+      <c r="C351" s="43"/>
+      <c r="D351" s="43"/>
+      <c r="E351" s="43"/>
+      <c r="F351" s="43"/>
+      <c r="G351" s="43"/>
+      <c r="H351" s="43"/>
+      <c r="J351">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10">
+      <c r="A352" s="43"/>
+      <c r="B352" s="43"/>
+      <c r="C352" s="43"/>
+      <c r="D352" s="43"/>
+      <c r="E352" s="43"/>
+      <c r="F352" s="43"/>
+      <c r="G352" s="43"/>
+      <c r="H352" s="43"/>
+      <c r="J352">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10">
+      <c r="A353" s="43"/>
+      <c r="B353" s="43"/>
+      <c r="C353" s="43"/>
+      <c r="D353" s="43"/>
+      <c r="E353" s="43"/>
+      <c r="F353" s="43"/>
+      <c r="G353" s="43"/>
+      <c r="H353" s="43"/>
+      <c r="J353">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10">
+      <c r="A354" s="43"/>
+      <c r="B354" s="43"/>
+      <c r="C354" s="43"/>
+      <c r="D354" s="43"/>
+      <c r="E354" s="43"/>
+      <c r="F354" s="43"/>
+      <c r="G354" s="43"/>
+      <c r="H354" s="43"/>
+      <c r="J354">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10">
+      <c r="A355" s="43"/>
+      <c r="B355" s="43"/>
+      <c r="C355" s="43"/>
+      <c r="D355" s="43"/>
+      <c r="E355" s="43"/>
+      <c r="F355" s="43"/>
+      <c r="G355" s="43"/>
+      <c r="H355" s="43"/>
+      <c r="J355">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10">
+      <c r="A356" s="43"/>
+      <c r="B356" s="43"/>
+      <c r="C356" s="43"/>
+      <c r="D356" s="43"/>
+      <c r="E356" s="43"/>
+      <c r="F356" s="43"/>
+      <c r="G356" s="43"/>
+      <c r="H356" s="43"/>
+      <c r="J356">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10">
+      <c r="A357" s="43"/>
+      <c r="B357" s="43"/>
+      <c r="C357" s="43"/>
+      <c r="D357" s="43"/>
+      <c r="E357" s="43"/>
+      <c r="F357" s="43"/>
+      <c r="G357" s="43"/>
+      <c r="H357" s="43"/>
+      <c r="J357">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10">
+      <c r="A358" s="43"/>
+      <c r="B358" s="43"/>
+      <c r="C358" s="43"/>
+      <c r="D358" s="43"/>
+      <c r="E358" s="43"/>
+      <c r="F358" s="43"/>
+      <c r="G358" s="43"/>
+      <c r="H358" s="43"/>
+      <c r="J358">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10">
+      <c r="A359" s="43"/>
+      <c r="B359" s="43"/>
+      <c r="C359" s="43"/>
+      <c r="D359" s="43"/>
+      <c r="E359" s="43"/>
+      <c r="F359" s="43"/>
+      <c r="G359" s="43"/>
+      <c r="H359" s="43"/>
+      <c r="J359">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10">
+      <c r="A360" s="43"/>
+      <c r="B360" s="43"/>
+      <c r="C360" s="43"/>
+      <c r="D360" s="43"/>
+      <c r="E360" s="43"/>
+      <c r="F360" s="43"/>
+      <c r="G360" s="43"/>
+      <c r="H360" s="43"/>
+      <c r="J360">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10">
+      <c r="A361" s="43"/>
+      <c r="B361" s="43"/>
+      <c r="C361" s="43"/>
+      <c r="D361" s="43"/>
+      <c r="E361" s="43"/>
+      <c r="F361" s="43"/>
+      <c r="G361" s="43"/>
+      <c r="H361" s="43"/>
+      <c r="J361">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10">
+      <c r="A362" s="43"/>
+      <c r="B362" s="43"/>
+      <c r="C362" s="43"/>
+      <c r="D362" s="43"/>
+      <c r="E362" s="43"/>
+      <c r="F362" s="43"/>
+      <c r="G362" s="43"/>
+      <c r="H362" s="43"/>
+      <c r="J362">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10">
+      <c r="A363" s="43"/>
+      <c r="B363" s="43"/>
+      <c r="C363" s="43"/>
+      <c r="D363" s="43"/>
+      <c r="E363" s="43"/>
+      <c r="F363" s="43"/>
+      <c r="G363" s="43"/>
+      <c r="H363" s="43"/>
+      <c r="J363">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10">
+      <c r="A364" s="43"/>
+      <c r="B364" s="43"/>
+      <c r="C364" s="43"/>
+      <c r="D364" s="43"/>
+      <c r="E364" s="43"/>
+      <c r="F364" s="43"/>
+      <c r="G364" s="43"/>
+      <c r="H364" s="43"/>
+      <c r="J364">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10">
+      <c r="A365" s="43"/>
+      <c r="B365" s="43"/>
+      <c r="C365" s="43"/>
+      <c r="D365" s="43"/>
+      <c r="E365" s="43"/>
+      <c r="F365" s="43"/>
+      <c r="G365" s="43"/>
+      <c r="H365" s="43"/>
+      <c r="J365">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10">
+      <c r="A366" s="43"/>
+      <c r="B366" s="43"/>
+      <c r="C366" s="43"/>
+      <c r="D366" s="43"/>
+      <c r="E366" s="43"/>
+      <c r="F366" s="43"/>
+      <c r="G366" s="43"/>
+      <c r="H366" s="43"/>
+      <c r="J366">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10">
+      <c r="A367" s="43"/>
+      <c r="B367" s="43"/>
+      <c r="C367" s="43"/>
+      <c r="D367" s="43"/>
+      <c r="E367" s="43"/>
+      <c r="F367" s="43"/>
+      <c r="G367" s="43"/>
+      <c r="H367" s="43"/>
+      <c r="J367">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10">
+      <c r="A368" s="43"/>
+      <c r="B368" s="43"/>
+      <c r="C368" s="43"/>
+      <c r="D368" s="43"/>
+      <c r="E368" s="43"/>
+      <c r="F368" s="43"/>
+      <c r="G368" s="43"/>
+      <c r="H368" s="43"/>
+      <c r="J368">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10">
+      <c r="A369" s="43"/>
+      <c r="B369" s="43"/>
+      <c r="C369" s="43"/>
+      <c r="D369" s="43"/>
+      <c r="E369" s="43"/>
+      <c r="F369" s="43"/>
+      <c r="G369" s="43"/>
+      <c r="H369" s="43"/>
+      <c r="J369">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10">
+      <c r="A370" s="43"/>
+      <c r="B370" s="43"/>
+      <c r="C370" s="43"/>
+      <c r="D370" s="43"/>
+      <c r="E370" s="43"/>
+      <c r="F370" s="43"/>
+      <c r="G370" s="43"/>
+      <c r="H370" s="43"/>
+      <c r="J370">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10">
+      <c r="A371" s="43"/>
+      <c r="B371" s="43"/>
+      <c r="C371" s="43"/>
+      <c r="D371" s="43"/>
+      <c r="E371" s="43"/>
+      <c r="F371" s="43"/>
+      <c r="G371" s="43"/>
+      <c r="H371" s="43"/>
+      <c r="J371">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10">
+      <c r="A372" s="43"/>
+      <c r="B372" s="43"/>
+      <c r="C372" s="43"/>
+      <c r="D372" s="43"/>
+      <c r="E372" s="43"/>
+      <c r="F372" s="43"/>
+      <c r="G372" s="43"/>
+      <c r="H372" s="43"/>
+      <c r="J372">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10">
+      <c r="A373" s="43"/>
+      <c r="B373" s="43"/>
+      <c r="C373" s="43"/>
+      <c r="D373" s="43"/>
+      <c r="E373" s="43"/>
+      <c r="F373" s="43"/>
+      <c r="G373" s="43"/>
+      <c r="H373" s="43"/>
+      <c r="J373">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10">
+      <c r="A374" s="43"/>
+      <c r="B374" s="43"/>
+      <c r="C374" s="43"/>
+      <c r="D374" s="43"/>
+      <c r="E374" s="43"/>
+      <c r="F374" s="43"/>
+      <c r="G374" s="43"/>
+      <c r="H374" s="43"/>
+      <c r="J374">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10">
+      <c r="A375" s="43"/>
+      <c r="B375" s="43"/>
+      <c r="C375" s="43"/>
+      <c r="D375" s="43"/>
+      <c r="E375" s="43"/>
+      <c r="F375" s="43"/>
+      <c r="G375" s="43"/>
+      <c r="H375" s="43"/>
+      <c r="J375">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10">
+      <c r="A376" s="43"/>
+      <c r="B376" s="43"/>
+      <c r="C376" s="43"/>
+      <c r="D376" s="43"/>
+      <c r="E376" s="43"/>
+      <c r="F376" s="43"/>
+      <c r="G376" s="43"/>
+      <c r="H376" s="43"/>
+      <c r="J376">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10">
+      <c r="A377" s="43"/>
+      <c r="B377" s="43"/>
+      <c r="C377" s="43"/>
+      <c r="D377" s="43"/>
+      <c r="E377" s="43"/>
+      <c r="F377" s="43"/>
+      <c r="G377" s="43"/>
+      <c r="H377" s="43"/>
+      <c r="J377">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10">
+      <c r="A378" s="43"/>
+      <c r="B378" s="43"/>
+      <c r="C378" s="43"/>
+      <c r="D378" s="43"/>
+      <c r="E378" s="43"/>
+      <c r="F378" s="43"/>
+      <c r="G378" s="43"/>
+      <c r="H378" s="43"/>
+      <c r="J378">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10">
+      <c r="A379" s="43"/>
+      <c r="B379" s="43"/>
+      <c r="C379" s="43"/>
+      <c r="D379" s="43"/>
+      <c r="E379" s="43"/>
+      <c r="F379" s="43"/>
+      <c r="G379" s="43"/>
+      <c r="H379" s="43"/>
+      <c r="J379">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10">
+      <c r="A380" s="43"/>
+      <c r="B380" s="43"/>
+      <c r="C380" s="43"/>
+      <c r="D380" s="43"/>
+      <c r="E380" s="43"/>
+      <c r="F380" s="43"/>
+      <c r="G380" s="43"/>
+      <c r="H380" s="43"/>
+      <c r="J380">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10">
+      <c r="A381" s="43"/>
+      <c r="B381" s="43"/>
+      <c r="C381" s="43"/>
+      <c r="D381" s="43"/>
+      <c r="E381" s="43"/>
+      <c r="F381" s="43"/>
+      <c r="G381" s="43"/>
+      <c r="H381" s="43"/>
+      <c r="J381">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10">
+      <c r="A382" s="43"/>
+      <c r="B382" s="43"/>
+      <c r="C382" s="43"/>
+      <c r="D382" s="43"/>
+      <c r="E382" s="43"/>
+      <c r="F382" s="43"/>
+      <c r="G382" s="43"/>
+      <c r="H382" s="43"/>
+      <c r="J382">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10">
+      <c r="A383" s="43"/>
+      <c r="B383" s="43"/>
+      <c r="C383" s="43"/>
+      <c r="D383" s="43"/>
+      <c r="E383" s="43"/>
+      <c r="F383" s="43"/>
+      <c r="G383" s="43"/>
+      <c r="H383" s="43"/>
+      <c r="J383">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10">
+      <c r="A384" s="43"/>
+      <c r="B384" s="43"/>
+      <c r="C384" s="43"/>
+      <c r="D384" s="43"/>
+      <c r="E384" s="43"/>
+      <c r="F384" s="43"/>
+      <c r="G384" s="43"/>
+      <c r="H384" s="43"/>
+      <c r="J384">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10">
+      <c r="A385" s="43"/>
+      <c r="B385" s="43"/>
+      <c r="C385" s="43"/>
+      <c r="D385" s="43"/>
+      <c r="E385" s="43"/>
+      <c r="F385" s="43"/>
+      <c r="G385" s="43"/>
+      <c r="H385" s="43"/>
+      <c r="J385">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10">
+      <c r="A386" s="43"/>
+      <c r="B386" s="43"/>
+      <c r="C386" s="43"/>
+      <c r="D386" s="43"/>
+      <c r="E386" s="43"/>
+      <c r="F386" s="43"/>
+      <c r="G386" s="43"/>
+      <c r="H386" s="43"/>
+      <c r="J386">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10">
+      <c r="A387" s="43"/>
+      <c r="B387" s="43"/>
+      <c r="C387" s="43"/>
+      <c r="D387" s="43"/>
+      <c r="E387" s="43"/>
+      <c r="F387" s="43"/>
+      <c r="G387" s="43"/>
+      <c r="H387" s="43"/>
+      <c r="J387">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10">
+      <c r="A388" s="43"/>
+      <c r="B388" s="43"/>
+      <c r="C388" s="43"/>
+      <c r="D388" s="43"/>
+      <c r="E388" s="43"/>
+      <c r="F388" s="43"/>
+      <c r="G388" s="43"/>
+      <c r="H388" s="43"/>
+      <c r="J388">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10">
+      <c r="A389" s="43"/>
+      <c r="B389" s="43"/>
+      <c r="C389" s="43"/>
+      <c r="D389" s="43"/>
+      <c r="E389" s="43"/>
+      <c r="F389" s="43"/>
+      <c r="G389" s="43"/>
+      <c r="H389" s="43"/>
+      <c r="J389">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10">
+      <c r="A390" s="43"/>
+      <c r="B390" s="43"/>
+      <c r="C390" s="43"/>
+      <c r="D390" s="43"/>
+      <c r="E390" s="43"/>
+      <c r="F390" s="43"/>
+      <c r="G390" s="43"/>
+      <c r="H390" s="43"/>
+      <c r="J390">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10">
+      <c r="A391" s="43"/>
+      <c r="B391" s="43"/>
+      <c r="C391" s="43"/>
+      <c r="D391" s="43"/>
+      <c r="E391" s="43"/>
+      <c r="F391" s="43"/>
+      <c r="G391" s="43"/>
+      <c r="H391" s="43"/>
+      <c r="J391">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10">
+      <c r="A392" s="43"/>
+      <c r="B392" s="43"/>
+      <c r="C392" s="43"/>
+      <c r="D392" s="43"/>
+      <c r="E392" s="43"/>
+      <c r="F392" s="43"/>
+      <c r="G392" s="43"/>
+      <c r="H392" s="43"/>
+      <c r="J392">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10">
+      <c r="A393" s="43"/>
+      <c r="B393" s="43"/>
+      <c r="C393" s="43"/>
+      <c r="D393" s="43"/>
+      <c r="E393" s="43"/>
+      <c r="F393" s="43"/>
+      <c r="G393" s="43"/>
+      <c r="H393" s="43"/>
+      <c r="J393">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10">
+      <c r="A394" s="43"/>
+      <c r="B394" s="43"/>
+      <c r="C394" s="43"/>
+      <c r="D394" s="43"/>
+      <c r="E394" s="43"/>
+      <c r="F394" s="43"/>
+      <c r="G394" s="43"/>
+      <c r="H394" s="43"/>
+      <c r="J394">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10">
+      <c r="A395" s="43"/>
+      <c r="B395" s="43"/>
+      <c r="C395" s="43"/>
+      <c r="D395" s="43"/>
+      <c r="E395" s="43"/>
+      <c r="F395" s="43"/>
+      <c r="G395" s="43"/>
+      <c r="H395" s="43"/>
+      <c r="J395">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10">
+      <c r="A396" s="43"/>
+      <c r="B396" s="43"/>
+      <c r="C396" s="43"/>
+      <c r="D396" s="43"/>
+      <c r="E396" s="43"/>
+      <c r="F396" s="43"/>
+      <c r="G396" s="43"/>
+      <c r="H396" s="43"/>
+      <c r="J396">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10">
+      <c r="A397" s="43"/>
+      <c r="B397" s="43"/>
+      <c r="C397" s="43"/>
+      <c r="D397" s="43"/>
+      <c r="E397" s="43"/>
+      <c r="F397" s="43"/>
+      <c r="G397" s="43"/>
+      <c r="H397" s="43"/>
+      <c r="J397">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10">
+      <c r="A398" s="43"/>
+      <c r="B398" s="43"/>
+      <c r="C398" s="43"/>
+      <c r="D398" s="43"/>
+      <c r="E398" s="43"/>
+      <c r="F398" s="43"/>
+      <c r="G398" s="43"/>
+      <c r="H398" s="43"/>
+      <c r="J398">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10">
+      <c r="A399" s="43"/>
+      <c r="B399" s="43"/>
+      <c r="C399" s="43"/>
+      <c r="D399" s="43"/>
+      <c r="E399" s="43"/>
+      <c r="F399" s="43"/>
+      <c r="G399" s="43"/>
+      <c r="H399" s="43"/>
+      <c r="J399">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10">
+      <c r="A400" s="43"/>
+      <c r="B400" s="43"/>
+      <c r="C400" s="43"/>
+      <c r="D400" s="43"/>
+      <c r="E400" s="43"/>
+      <c r="F400" s="43"/>
+      <c r="G400" s="43"/>
+      <c r="H400" s="43"/>
+      <c r="J400">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10">
+      <c r="A401" s="43"/>
+      <c r="B401" s="43"/>
+      <c r="C401" s="43"/>
+      <c r="D401" s="43"/>
+      <c r="E401" s="43"/>
+      <c r="F401" s="43"/>
+      <c r="G401" s="43"/>
+      <c r="H401" s="43"/>
+      <c r="J401">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10">
+      <c r="A402" s="43"/>
+      <c r="B402" s="43"/>
+      <c r="C402" s="43"/>
+      <c r="D402" s="43"/>
+      <c r="E402" s="43"/>
+      <c r="F402" s="43"/>
+      <c r="G402" s="43"/>
+      <c r="H402" s="43"/>
+      <c r="J402">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10">
+      <c r="A403" s="43"/>
+      <c r="B403" s="43"/>
+      <c r="C403" s="43"/>
+      <c r="D403" s="43"/>
+      <c r="E403" s="43"/>
+      <c r="F403" s="43"/>
+      <c r="G403" s="43"/>
+      <c r="H403" s="43"/>
+      <c r="J403">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10">
+      <c r="A404" s="43"/>
+      <c r="B404" s="43"/>
+      <c r="C404" s="43"/>
+      <c r="D404" s="43"/>
+      <c r="E404" s="43"/>
+      <c r="F404" s="43"/>
+      <c r="G404" s="43"/>
+      <c r="H404" s="43"/>
+      <c r="J404">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10">
+      <c r="A405" s="43"/>
+      <c r="B405" s="43"/>
+      <c r="C405" s="43"/>
+      <c r="D405" s="43"/>
+      <c r="E405" s="43"/>
+      <c r="F405" s="43"/>
+      <c r="G405" s="43"/>
+      <c r="H405" s="43"/>
+      <c r="J405">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10">
+      <c r="A406" s="43"/>
+      <c r="B406" s="43"/>
+      <c r="C406" s="43"/>
+      <c r="D406" s="43"/>
+      <c r="E406" s="43"/>
+      <c r="F406" s="43"/>
+      <c r="G406" s="43"/>
+      <c r="H406" s="43"/>
+      <c r="J406">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10">
+      <c r="A407" s="43"/>
+      <c r="B407" s="43"/>
+      <c r="C407" s="43"/>
+      <c r="D407" s="43"/>
+      <c r="E407" s="43"/>
+      <c r="F407" s="43"/>
+      <c r="G407" s="43"/>
+      <c r="H407" s="43"/>
+      <c r="J407">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10">
+      <c r="A408" s="43"/>
+      <c r="B408" s="43"/>
+      <c r="C408" s="43"/>
+      <c r="D408" s="43"/>
+      <c r="E408" s="43"/>
+      <c r="F408" s="43"/>
+      <c r="G408" s="43"/>
+      <c r="H408" s="43"/>
+      <c r="J408">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10">
+      <c r="A409" s="43"/>
+      <c r="B409" s="43"/>
+      <c r="C409" s="43"/>
+      <c r="D409" s="43"/>
+      <c r="E409" s="43"/>
+      <c r="F409" s="43"/>
+      <c r="G409" s="43"/>
+      <c r="H409" s="43"/>
+      <c r="J409">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10">
+      <c r="A410" s="43"/>
+      <c r="B410" s="43"/>
+      <c r="C410" s="43"/>
+      <c r="D410" s="43"/>
+      <c r="E410" s="43"/>
+      <c r="F410" s="43"/>
+      <c r="G410" s="43"/>
+      <c r="H410" s="43"/>
+      <c r="J410">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10">
+      <c r="A411" s="43"/>
+      <c r="B411" s="43"/>
+      <c r="C411" s="43"/>
+      <c r="D411" s="43"/>
+      <c r="E411" s="43"/>
+      <c r="F411" s="43"/>
+      <c r="G411" s="43"/>
+      <c r="H411" s="43"/>
+      <c r="J411">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10">
+      <c r="A412" s="43"/>
+      <c r="B412" s="43"/>
+      <c r="C412" s="43"/>
+      <c r="D412" s="43"/>
+      <c r="E412" s="43"/>
+      <c r="F412" s="43"/>
+      <c r="G412" s="43"/>
+      <c r="H412" s="43"/>
+      <c r="J412">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10">
+      <c r="A413" s="43"/>
+      <c r="B413" s="43"/>
+      <c r="C413" s="43"/>
+      <c r="D413" s="43"/>
+      <c r="E413" s="43"/>
+      <c r="F413" s="43"/>
+      <c r="G413" s="43"/>
+      <c r="H413" s="43"/>
+      <c r="J413">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10">
+      <c r="A414" s="43"/>
+      <c r="B414" s="43"/>
+      <c r="C414" s="43"/>
+      <c r="D414" s="43"/>
+      <c r="E414" s="43"/>
+      <c r="F414" s="43"/>
+      <c r="G414" s="43"/>
+      <c r="H414" s="43"/>
+      <c r="J414">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10">
+      <c r="A415" s="43"/>
+      <c r="B415" s="43"/>
+      <c r="C415" s="43"/>
+      <c r="D415" s="43"/>
+      <c r="E415" s="43"/>
+      <c r="F415" s="43"/>
+      <c r="G415" s="43"/>
+      <c r="H415" s="43"/>
+      <c r="J415">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10">
+      <c r="A416" s="43"/>
+      <c r="B416" s="43"/>
+      <c r="C416" s="43"/>
+      <c r="D416" s="43"/>
+      <c r="E416" s="43"/>
+      <c r="F416" s="43"/>
+      <c r="G416" s="43"/>
+      <c r="H416" s="43"/>
+      <c r="J416">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10">
+      <c r="A417" s="43"/>
+      <c r="B417" s="43"/>
+      <c r="C417" s="43"/>
+      <c r="D417" s="43"/>
+      <c r="E417" s="43"/>
+      <c r="F417" s="43"/>
+      <c r="G417" s="43"/>
+      <c r="H417" s="43"/>
+      <c r="J417">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10">
+      <c r="A418" s="43"/>
+      <c r="B418" s="43"/>
+      <c r="C418" s="43"/>
+      <c r="D418" s="43"/>
+      <c r="E418" s="43"/>
+      <c r="F418" s="43"/>
+      <c r="G418" s="43"/>
+      <c r="H418" s="43"/>
+      <c r="J418">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10">
+      <c r="A419" s="43"/>
+      <c r="B419" s="43"/>
+      <c r="C419" s="43"/>
+      <c r="D419" s="43"/>
+      <c r="E419" s="43"/>
+      <c r="F419" s="43"/>
+      <c r="G419" s="43"/>
+      <c r="H419" s="43"/>
+      <c r="J419">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10">
+      <c r="A420" s="43"/>
+      <c r="B420" s="43"/>
+      <c r="C420" s="43"/>
+      <c r="D420" s="43"/>
+      <c r="E420" s="43"/>
+      <c r="F420" s="43"/>
+      <c r="G420" s="43"/>
+      <c r="H420" s="43"/>
+      <c r="J420">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10">
+      <c r="A421" s="43"/>
+      <c r="B421" s="43"/>
+      <c r="C421" s="43"/>
+      <c r="D421" s="43"/>
+      <c r="E421" s="43"/>
+      <c r="F421" s="43"/>
+      <c r="G421" s="43"/>
+      <c r="H421" s="43"/>
+      <c r="J421">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10">
+      <c r="A422" s="43"/>
+      <c r="B422" s="43"/>
+      <c r="C422" s="43"/>
+      <c r="D422" s="43"/>
+      <c r="E422" s="43"/>
+      <c r="F422" s="43"/>
+      <c r="G422" s="43"/>
+      <c r="H422" s="43"/>
+      <c r="J422">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10">
+      <c r="A423" s="43"/>
+      <c r="B423" s="43"/>
+      <c r="C423" s="43"/>
+      <c r="D423" s="43"/>
+      <c r="E423" s="43"/>
+      <c r="F423" s="43"/>
+      <c r="G423" s="43"/>
+      <c r="H423" s="43"/>
+      <c r="J423">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10">
+      <c r="A424" s="43"/>
+      <c r="B424" s="43"/>
+      <c r="C424" s="43"/>
+      <c r="D424" s="43"/>
+      <c r="E424" s="43"/>
+      <c r="F424" s="43"/>
+      <c r="G424" s="43"/>
+      <c r="H424" s="43"/>
+      <c r="J424">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10">
+      <c r="A425" s="43"/>
+      <c r="B425" s="43"/>
+      <c r="C425" s="43"/>
+      <c r="D425" s="43"/>
+      <c r="E425" s="43"/>
+      <c r="F425" s="43"/>
+      <c r="G425" s="43"/>
+      <c r="H425" s="43"/>
+      <c r="J425">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10">
+      <c r="A426" s="43"/>
+      <c r="B426" s="43"/>
+      <c r="C426" s="43"/>
+      <c r="D426" s="43"/>
+      <c r="E426" s="43"/>
+      <c r="F426" s="43"/>
+      <c r="G426" s="43"/>
+      <c r="H426" s="43"/>
+      <c r="J426">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10">
+      <c r="A427" s="43"/>
+      <c r="B427" s="43"/>
+      <c r="C427" s="43"/>
+      <c r="D427" s="43"/>
+      <c r="E427" s="43"/>
+      <c r="F427" s="43"/>
+      <c r="G427" s="43"/>
+      <c r="H427" s="43"/>
+      <c r="J427">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10">
+      <c r="A428" s="43"/>
+      <c r="B428" s="43"/>
+      <c r="C428" s="43"/>
+      <c r="D428" s="43"/>
+      <c r="E428" s="43"/>
+      <c r="F428" s="43"/>
+      <c r="G428" s="43"/>
+      <c r="H428" s="43"/>
+      <c r="J428">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10">
+      <c r="A429" s="43"/>
+      <c r="B429" s="43"/>
+      <c r="C429" s="43"/>
+      <c r="D429" s="43"/>
+      <c r="E429" s="43"/>
+      <c r="F429" s="43"/>
+      <c r="G429" s="43"/>
+      <c r="H429" s="43"/>
+      <c r="J429">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10">
+      <c r="A430" s="43"/>
+      <c r="B430" s="43"/>
+      <c r="C430" s="43"/>
+      <c r="D430" s="43"/>
+      <c r="E430" s="43"/>
+      <c r="F430" s="43"/>
+      <c r="G430" s="43"/>
+      <c r="H430" s="43"/>
+      <c r="J430">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10">
+      <c r="A431" s="43"/>
+      <c r="B431" s="43"/>
+      <c r="C431" s="43"/>
+      <c r="D431" s="43"/>
+      <c r="E431" s="43"/>
+      <c r="F431" s="43"/>
+      <c r="G431" s="43"/>
+      <c r="H431" s="43"/>
+      <c r="J431">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10">
+      <c r="A432" s="43"/>
+      <c r="B432" s="43"/>
+      <c r="C432" s="43"/>
+      <c r="D432" s="43"/>
+      <c r="E432" s="43"/>
+      <c r="F432" s="43"/>
+      <c r="G432" s="43"/>
+      <c r="H432" s="43"/>
+      <c r="J432">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10">
+      <c r="A433" s="43"/>
+      <c r="B433" s="43"/>
+      <c r="C433" s="43"/>
+      <c r="D433" s="43"/>
+      <c r="E433" s="43"/>
+      <c r="F433" s="43"/>
+      <c r="G433" s="43"/>
+      <c r="H433" s="43"/>
+      <c r="J433">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10">
+      <c r="A434" s="43"/>
+      <c r="B434" s="43"/>
+      <c r="C434" s="43"/>
+      <c r="D434" s="43"/>
+      <c r="E434" s="43"/>
+      <c r="F434" s="43"/>
+      <c r="G434" s="43"/>
+      <c r="H434" s="43"/>
+      <c r="J434">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10">
+      <c r="A435" s="43"/>
+      <c r="B435" s="43"/>
+      <c r="C435" s="43"/>
+      <c r="D435" s="43"/>
+      <c r="E435" s="43"/>
+      <c r="F435" s="43"/>
+      <c r="G435" s="43"/>
+      <c r="H435" s="43"/>
+      <c r="J435">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10">
+      <c r="A436" s="43"/>
+      <c r="B436" s="43"/>
+      <c r="C436" s="43"/>
+      <c r="D436" s="43"/>
+      <c r="E436" s="43"/>
+      <c r="F436" s="43"/>
+      <c r="G436" s="43"/>
+      <c r="H436" s="43"/>
+      <c r="J436">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10">
+      <c r="A437" s="43"/>
+      <c r="B437" s="43"/>
+      <c r="C437" s="43"/>
+      <c r="D437" s="43"/>
+      <c r="E437" s="43"/>
+      <c r="F437" s="43"/>
+      <c r="G437" s="43"/>
+      <c r="H437" s="43"/>
+      <c r="J437">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10">
+      <c r="A438" s="43"/>
+      <c r="B438" s="43"/>
+      <c r="C438" s="43"/>
+      <c r="D438" s="43"/>
+      <c r="E438" s="43"/>
+      <c r="F438" s="43"/>
+      <c r="G438" s="43"/>
+      <c r="H438" s="43"/>
+      <c r="J438">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10">
+      <c r="A439" s="43"/>
+      <c r="B439" s="43"/>
+      <c r="C439" s="43"/>
+      <c r="D439" s="43"/>
+      <c r="E439" s="43"/>
+      <c r="F439" s="43"/>
+      <c r="G439" s="43"/>
+      <c r="H439" s="43"/>
+      <c r="J439">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10">
+      <c r="A440" s="43"/>
+      <c r="B440" s="43"/>
+      <c r="C440" s="43"/>
+      <c r="D440" s="43"/>
+      <c r="E440" s="43"/>
+      <c r="F440" s="43"/>
+      <c r="G440" s="43"/>
+      <c r="H440" s="43"/>
+      <c r="J440">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10">
+      <c r="A441" s="43"/>
+      <c r="B441" s="43"/>
+      <c r="C441" s="43"/>
+      <c r="D441" s="43"/>
+      <c r="E441" s="43"/>
+      <c r="F441" s="43"/>
+      <c r="G441" s="43"/>
+      <c r="H441" s="43"/>
+      <c r="J441">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10">
+      <c r="A442" s="43"/>
+      <c r="B442" s="43"/>
+      <c r="C442" s="43"/>
+      <c r="D442" s="43"/>
+      <c r="E442" s="43"/>
+      <c r="F442" s="43"/>
+      <c r="G442" s="43"/>
+      <c r="H442" s="43"/>
+      <c r="J442">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10">
+      <c r="A443" s="43"/>
+      <c r="B443" s="43"/>
+      <c r="C443" s="43"/>
+      <c r="D443" s="43"/>
+      <c r="E443" s="43"/>
+      <c r="F443" s="43"/>
+      <c r="G443" s="43"/>
+      <c r="H443" s="43"/>
+      <c r="J443">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10">
+      <c r="A444" s="43"/>
+      <c r="B444" s="43"/>
+      <c r="C444" s="43"/>
+      <c r="D444" s="43"/>
+      <c r="E444" s="43"/>
+      <c r="F444" s="43"/>
+      <c r="G444" s="43"/>
+      <c r="H444" s="43"/>
+      <c r="J444">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10">
+      <c r="A445" s="43"/>
+      <c r="B445" s="43"/>
+      <c r="C445" s="43"/>
+      <c r="D445" s="43"/>
+      <c r="E445" s="43"/>
+      <c r="F445" s="43"/>
+      <c r="G445" s="43"/>
+      <c r="H445" s="43"/>
+      <c r="J445">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10">
+      <c r="A446" s="43"/>
+      <c r="B446" s="43"/>
+      <c r="C446" s="43"/>
+      <c r="D446" s="43"/>
+      <c r="E446" s="43"/>
+      <c r="F446" s="43"/>
+      <c r="G446" s="43"/>
+      <c r="H446" s="43"/>
+      <c r="J446">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10">
+      <c r="A447" s="43"/>
+      <c r="B447" s="43"/>
+      <c r="C447" s="43"/>
+      <c r="D447" s="43"/>
+      <c r="E447" s="43"/>
+      <c r="F447" s="43"/>
+      <c r="G447" s="43"/>
+      <c r="H447" s="43"/>
+      <c r="J447">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10">
+      <c r="A448" s="43"/>
+      <c r="B448" s="43"/>
+      <c r="C448" s="43"/>
+      <c r="D448" s="43"/>
+      <c r="E448" s="43"/>
+      <c r="F448" s="43"/>
+      <c r="G448" s="43"/>
+      <c r="H448" s="43"/>
+      <c r="J448">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10">
+      <c r="A449" s="43"/>
+      <c r="B449" s="43"/>
+      <c r="C449" s="43"/>
+      <c r="D449" s="43"/>
+      <c r="E449" s="43"/>
+      <c r="F449" s="43"/>
+      <c r="G449" s="43"/>
+      <c r="H449" s="43"/>
+      <c r="J449">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10">
+      <c r="A450" s="43"/>
+      <c r="B450" s="43"/>
+      <c r="C450" s="43"/>
+      <c r="D450" s="43"/>
+      <c r="E450" s="43"/>
+      <c r="F450" s="43"/>
+      <c r="G450" s="43"/>
+      <c r="H450" s="43"/>
+      <c r="J450" s="44">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10">
+      <c r="A451" s="43"/>
+      <c r="B451" s="43"/>
+      <c r="C451" s="43"/>
+      <c r="D451" s="43"/>
+      <c r="E451" s="43"/>
+      <c r="F451" s="43"/>
+      <c r="G451" s="43"/>
+      <c r="H451" s="43"/>
+      <c r="J451">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10">
+      <c r="A452" s="43"/>
+      <c r="B452" s="43"/>
+      <c r="C452" s="43"/>
+      <c r="D452" s="43"/>
+      <c r="E452" s="43"/>
+      <c r="F452" s="43"/>
+      <c r="G452" s="43"/>
+      <c r="H452" s="43"/>
+      <c r="J452">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10">
+      <c r="A453" s="43"/>
+      <c r="B453" s="43"/>
+      <c r="C453" s="43"/>
+      <c r="D453" s="43"/>
+      <c r="E453" s="43"/>
+      <c r="F453" s="43"/>
+      <c r="G453" s="43"/>
+      <c r="H453" s="43"/>
+      <c r="J453">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/data_surveys.xlsx
+++ b/data_surveys.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
-  <workbookPr autoCompressPictures="0"/>
+  <workbookPr autoCompressPictures="false"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacobo Morales\piaproba\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71101D22-FC01-4C38-A762-A12B3767B4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IPAQ Short Form Scoring" sheetId="5" r:id="rId1"/>
@@ -18,9 +17,9 @@
     <sheet name="Registro de usuarios" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'IPAQ Short Form Scoring'!$A$2:$AD$179</definedName>
+    <definedName hidden="true" localSheetId="0" name="_xlnm._FilterDatabase">'IPAQ Short Form Scoring'!$A$2:$AD$179</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="false"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -210,21 +209,21 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="12"/>
       </rPr>
       <t>(ENTER RAW DATA HERE)</t>
     </r>
@@ -284,8 +283,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,13 +298,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -334,21 +333,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <u/>
       <sz val="10"/>
       <color indexed="8"/>
@@ -356,7 +355,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -399,19 +398,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,7 +457,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -468,7 +467,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,17 +476,17 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -495,7 +494,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom/>
@@ -504,18 +503,18 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom/>
@@ -523,7 +522,7 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
@@ -533,20 +532,20 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom/>
@@ -554,34 +553,34 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom/>
@@ -589,11 +588,11 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -601,28 +600,28 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
@@ -631,23 +630,23 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
       <bottom style="dashed">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,18 +655,18 @@
       <right/>
       <top/>
       <bottom style="dashed">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="dashed">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,272 +702,272 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8" hidden="true"/>
+    <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="true"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FF538DD5"/>
@@ -991,7 +990,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -68799,13 +68798,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347BF607-D574-4A93-99C4-2FCC93446D42}">
   <dimension ref="A1:D801"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="G795" sqref="G795"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="83" t="s">
         <v>63</v>
       </c>
@@ -68816,5600 +68815,5604 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="83"/>
       <c r="B2" s="83"/>
       <c r="D2">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
+    <row r="3" spans="1:4">
+      <c r="A3" s="43">
+        <v>1</v>
+      </c>
+      <c r="B3" s="43">
+        <v>20</v>
+      </c>
       <c r="D3">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="43"/>
       <c r="B4" s="43"/>
       <c r="D4">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="43"/>
       <c r="B5" s="43"/>
       <c r="D5">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="43"/>
       <c r="B6" s="43"/>
       <c r="D6">
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="43"/>
       <c r="B7" s="43"/>
       <c r="D7">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="43"/>
       <c r="B8" s="43"/>
       <c r="D8">
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="43"/>
       <c r="B9" s="43"/>
       <c r="D9">
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="43"/>
       <c r="B10" s="43"/>
       <c r="D10">
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="43"/>
       <c r="B11" s="43"/>
       <c r="D11">
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="43"/>
       <c r="B12" s="43"/>
       <c r="D12">
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="43"/>
       <c r="B13" s="43"/>
       <c r="D13">
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="43"/>
       <c r="B14" s="43"/>
       <c r="D14">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="43"/>
       <c r="B15" s="43"/>
       <c r="D15">
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="43"/>
       <c r="B16" s="43"/>
       <c r="D16">
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="43"/>
       <c r="B17" s="43"/>
       <c r="D17">
         <v>10000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="43"/>
       <c r="B18" s="43"/>
       <c r="D18">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="43"/>
       <c r="B19" s="43"/>
       <c r="D19">
         <v>10000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="43"/>
       <c r="B20" s="43"/>
       <c r="D20">
         <v>10000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="43"/>
       <c r="B21" s="43"/>
       <c r="D21">
         <v>10000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="D22">
         <v>10000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="43"/>
       <c r="B23" s="43"/>
       <c r="D23">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="43"/>
       <c r="B24" s="43"/>
       <c r="D24">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" s="43"/>
       <c r="B25" s="43"/>
       <c r="D25">
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="43"/>
       <c r="B26" s="43"/>
       <c r="D26">
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="43"/>
       <c r="B27" s="43"/>
       <c r="D27">
         <v>10000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" s="43"/>
       <c r="B28" s="43"/>
       <c r="D28">
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="43"/>
       <c r="B29" s="43"/>
       <c r="D29">
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="43"/>
       <c r="B30" s="43"/>
       <c r="D30">
         <v>10000</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="43"/>
       <c r="B31" s="43"/>
       <c r="D31">
         <v>10000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" s="43"/>
       <c r="B32" s="43"/>
       <c r="D32">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="43"/>
       <c r="B33" s="43"/>
       <c r="D33">
         <v>10000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="43"/>
       <c r="B34" s="43"/>
       <c r="D34">
         <v>10000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="43"/>
       <c r="B35" s="43"/>
       <c r="D35">
         <v>10000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="43"/>
       <c r="B36" s="43"/>
       <c r="D36">
         <v>10000</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="43"/>
       <c r="B37" s="43"/>
       <c r="D37">
         <v>10000</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="43"/>
       <c r="B38" s="43"/>
       <c r="D38">
         <v>10000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="43"/>
       <c r="B39" s="43"/>
       <c r="D39">
         <v>10000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" s="43"/>
       <c r="B40" s="43"/>
       <c r="D40">
         <v>10000</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" s="43"/>
       <c r="B41" s="43"/>
       <c r="D41">
         <v>10000</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="43"/>
       <c r="B42" s="43"/>
       <c r="D42">
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="43"/>
       <c r="B43" s="43"/>
       <c r="D43">
         <v>10000</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" s="43"/>
       <c r="B44" s="43"/>
       <c r="D44">
         <v>10000</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" s="43"/>
       <c r="B45" s="43"/>
       <c r="D45">
         <v>10000</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" s="43"/>
       <c r="B46" s="43"/>
       <c r="D46">
         <v>10000</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" s="43"/>
       <c r="B47" s="43"/>
       <c r="D47">
         <v>10000</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" s="43"/>
       <c r="B48" s="43"/>
       <c r="D48">
         <v>10000</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" s="43"/>
       <c r="B49" s="43"/>
       <c r="D49">
         <v>10000</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" s="43"/>
       <c r="B50" s="43"/>
       <c r="D50">
         <v>10000</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" s="43"/>
       <c r="B51" s="43"/>
       <c r="D51">
         <v>10000</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" s="43"/>
       <c r="B52" s="43"/>
       <c r="D52">
         <v>10000</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" s="43"/>
       <c r="B53" s="43"/>
       <c r="D53">
         <v>10000</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" s="43"/>
       <c r="B54" s="43"/>
       <c r="D54">
         <v>10000</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" s="43"/>
       <c r="B55" s="43"/>
       <c r="D55">
         <v>10000</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" s="43"/>
       <c r="B56" s="43"/>
       <c r="D56">
         <v>10000</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" s="43"/>
       <c r="B57" s="43"/>
       <c r="D57">
         <v>10000</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" s="43"/>
       <c r="B58" s="43"/>
       <c r="D58">
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" s="43"/>
       <c r="B59" s="43"/>
       <c r="D59">
         <v>10000</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" s="43"/>
       <c r="B60" s="43"/>
       <c r="D60">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" s="43"/>
       <c r="B61" s="43"/>
       <c r="D61">
         <v>10000</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" s="43"/>
       <c r="B62" s="43"/>
       <c r="D62">
         <v>10000</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" s="43"/>
       <c r="B63" s="43"/>
       <c r="D63">
         <v>10000</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" s="43"/>
       <c r="B64" s="43"/>
       <c r="D64">
         <v>10000</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" s="43"/>
       <c r="B65" s="43"/>
       <c r="D65">
         <v>10000</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" s="43"/>
       <c r="B66" s="43"/>
       <c r="D66">
         <v>10000</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" s="43"/>
       <c r="B67" s="43"/>
       <c r="D67">
         <v>10000</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68" s="43"/>
       <c r="B68" s="43"/>
       <c r="D68">
         <v>10000</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69" s="43"/>
       <c r="B69" s="43"/>
       <c r="D69">
         <v>10000</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70" s="43"/>
       <c r="B70" s="43"/>
       <c r="D70">
         <v>10000</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71" s="43"/>
       <c r="B71" s="43"/>
       <c r="D71">
         <v>10000</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72" s="43"/>
       <c r="B72" s="43"/>
       <c r="D72">
         <v>10000</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73" s="43"/>
       <c r="B73" s="43"/>
       <c r="D73">
         <v>10000</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74" s="43"/>
       <c r="B74" s="43"/>
       <c r="D74">
         <v>10000</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75" s="43"/>
       <c r="B75" s="43"/>
       <c r="D75">
         <v>10000</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76" s="43"/>
       <c r="B76" s="43"/>
       <c r="D76">
         <v>10000</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4">
       <c r="A77" s="43"/>
       <c r="B77" s="43"/>
       <c r="D77">
         <v>10000</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78" s="43"/>
       <c r="B78" s="43"/>
       <c r="D78">
         <v>10000</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79" s="43"/>
       <c r="B79" s="43"/>
       <c r="D79">
         <v>10000</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80" s="43"/>
       <c r="B80" s="43"/>
       <c r="D80">
         <v>10000</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" s="43"/>
       <c r="B81" s="43"/>
       <c r="D81">
         <v>10000</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" s="43"/>
       <c r="B82" s="43"/>
       <c r="D82">
         <v>10000</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" s="43"/>
       <c r="B83" s="43"/>
       <c r="D83">
         <v>10000</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84" s="43"/>
       <c r="B84" s="43"/>
       <c r="D84">
         <v>10000</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85" s="43"/>
       <c r="B85" s="43"/>
       <c r="D85">
         <v>10000</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" s="43"/>
       <c r="B86" s="43"/>
       <c r="D86">
         <v>10000</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87" s="43"/>
       <c r="B87" s="43"/>
       <c r="D87">
         <v>10000</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88" s="43"/>
       <c r="B88" s="43"/>
       <c r="D88">
         <v>10000</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89" s="43"/>
       <c r="B89" s="43"/>
       <c r="D89">
         <v>10000</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90" s="43"/>
       <c r="B90" s="43"/>
       <c r="D90">
         <v>10000</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91" s="43"/>
       <c r="B91" s="43"/>
       <c r="D91">
         <v>10000</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92" s="43"/>
       <c r="B92" s="43"/>
       <c r="D92">
         <v>10000</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93" s="43"/>
       <c r="B93" s="43"/>
       <c r="D93">
         <v>10000</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94" s="43"/>
       <c r="B94" s="43"/>
       <c r="D94">
         <v>10000</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95" s="43"/>
       <c r="B95" s="43"/>
       <c r="D95">
         <v>10000</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96" s="43"/>
       <c r="B96" s="43"/>
       <c r="D96">
         <v>10000</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4">
       <c r="A97" s="43"/>
       <c r="B97" s="43"/>
       <c r="D97">
         <v>10000</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4">
       <c r="A98" s="43"/>
       <c r="B98" s="43"/>
       <c r="D98">
         <v>10000</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4">
       <c r="A99" s="43"/>
       <c r="B99" s="43"/>
       <c r="D99">
         <v>10000</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4">
       <c r="A100" s="43"/>
       <c r="B100" s="43"/>
       <c r="D100">
         <v>10000</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4">
       <c r="A101" s="43"/>
       <c r="B101" s="43"/>
       <c r="D101">
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4">
       <c r="A102" s="43"/>
       <c r="B102" s="43"/>
       <c r="D102">
         <v>10000</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4">
       <c r="A103" s="43"/>
       <c r="B103" s="43"/>
       <c r="D103">
         <v>10000</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4">
       <c r="A104" s="43"/>
       <c r="B104" s="43"/>
       <c r="D104">
         <v>10000</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4">
       <c r="A105" s="43"/>
       <c r="B105" s="43"/>
       <c r="D105">
         <v>10000</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4">
       <c r="A106" s="43"/>
       <c r="B106" s="43"/>
       <c r="D106">
         <v>10000</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4">
       <c r="A107" s="43"/>
       <c r="B107" s="43"/>
       <c r="D107">
         <v>10000</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4">
       <c r="A108" s="43"/>
       <c r="B108" s="43"/>
       <c r="D108">
         <v>10000</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4">
       <c r="A109" s="43"/>
       <c r="B109" s="43"/>
       <c r="D109">
         <v>10000</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4">
       <c r="A110" s="43"/>
       <c r="B110" s="43"/>
       <c r="D110">
         <v>10000</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4">
       <c r="A111" s="43"/>
       <c r="B111" s="43"/>
       <c r="D111">
         <v>10000</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4">
       <c r="A112" s="43"/>
       <c r="B112" s="43"/>
       <c r="D112">
         <v>10000</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4">
       <c r="A113" s="43"/>
       <c r="B113" s="43"/>
       <c r="D113">
         <v>10000</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4">
       <c r="A114" s="43"/>
       <c r="B114" s="43"/>
       <c r="D114">
         <v>10000</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4">
       <c r="A115" s="43"/>
       <c r="B115" s="43"/>
       <c r="D115">
         <v>10000</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4">
       <c r="A116" s="43"/>
       <c r="B116" s="43"/>
       <c r="D116">
         <v>10000</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4">
       <c r="A117" s="43"/>
       <c r="B117" s="43"/>
       <c r="D117">
         <v>10000</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4">
       <c r="A118" s="43"/>
       <c r="B118" s="43"/>
       <c r="D118">
         <v>10000</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4">
       <c r="A119" s="43"/>
       <c r="B119" s="43"/>
       <c r="D119">
         <v>10000</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4">
       <c r="A120" s="43"/>
       <c r="B120" s="43"/>
       <c r="D120">
         <v>10000</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4">
       <c r="A121" s="43"/>
       <c r="B121" s="43"/>
       <c r="D121">
         <v>10000</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4">
       <c r="A122" s="43"/>
       <c r="B122" s="43"/>
       <c r="D122">
         <v>10000</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4">
       <c r="A123" s="43"/>
       <c r="B123" s="43"/>
       <c r="D123">
         <v>10000</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4">
       <c r="A124" s="43"/>
       <c r="B124" s="43"/>
       <c r="D124">
         <v>10000</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4">
       <c r="A125" s="43"/>
       <c r="B125" s="43"/>
       <c r="D125">
         <v>10000</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4">
       <c r="A126" s="43"/>
       <c r="B126" s="43"/>
       <c r="D126">
         <v>10000</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4">
       <c r="A127" s="43"/>
       <c r="B127" s="43"/>
       <c r="D127">
         <v>10000</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4">
       <c r="A128" s="43"/>
       <c r="B128" s="43"/>
       <c r="D128">
         <v>10000</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4">
       <c r="A129" s="43"/>
       <c r="B129" s="43"/>
       <c r="D129">
         <v>10000</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4">
       <c r="A130" s="43"/>
       <c r="B130" s="43"/>
       <c r="D130">
         <v>10000</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4">
       <c r="A131" s="43"/>
       <c r="B131" s="43"/>
       <c r="D131">
         <v>10000</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4">
       <c r="A132" s="43"/>
       <c r="B132" s="43"/>
       <c r="D132">
         <v>10000</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4">
       <c r="A133" s="43"/>
       <c r="B133" s="43"/>
       <c r="D133">
         <v>10000</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4">
       <c r="A134" s="43"/>
       <c r="B134" s="43"/>
       <c r="D134">
         <v>10000</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4">
       <c r="A135" s="43"/>
       <c r="B135" s="43"/>
       <c r="D135">
         <v>10000</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4">
       <c r="A136" s="43"/>
       <c r="B136" s="43"/>
       <c r="D136">
         <v>10000</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4">
       <c r="A137" s="43"/>
       <c r="B137" s="43"/>
       <c r="D137">
         <v>10000</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4">
       <c r="A138" s="43"/>
       <c r="B138" s="43"/>
       <c r="D138">
         <v>10000</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4">
       <c r="A139" s="43"/>
       <c r="B139" s="43"/>
       <c r="D139">
         <v>10000</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4">
       <c r="A140" s="43"/>
       <c r="B140" s="43"/>
       <c r="D140">
         <v>10000</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4">
       <c r="A141" s="43"/>
       <c r="B141" s="43"/>
       <c r="D141">
         <v>10000</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4">
       <c r="A142" s="43"/>
       <c r="B142" s="43"/>
       <c r="D142">
         <v>10000</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4">
       <c r="A143" s="43"/>
       <c r="B143" s="43"/>
       <c r="D143">
         <v>10000</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4">
       <c r="A144" s="43"/>
       <c r="B144" s="43"/>
       <c r="D144">
         <v>10000</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4">
       <c r="A145" s="43"/>
       <c r="B145" s="43"/>
       <c r="D145">
         <v>10000</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4">
       <c r="A146" s="43"/>
       <c r="B146" s="43"/>
       <c r="D146">
         <v>10000</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4">
       <c r="A147" s="43"/>
       <c r="B147" s="43"/>
       <c r="D147">
         <v>10000</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4">
       <c r="A148" s="43"/>
       <c r="B148" s="43"/>
       <c r="D148">
         <v>10000</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4">
       <c r="A149" s="43"/>
       <c r="B149" s="43"/>
       <c r="D149">
         <v>10000</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4">
       <c r="A150" s="43"/>
       <c r="B150" s="43"/>
       <c r="D150">
         <v>10000</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4">
       <c r="A151" s="43"/>
       <c r="B151" s="43"/>
       <c r="D151">
         <v>10000</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4">
       <c r="A152" s="43"/>
       <c r="B152" s="43"/>
       <c r="D152">
         <v>10000</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4">
       <c r="A153" s="43"/>
       <c r="B153" s="43"/>
       <c r="D153">
         <v>10000</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4">
       <c r="A154" s="43"/>
       <c r="B154" s="43"/>
       <c r="D154">
         <v>10000</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4">
       <c r="A155" s="43"/>
       <c r="B155" s="43"/>
       <c r="D155">
         <v>10000</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4">
       <c r="A156" s="43"/>
       <c r="B156" s="43"/>
       <c r="D156">
         <v>10000</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4">
       <c r="A157" s="43"/>
       <c r="B157" s="43"/>
       <c r="D157">
         <v>10000</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4">
       <c r="A158" s="43"/>
       <c r="B158" s="43"/>
       <c r="D158">
         <v>10000</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4">
       <c r="A159" s="43"/>
       <c r="B159" s="43"/>
       <c r="D159">
         <v>10000</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4">
       <c r="A160" s="43"/>
       <c r="B160" s="43"/>
       <c r="D160">
         <v>10000</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4">
       <c r="A161" s="43"/>
       <c r="B161" s="43"/>
       <c r="D161">
         <v>10000</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4">
       <c r="A162" s="43"/>
       <c r="B162" s="43"/>
       <c r="D162">
         <v>10000</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4">
       <c r="A163" s="43"/>
       <c r="B163" s="43"/>
       <c r="D163">
         <v>10000</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4">
       <c r="A164" s="43"/>
       <c r="B164" s="43"/>
       <c r="D164">
         <v>10000</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4">
       <c r="A165" s="43"/>
       <c r="B165" s="43"/>
       <c r="D165">
         <v>10000</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4">
       <c r="A166" s="43"/>
       <c r="B166" s="43"/>
       <c r="D166">
         <v>10000</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4">
       <c r="A167" s="43"/>
       <c r="B167" s="43"/>
       <c r="D167">
         <v>10000</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4">
       <c r="A168" s="43"/>
       <c r="B168" s="43"/>
       <c r="D168">
         <v>10000</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4">
       <c r="A169" s="43"/>
       <c r="B169" s="43"/>
       <c r="D169">
         <v>10000</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4">
       <c r="A170" s="43"/>
       <c r="B170" s="43"/>
       <c r="D170">
         <v>10000</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4">
       <c r="A171" s="43"/>
       <c r="B171" s="43"/>
       <c r="D171">
         <v>10000</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4">
       <c r="A172" s="43"/>
       <c r="B172" s="43"/>
       <c r="D172">
         <v>10000</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4">
       <c r="A173" s="43"/>
       <c r="B173" s="43"/>
       <c r="D173">
         <v>10000</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4">
       <c r="A174" s="43"/>
       <c r="B174" s="43"/>
       <c r="D174">
         <v>10000</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4">
       <c r="A175" s="43"/>
       <c r="B175" s="43"/>
       <c r="D175">
         <v>10000</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4">
       <c r="A176" s="43"/>
       <c r="B176" s="43"/>
       <c r="D176">
         <v>10000</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4">
       <c r="A177" s="43"/>
       <c r="B177" s="43"/>
       <c r="D177">
         <v>10000</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4">
       <c r="A178" s="43"/>
       <c r="B178" s="43"/>
       <c r="D178">
         <v>10000</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4">
       <c r="A179" s="43"/>
       <c r="B179" s="43"/>
       <c r="D179">
         <v>10000</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4">
       <c r="A180" s="43"/>
       <c r="B180" s="43"/>
       <c r="D180">
         <v>10000</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4">
       <c r="A181" s="43"/>
       <c r="B181" s="43"/>
       <c r="D181">
         <v>10000</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4">
       <c r="A182" s="43"/>
       <c r="B182" s="43"/>
       <c r="D182">
         <v>10000</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4">
       <c r="A183" s="43"/>
       <c r="B183" s="43"/>
       <c r="D183">
         <v>10000</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4">
       <c r="A184" s="43"/>
       <c r="B184" s="43"/>
       <c r="D184">
         <v>10000</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4">
       <c r="A185" s="43"/>
       <c r="B185" s="43"/>
       <c r="D185">
         <v>10000</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4">
       <c r="A186" s="43"/>
       <c r="B186" s="43"/>
       <c r="D186">
         <v>10000</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4">
       <c r="A187" s="43"/>
       <c r="B187" s="43"/>
       <c r="D187">
         <v>10000</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4">
       <c r="A188" s="43"/>
       <c r="B188" s="43"/>
       <c r="D188">
         <v>10000</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4">
       <c r="A189" s="43"/>
       <c r="B189" s="43"/>
       <c r="D189">
         <v>10000</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4">
       <c r="A190" s="43"/>
       <c r="B190" s="43"/>
       <c r="D190">
         <v>10000</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4">
       <c r="A191" s="43"/>
       <c r="B191" s="43"/>
       <c r="D191">
         <v>10000</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4">
       <c r="A192" s="43"/>
       <c r="B192" s="43"/>
       <c r="D192">
         <v>10000</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4">
       <c r="A193" s="43"/>
       <c r="B193" s="43"/>
       <c r="D193">
         <v>10000</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4">
       <c r="A194" s="43"/>
       <c r="B194" s="43"/>
       <c r="D194">
         <v>10000</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4">
       <c r="A195" s="43"/>
       <c r="B195" s="43"/>
       <c r="D195">
         <v>10000</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4">
       <c r="A196" s="43"/>
       <c r="B196" s="43"/>
       <c r="D196">
         <v>10000</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4">
       <c r="A197" s="43"/>
       <c r="B197" s="43"/>
       <c r="D197">
         <v>10000</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4">
       <c r="A198" s="43"/>
       <c r="B198" s="43"/>
       <c r="D198">
         <v>10000</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4">
       <c r="A199" s="43"/>
       <c r="B199" s="43"/>
       <c r="D199">
         <v>10000</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4">
       <c r="A200" s="43"/>
       <c r="B200" s="43"/>
       <c r="D200">
         <v>10000</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4">
       <c r="A201" s="43"/>
       <c r="B201" s="43"/>
       <c r="D201">
         <v>10000</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4">
       <c r="A202" s="43"/>
       <c r="B202" s="43"/>
       <c r="D202">
         <v>10000</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4">
       <c r="A203" s="43"/>
       <c r="B203" s="43"/>
       <c r="D203">
         <v>10000</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4">
       <c r="A204" s="43"/>
       <c r="B204" s="43"/>
       <c r="D204">
         <v>10000</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4">
       <c r="A205" s="43"/>
       <c r="B205" s="43"/>
       <c r="D205">
         <v>10000</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4">
       <c r="A206" s="43"/>
       <c r="B206" s="43"/>
       <c r="D206">
         <v>10000</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4">
       <c r="A207" s="43"/>
       <c r="B207" s="43"/>
       <c r="D207">
         <v>10000</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4">
       <c r="A208" s="43"/>
       <c r="B208" s="43"/>
       <c r="D208">
         <v>10000</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4">
       <c r="A209" s="43"/>
       <c r="B209" s="43"/>
       <c r="D209">
         <v>10000</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4">
       <c r="A210" s="43"/>
       <c r="B210" s="43"/>
       <c r="D210">
         <v>10000</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4">
       <c r="A211" s="43"/>
       <c r="B211" s="43"/>
       <c r="D211">
         <v>10000</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4">
       <c r="A212" s="43"/>
       <c r="B212" s="43"/>
       <c r="D212">
         <v>10000</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4">
       <c r="A213" s="43"/>
       <c r="B213" s="43"/>
       <c r="D213">
         <v>10000</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4">
       <c r="A214" s="43"/>
       <c r="B214" s="43"/>
       <c r="D214">
         <v>10000</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4">
       <c r="A215" s="43"/>
       <c r="B215" s="43"/>
       <c r="D215">
         <v>10000</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4">
       <c r="A216" s="43"/>
       <c r="B216" s="43"/>
       <c r="D216">
         <v>10000</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4">
       <c r="A217" s="43"/>
       <c r="B217" s="43"/>
       <c r="D217">
         <v>10000</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4">
       <c r="A218" s="43"/>
       <c r="B218" s="43"/>
       <c r="D218">
         <v>10000</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4">
       <c r="A219" s="43"/>
       <c r="B219" s="43"/>
       <c r="D219">
         <v>10000</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4">
       <c r="A220" s="43"/>
       <c r="B220" s="43"/>
       <c r="D220">
         <v>10000</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4">
       <c r="A221" s="43"/>
       <c r="B221" s="43"/>
       <c r="D221">
         <v>10000</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4">
       <c r="A222" s="43"/>
       <c r="B222" s="43"/>
       <c r="D222">
         <v>10000</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4">
       <c r="A223" s="43"/>
       <c r="B223" s="43"/>
       <c r="D223">
         <v>10000</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4">
       <c r="A224" s="43"/>
       <c r="B224" s="43"/>
       <c r="D224">
         <v>10000</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4">
       <c r="A225" s="43"/>
       <c r="B225" s="43"/>
       <c r="D225">
         <v>10000</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4">
       <c r="A226" s="43"/>
       <c r="B226" s="43"/>
       <c r="D226">
         <v>10000</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4">
       <c r="A227" s="43"/>
       <c r="B227" s="43"/>
       <c r="D227">
         <v>10000</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4">
       <c r="A228" s="43"/>
       <c r="B228" s="43"/>
       <c r="D228">
         <v>10000</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4">
       <c r="A229" s="43"/>
       <c r="B229" s="43"/>
       <c r="D229">
         <v>10000</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4">
       <c r="A230" s="43"/>
       <c r="B230" s="43"/>
       <c r="D230">
         <v>10000</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4">
       <c r="A231" s="43"/>
       <c r="B231" s="43"/>
       <c r="D231">
         <v>10000</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4">
       <c r="A232" s="43"/>
       <c r="B232" s="43"/>
       <c r="D232">
         <v>10000</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4">
       <c r="A233" s="43"/>
       <c r="B233" s="43"/>
       <c r="D233">
         <v>10000</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4">
       <c r="A234" s="43"/>
       <c r="B234" s="43"/>
       <c r="D234">
         <v>10000</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4">
       <c r="A235" s="43"/>
       <c r="B235" s="43"/>
       <c r="D235">
         <v>10000</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4">
       <c r="A236" s="43"/>
       <c r="B236" s="43"/>
       <c r="D236">
         <v>10000</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4">
       <c r="A237" s="43"/>
       <c r="B237" s="43"/>
       <c r="D237">
         <v>10000</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4">
       <c r="A238" s="43"/>
       <c r="B238" s="43"/>
       <c r="D238">
         <v>10000</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4">
       <c r="A239" s="43"/>
       <c r="B239" s="43"/>
       <c r="D239">
         <v>10000</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4">
       <c r="A240" s="43"/>
       <c r="B240" s="43"/>
       <c r="D240">
         <v>10000</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4">
       <c r="A241" s="43"/>
       <c r="B241" s="43"/>
       <c r="D241">
         <v>10000</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4">
       <c r="A242" s="43"/>
       <c r="B242" s="43"/>
       <c r="D242">
         <v>10000</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4">
       <c r="A243" s="43"/>
       <c r="B243" s="43"/>
       <c r="D243">
         <v>10000</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4">
       <c r="A244" s="43"/>
       <c r="B244" s="43"/>
       <c r="D244">
         <v>10000</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4">
       <c r="A245" s="43"/>
       <c r="B245" s="43"/>
       <c r="D245">
         <v>10000</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4">
       <c r="A246" s="43"/>
       <c r="B246" s="43"/>
       <c r="D246">
         <v>10000</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4">
       <c r="A247" s="43"/>
       <c r="B247" s="43"/>
       <c r="D247">
         <v>10000</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4">
       <c r="A248" s="43"/>
       <c r="B248" s="43"/>
       <c r="D248">
         <v>10000</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4">
       <c r="A249" s="43"/>
       <c r="B249" s="43"/>
       <c r="D249">
         <v>10000</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4">
       <c r="A250" s="43"/>
       <c r="B250" s="43"/>
       <c r="D250">
         <v>10000</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4">
       <c r="A251" s="43"/>
       <c r="B251" s="43"/>
       <c r="D251">
         <v>10000</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4">
       <c r="A252" s="43"/>
       <c r="B252" s="43"/>
       <c r="D252">
         <v>10000</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4">
       <c r="A253" s="43"/>
       <c r="B253" s="43"/>
       <c r="D253">
         <v>10000</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4">
       <c r="A254" s="43"/>
       <c r="B254" s="43"/>
       <c r="D254">
         <v>10000</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4">
       <c r="A255" s="43"/>
       <c r="B255" s="43"/>
       <c r="D255">
         <v>10000</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4">
       <c r="A256" s="43"/>
       <c r="B256" s="43"/>
       <c r="D256">
         <v>10000</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4">
       <c r="A257" s="43"/>
       <c r="B257" s="43"/>
       <c r="D257">
         <v>10000</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4">
       <c r="A258" s="43"/>
       <c r="B258" s="43"/>
       <c r="D258">
         <v>10000</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4">
       <c r="A259" s="43"/>
       <c r="B259" s="43"/>
       <c r="D259">
         <v>10000</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4">
       <c r="A260" s="43"/>
       <c r="B260" s="43"/>
       <c r="D260">
         <v>10000</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4">
       <c r="A261" s="43"/>
       <c r="B261" s="43"/>
       <c r="D261">
         <v>10000</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4">
       <c r="A262" s="43"/>
       <c r="B262" s="43"/>
       <c r="D262">
         <v>10000</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4">
       <c r="A263" s="43"/>
       <c r="B263" s="43"/>
       <c r="D263">
         <v>10000</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4">
       <c r="A264" s="43"/>
       <c r="B264" s="43"/>
       <c r="D264">
         <v>10000</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4">
       <c r="A265" s="43"/>
       <c r="B265" s="43"/>
       <c r="D265">
         <v>10000</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4">
       <c r="A266" s="43"/>
       <c r="B266" s="43"/>
       <c r="D266">
         <v>10000</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4">
       <c r="A267" s="43"/>
       <c r="B267" s="43"/>
       <c r="D267">
         <v>10000</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4">
       <c r="A268" s="43"/>
       <c r="B268" s="43"/>
       <c r="D268">
         <v>10000</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4">
       <c r="A269" s="43"/>
       <c r="B269" s="43"/>
       <c r="D269">
         <v>10000</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4">
       <c r="A270" s="43"/>
       <c r="B270" s="43"/>
       <c r="D270">
         <v>10000</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4">
       <c r="A271" s="43"/>
       <c r="B271" s="43"/>
       <c r="D271">
         <v>10000</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4">
       <c r="A272" s="43"/>
       <c r="B272" s="43"/>
       <c r="D272">
         <v>10000</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4">
       <c r="A273" s="43"/>
       <c r="B273" s="43"/>
       <c r="D273">
         <v>10000</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4">
       <c r="A274" s="43"/>
       <c r="B274" s="43"/>
       <c r="D274">
         <v>10000</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4">
       <c r="A275" s="43"/>
       <c r="B275" s="43"/>
       <c r="D275">
         <v>10000</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4">
       <c r="A276" s="43"/>
       <c r="B276" s="43"/>
       <c r="D276">
         <v>10000</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4">
       <c r="A277" s="43"/>
       <c r="B277" s="43"/>
       <c r="D277">
         <v>10000</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4">
       <c r="A278" s="43"/>
       <c r="B278" s="43"/>
       <c r="D278">
         <v>10000</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4">
       <c r="A279" s="43"/>
       <c r="B279" s="43"/>
       <c r="D279">
         <v>10000</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4">
       <c r="A280" s="43"/>
       <c r="B280" s="43"/>
       <c r="D280">
         <v>10000</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4">
       <c r="A281" s="43"/>
       <c r="B281" s="43"/>
       <c r="D281">
         <v>10000</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4">
       <c r="A282" s="43"/>
       <c r="B282" s="43"/>
       <c r="D282">
         <v>10000</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4">
       <c r="A283" s="43"/>
       <c r="B283" s="43"/>
       <c r="D283">
         <v>10000</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4">
       <c r="A284" s="43"/>
       <c r="B284" s="43"/>
       <c r="D284">
         <v>10000</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4">
       <c r="A285" s="43"/>
       <c r="B285" s="43"/>
       <c r="D285">
         <v>10000</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4">
       <c r="A286" s="43"/>
       <c r="B286" s="43"/>
       <c r="D286">
         <v>10000</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4">
       <c r="A287" s="43"/>
       <c r="B287" s="43"/>
       <c r="D287">
         <v>10000</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4">
       <c r="A288" s="43"/>
       <c r="B288" s="43"/>
       <c r="D288">
         <v>10000</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4">
       <c r="A289" s="43"/>
       <c r="B289" s="43"/>
       <c r="D289">
         <v>10000</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4">
       <c r="A290" s="43"/>
       <c r="B290" s="43"/>
       <c r="D290">
         <v>10000</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4">
       <c r="A291" s="43"/>
       <c r="B291" s="43"/>
       <c r="D291">
         <v>10000</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4">
       <c r="A292" s="43"/>
       <c r="B292" s="43"/>
       <c r="D292">
         <v>10000</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4">
       <c r="A293" s="43"/>
       <c r="B293" s="43"/>
       <c r="D293">
         <v>10000</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4">
       <c r="A294" s="43"/>
       <c r="B294" s="43"/>
       <c r="D294">
         <v>10000</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4">
       <c r="A295" s="43"/>
       <c r="B295" s="43"/>
       <c r="D295">
         <v>10000</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4">
       <c r="A296" s="43"/>
       <c r="B296" s="43"/>
       <c r="D296">
         <v>10000</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4">
       <c r="A297" s="43"/>
       <c r="B297" s="43"/>
       <c r="D297">
         <v>10000</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4">
       <c r="A298" s="43"/>
       <c r="B298" s="43"/>
       <c r="D298">
         <v>10000</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4">
       <c r="A299" s="43"/>
       <c r="B299" s="43"/>
       <c r="D299">
         <v>10000</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4">
       <c r="A300" s="43"/>
       <c r="B300" s="43"/>
       <c r="D300">
         <v>10000</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4">
       <c r="A301" s="43"/>
       <c r="B301" s="43"/>
       <c r="D301">
         <v>10000</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4">
       <c r="A302" s="43"/>
       <c r="B302" s="43"/>
       <c r="D302">
         <v>10000</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4">
       <c r="A303" s="43"/>
       <c r="B303" s="43"/>
       <c r="D303">
         <v>10000</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4">
       <c r="A304" s="43"/>
       <c r="B304" s="43"/>
       <c r="D304">
         <v>10000</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4">
       <c r="A305" s="43"/>
       <c r="B305" s="43"/>
       <c r="D305">
         <v>10000</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4">
       <c r="A306" s="43"/>
       <c r="B306" s="43"/>
       <c r="D306">
         <v>10000</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4">
       <c r="A307" s="43"/>
       <c r="B307" s="43"/>
       <c r="D307">
         <v>10000</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4">
       <c r="A308" s="43"/>
       <c r="B308" s="43"/>
       <c r="D308">
         <v>10000</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4">
       <c r="A309" s="43"/>
       <c r="B309" s="43"/>
       <c r="D309">
         <v>10000</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4">
       <c r="A310" s="43"/>
       <c r="B310" s="43"/>
       <c r="D310">
         <v>10000</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4">
       <c r="A311" s="43"/>
       <c r="B311" s="43"/>
       <c r="D311">
         <v>10000</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4">
       <c r="A312" s="43"/>
       <c r="B312" s="43"/>
       <c r="D312">
         <v>10000</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4">
       <c r="A313" s="43"/>
       <c r="B313" s="43"/>
       <c r="D313">
         <v>10000</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4">
       <c r="A314" s="43"/>
       <c r="B314" s="43"/>
       <c r="D314">
         <v>10000</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4">
       <c r="A315" s="43"/>
       <c r="B315" s="43"/>
       <c r="D315">
         <v>10000</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4">
       <c r="A316" s="43"/>
       <c r="B316" s="43"/>
       <c r="D316">
         <v>10000</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4">
       <c r="A317" s="43"/>
       <c r="B317" s="43"/>
       <c r="D317">
         <v>10000</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4">
       <c r="A318" s="43"/>
       <c r="B318" s="43"/>
       <c r="D318">
         <v>10000</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4">
       <c r="A319" s="43"/>
       <c r="B319" s="43"/>
       <c r="D319">
         <v>10000</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4">
       <c r="A320" s="43"/>
       <c r="B320" s="43"/>
       <c r="D320">
         <v>10000</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4">
       <c r="A321" s="43"/>
       <c r="B321" s="43"/>
       <c r="D321">
         <v>10000</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4">
       <c r="A322" s="43"/>
       <c r="B322" s="43"/>
       <c r="D322">
         <v>10000</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4">
       <c r="A323" s="43"/>
       <c r="B323" s="43"/>
       <c r="D323">
         <v>10000</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4">
       <c r="A324" s="43"/>
       <c r="B324" s="43"/>
       <c r="D324">
         <v>10000</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4">
       <c r="A325" s="43"/>
       <c r="B325" s="43"/>
       <c r="D325">
         <v>10000</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4">
       <c r="A326" s="43"/>
       <c r="B326" s="43"/>
       <c r="D326">
         <v>10000</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4">
       <c r="A327" s="43"/>
       <c r="B327" s="43"/>
       <c r="D327">
         <v>10000</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4">
       <c r="A328" s="43"/>
       <c r="B328" s="43"/>
       <c r="D328">
         <v>10000</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4">
       <c r="A329" s="43"/>
       <c r="B329" s="43"/>
       <c r="D329">
         <v>10000</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4">
       <c r="A330" s="43"/>
       <c r="B330" s="43"/>
       <c r="D330">
         <v>10000</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4">
       <c r="A331" s="43"/>
       <c r="B331" s="43"/>
       <c r="D331">
         <v>10000</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4">
       <c r="A332" s="43"/>
       <c r="B332" s="43"/>
       <c r="D332">
         <v>10000</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4">
       <c r="A333" s="43"/>
       <c r="B333" s="43"/>
       <c r="D333">
         <v>10000</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4">
       <c r="A334" s="43"/>
       <c r="B334" s="43"/>
       <c r="D334">
         <v>10000</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4">
       <c r="A335" s="43"/>
       <c r="B335" s="43"/>
       <c r="D335">
         <v>10000</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4">
       <c r="A336" s="43"/>
       <c r="B336" s="43"/>
       <c r="D336">
         <v>10000</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4">
       <c r="A337" s="43"/>
       <c r="B337" s="43"/>
       <c r="D337">
         <v>10000</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4">
       <c r="A338" s="43"/>
       <c r="B338" s="43"/>
       <c r="D338">
         <v>10000</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4">
       <c r="A339" s="43"/>
       <c r="B339" s="43"/>
       <c r="D339">
         <v>10000</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4">
       <c r="A340" s="43"/>
       <c r="B340" s="43"/>
       <c r="D340">
         <v>10000</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4">
       <c r="A341" s="43"/>
       <c r="B341" s="43"/>
       <c r="D341">
         <v>10000</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4">
       <c r="A342" s="43"/>
       <c r="B342" s="43"/>
       <c r="D342">
         <v>10000</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4">
       <c r="A343" s="43"/>
       <c r="B343" s="43"/>
       <c r="D343">
         <v>10000</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4">
       <c r="A344" s="43"/>
       <c r="B344" s="43"/>
       <c r="D344">
         <v>10000</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4">
       <c r="A345" s="43"/>
       <c r="B345" s="43"/>
       <c r="D345">
         <v>10000</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4">
       <c r="A346" s="43"/>
       <c r="B346" s="43"/>
       <c r="D346">
         <v>10000</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4">
       <c r="A347" s="43"/>
       <c r="B347" s="43"/>
       <c r="D347">
         <v>10000</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4">
       <c r="A348" s="43"/>
       <c r="B348" s="43"/>
       <c r="D348">
         <v>10000</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4">
       <c r="A349" s="43"/>
       <c r="B349" s="43"/>
       <c r="D349">
         <v>10000</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4">
       <c r="A350" s="43"/>
       <c r="B350" s="43"/>
       <c r="D350">
         <v>10000</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4">
       <c r="A351" s="43"/>
       <c r="B351" s="43"/>
       <c r="D351">
         <v>10000</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4">
       <c r="A352" s="43"/>
       <c r="B352" s="43"/>
       <c r="D352">
         <v>10000</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4">
       <c r="A353" s="43"/>
       <c r="B353" s="43"/>
       <c r="D353">
         <v>10000</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4">
       <c r="A354" s="43"/>
       <c r="B354" s="43"/>
       <c r="D354">
         <v>10000</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4">
       <c r="A355" s="43"/>
       <c r="B355" s="43"/>
       <c r="D355">
         <v>10000</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4">
       <c r="A356" s="43"/>
       <c r="B356" s="43"/>
       <c r="D356">
         <v>10000</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4">
       <c r="A357" s="43"/>
       <c r="B357" s="43"/>
       <c r="D357">
         <v>10000</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4">
       <c r="A358" s="43"/>
       <c r="B358" s="43"/>
       <c r="D358">
         <v>10000</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4">
       <c r="A359" s="43"/>
       <c r="B359" s="43"/>
       <c r="D359">
         <v>10000</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4">
       <c r="A360" s="43"/>
       <c r="B360" s="43"/>
       <c r="D360">
         <v>10000</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4">
       <c r="A361" s="43"/>
       <c r="B361" s="43"/>
       <c r="D361">
         <v>10000</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4">
       <c r="A362" s="43"/>
       <c r="B362" s="43"/>
       <c r="D362">
         <v>10000</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4">
       <c r="A363" s="43"/>
       <c r="B363" s="43"/>
       <c r="D363">
         <v>10000</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4">
       <c r="A364" s="43"/>
       <c r="B364" s="43"/>
       <c r="D364">
         <v>10000</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4">
       <c r="A365" s="43"/>
       <c r="B365" s="43"/>
       <c r="D365">
         <v>10000</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4">
       <c r="A366" s="43"/>
       <c r="B366" s="43"/>
       <c r="D366">
         <v>10000</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4">
       <c r="A367" s="43"/>
       <c r="B367" s="43"/>
       <c r="D367">
         <v>10000</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4">
       <c r="A368" s="43"/>
       <c r="B368" s="43"/>
       <c r="D368">
         <v>10000</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4">
       <c r="A369" s="43"/>
       <c r="B369" s="43"/>
       <c r="D369">
         <v>10000</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4">
       <c r="A370" s="43"/>
       <c r="B370" s="43"/>
       <c r="D370">
         <v>10000</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4">
       <c r="A371" s="43"/>
       <c r="B371" s="43"/>
       <c r="D371">
         <v>10000</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4">
       <c r="A372" s="43"/>
       <c r="B372" s="43"/>
       <c r="D372">
         <v>10000</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4">
       <c r="A373" s="43"/>
       <c r="B373" s="43"/>
       <c r="D373">
         <v>10000</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4">
       <c r="A374" s="43"/>
       <c r="B374" s="43"/>
       <c r="D374">
         <v>10000</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4">
       <c r="A375" s="43"/>
       <c r="B375" s="43"/>
       <c r="D375">
         <v>10000</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4">
       <c r="A376" s="43"/>
       <c r="B376" s="43"/>
       <c r="D376">
         <v>10000</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4">
       <c r="A377" s="43"/>
       <c r="B377" s="43"/>
       <c r="D377">
         <v>10000</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4">
       <c r="A378" s="43"/>
       <c r="B378" s="43"/>
       <c r="D378">
         <v>10000</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4">
       <c r="A379" s="43"/>
       <c r="B379" s="43"/>
       <c r="D379">
         <v>10000</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4">
       <c r="A380" s="43"/>
       <c r="B380" s="43"/>
       <c r="D380">
         <v>10000</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4">
       <c r="A381" s="43"/>
       <c r="B381" s="43"/>
       <c r="D381">
         <v>10000</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4">
       <c r="A382" s="43"/>
       <c r="B382" s="43"/>
       <c r="D382">
         <v>10000</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4">
       <c r="A383" s="43"/>
       <c r="B383" s="43"/>
       <c r="D383">
         <v>10000</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4">
       <c r="A384" s="43"/>
       <c r="B384" s="43"/>
       <c r="D384">
         <v>10000</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4">
       <c r="A385" s="43"/>
       <c r="B385" s="43"/>
       <c r="D385">
         <v>10000</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4">
       <c r="A386" s="43"/>
       <c r="B386" s="43"/>
       <c r="D386">
         <v>10000</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4">
       <c r="A387" s="43"/>
       <c r="B387" s="43"/>
       <c r="D387">
         <v>10000</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4">
       <c r="A388" s="43"/>
       <c r="B388" s="43"/>
       <c r="D388">
         <v>10000</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4">
       <c r="A389" s="43"/>
       <c r="B389" s="43"/>
       <c r="D389">
         <v>10000</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4">
       <c r="A390" s="43"/>
       <c r="B390" s="43"/>
       <c r="D390">
         <v>10000</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4">
       <c r="A391" s="43"/>
       <c r="B391" s="43"/>
       <c r="D391">
         <v>10000</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4">
       <c r="A392" s="43"/>
       <c r="B392" s="43"/>
       <c r="D392">
         <v>10000</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4">
       <c r="A393" s="43"/>
       <c r="B393" s="43"/>
       <c r="D393">
         <v>10000</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4">
       <c r="A394" s="43"/>
       <c r="B394" s="43"/>
       <c r="D394">
         <v>10000</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4">
       <c r="A395" s="43"/>
       <c r="B395" s="43"/>
       <c r="D395">
         <v>10000</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4">
       <c r="A396" s="43"/>
       <c r="B396" s="43"/>
       <c r="D396">
         <v>10000</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4">
       <c r="A397" s="43"/>
       <c r="B397" s="43"/>
       <c r="D397">
         <v>10000</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4">
       <c r="A398" s="43"/>
       <c r="B398" s="43"/>
       <c r="D398">
         <v>10000</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4">
       <c r="A399" s="43"/>
       <c r="B399" s="43"/>
       <c r="D399">
         <v>10000</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4">
       <c r="A400" s="43"/>
       <c r="B400" s="43"/>
       <c r="D400">
         <v>10000</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4">
       <c r="A401" s="43"/>
       <c r="B401" s="43"/>
       <c r="D401">
         <v>10000</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4">
       <c r="A402" s="43"/>
       <c r="B402" s="43"/>
       <c r="D402">
         <v>10000</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4">
       <c r="A403" s="43"/>
       <c r="B403" s="43"/>
       <c r="D403">
         <v>10000</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4">
       <c r="A404" s="43"/>
       <c r="B404" s="43"/>
       <c r="D404">
         <v>10000</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4">
       <c r="A405" s="43"/>
       <c r="B405" s="43"/>
       <c r="D405">
         <v>10000</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4">
       <c r="A406" s="43"/>
       <c r="B406" s="43"/>
       <c r="D406">
         <v>10000</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4">
       <c r="A407" s="43"/>
       <c r="B407" s="43"/>
       <c r="D407">
         <v>10000</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4">
       <c r="A408" s="43"/>
       <c r="B408" s="43"/>
       <c r="D408">
         <v>10000</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4">
       <c r="A409" s="43"/>
       <c r="B409" s="43"/>
       <c r="D409">
         <v>10000</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4">
       <c r="A410" s="43"/>
       <c r="B410" s="43"/>
       <c r="D410">
         <v>10000</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4">
       <c r="A411" s="43"/>
       <c r="B411" s="43"/>
       <c r="D411">
         <v>10000</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4">
       <c r="A412" s="43"/>
       <c r="B412" s="43"/>
       <c r="D412">
         <v>10000</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4">
       <c r="A413" s="43"/>
       <c r="B413" s="43"/>
       <c r="D413">
         <v>10000</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4">
       <c r="A414" s="43"/>
       <c r="B414" s="43"/>
       <c r="D414">
         <v>10000</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4">
       <c r="A415" s="43"/>
       <c r="B415" s="43"/>
       <c r="D415">
         <v>10000</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4">
       <c r="A416" s="43"/>
       <c r="B416" s="43"/>
       <c r="D416">
         <v>10000</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4">
       <c r="A417" s="43"/>
       <c r="B417" s="43"/>
       <c r="D417">
         <v>10000</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4">
       <c r="A418" s="43"/>
       <c r="B418" s="43"/>
       <c r="D418">
         <v>10000</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4">
       <c r="A419" s="43"/>
       <c r="B419" s="43"/>
       <c r="D419">
         <v>10000</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4">
       <c r="A420" s="43"/>
       <c r="B420" s="43"/>
       <c r="D420">
         <v>10000</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4">
       <c r="A421" s="43"/>
       <c r="B421" s="43"/>
       <c r="D421">
         <v>10000</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4">
       <c r="A422" s="43"/>
       <c r="B422" s="43"/>
       <c r="D422">
         <v>10000</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4">
       <c r="A423" s="43"/>
       <c r="B423" s="43"/>
       <c r="D423">
         <v>10000</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4">
       <c r="A424" s="43"/>
       <c r="B424" s="43"/>
       <c r="D424">
         <v>10000</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4">
       <c r="A425" s="43"/>
       <c r="B425" s="43"/>
       <c r="D425">
         <v>10000</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4">
       <c r="A426" s="43"/>
       <c r="B426" s="43"/>
       <c r="D426">
         <v>10000</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4">
       <c r="A427" s="43"/>
       <c r="B427" s="43"/>
       <c r="D427">
         <v>10000</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4">
       <c r="A428" s="43"/>
       <c r="B428" s="43"/>
       <c r="D428">
         <v>10000</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4">
       <c r="A429" s="43"/>
       <c r="B429" s="43"/>
       <c r="D429">
         <v>10000</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4">
       <c r="A430" s="43"/>
       <c r="B430" s="43"/>
       <c r="D430">
         <v>10000</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4">
       <c r="A431" s="43"/>
       <c r="B431" s="43"/>
       <c r="D431">
         <v>10000</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4">
       <c r="A432" s="43"/>
       <c r="B432" s="43"/>
       <c r="D432">
         <v>10000</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4">
       <c r="A433" s="43"/>
       <c r="B433" s="43"/>
       <c r="D433">
         <v>10000</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4">
       <c r="A434" s="43"/>
       <c r="B434" s="43"/>
       <c r="D434">
         <v>10000</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4">
       <c r="A435" s="43"/>
       <c r="B435" s="43"/>
       <c r="D435">
         <v>10000</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4">
       <c r="A436" s="43"/>
       <c r="B436" s="43"/>
       <c r="D436">
         <v>10000</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4">
       <c r="A437" s="43"/>
       <c r="B437" s="43"/>
       <c r="D437">
         <v>10000</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4">
       <c r="A438" s="43"/>
       <c r="B438" s="43"/>
       <c r="D438">
         <v>10000</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4">
       <c r="A439" s="43"/>
       <c r="B439" s="43"/>
       <c r="D439">
         <v>10000</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4">
       <c r="A440" s="43"/>
       <c r="B440" s="43"/>
       <c r="D440">
         <v>10000</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4">
       <c r="A441" s="43"/>
       <c r="B441" s="43"/>
       <c r="D441">
         <v>10000</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4">
       <c r="A442" s="43"/>
       <c r="B442" s="43"/>
       <c r="D442">
         <v>10000</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4">
       <c r="A443" s="43"/>
       <c r="B443" s="43"/>
       <c r="D443">
         <v>10000</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4">
       <c r="A444" s="43"/>
       <c r="B444" s="43"/>
       <c r="D444">
         <v>10000</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4">
       <c r="A445" s="43"/>
       <c r="B445" s="43"/>
       <c r="D445">
         <v>10000</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4">
       <c r="A446" s="43"/>
       <c r="B446" s="43"/>
       <c r="D446">
         <v>10000</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4">
       <c r="A447" s="43"/>
       <c r="B447" s="43"/>
       <c r="D447">
         <v>10000</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4">
       <c r="A448" s="43"/>
       <c r="B448" s="43"/>
       <c r="D448">
         <v>10000</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4">
       <c r="A449" s="43"/>
       <c r="B449" s="43"/>
       <c r="D449">
         <v>10000</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4">
       <c r="A450" s="43"/>
       <c r="B450" s="43"/>
       <c r="D450">
         <v>10000</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4">
       <c r="A451" s="43"/>
       <c r="B451" s="43"/>
       <c r="D451">
         <v>10000</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4">
       <c r="A452" s="43"/>
       <c r="B452" s="43"/>
       <c r="D452">
         <v>10000</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4">
       <c r="A453" s="43"/>
       <c r="B453" s="43"/>
       <c r="D453">
         <v>10000</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4">
       <c r="A454" s="43"/>
       <c r="B454" s="43"/>
       <c r="D454">
         <v>10000</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4">
       <c r="A455" s="43"/>
       <c r="B455" s="43"/>
       <c r="D455">
         <v>10000</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4">
       <c r="A456" s="43"/>
       <c r="B456" s="43"/>
       <c r="D456">
         <v>10000</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4">
       <c r="A457" s="43"/>
       <c r="B457" s="43"/>
       <c r="D457">
         <v>10000</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4">
       <c r="A458" s="43"/>
       <c r="B458" s="43"/>
       <c r="D458">
         <v>10000</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4">
       <c r="A459" s="43"/>
       <c r="B459" s="43"/>
       <c r="D459">
         <v>10000</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4">
       <c r="A460" s="43"/>
       <c r="B460" s="43"/>
       <c r="D460">
         <v>10000</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4">
       <c r="A461" s="43"/>
       <c r="B461" s="43"/>
       <c r="D461">
         <v>10000</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4">
       <c r="A462" s="43"/>
       <c r="B462" s="43"/>
       <c r="D462">
         <v>10000</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4">
       <c r="A463" s="43"/>
       <c r="B463" s="43"/>
       <c r="D463">
         <v>10000</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4">
       <c r="A464" s="43"/>
       <c r="B464" s="43"/>
       <c r="D464">
         <v>10000</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4">
       <c r="A465" s="43"/>
       <c r="B465" s="43"/>
       <c r="D465">
         <v>10000</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4">
       <c r="A466" s="43"/>
       <c r="B466" s="43"/>
       <c r="D466">
         <v>10000</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4">
       <c r="A467" s="43"/>
       <c r="B467" s="43"/>
       <c r="D467">
         <v>10000</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4">
       <c r="A468" s="43"/>
       <c r="B468" s="43"/>
       <c r="D468">
         <v>10000</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4">
       <c r="A469" s="43"/>
       <c r="B469" s="43"/>
       <c r="D469">
         <v>10000</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4">
       <c r="A470" s="43"/>
       <c r="B470" s="43"/>
       <c r="D470">
         <v>10000</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4">
       <c r="A471" s="43"/>
       <c r="B471" s="43"/>
       <c r="D471">
         <v>10000</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4">
       <c r="A472" s="43"/>
       <c r="B472" s="43"/>
       <c r="D472">
         <v>10000</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4">
       <c r="A473" s="43"/>
       <c r="B473" s="43"/>
       <c r="D473">
         <v>10000</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4">
       <c r="A474" s="43"/>
       <c r="B474" s="43"/>
       <c r="D474">
         <v>10000</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4">
       <c r="A475" s="43"/>
       <c r="B475" s="43"/>
       <c r="D475">
         <v>10000</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4">
       <c r="A476" s="43"/>
       <c r="B476" s="43"/>
       <c r="D476">
         <v>10000</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4">
       <c r="A477" s="43"/>
       <c r="B477" s="43"/>
       <c r="D477">
         <v>10000</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4">
       <c r="A478" s="43"/>
       <c r="B478" s="43"/>
       <c r="D478">
         <v>10000</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4">
       <c r="A479" s="43"/>
       <c r="B479" s="43"/>
       <c r="D479">
         <v>10000</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4">
       <c r="A480" s="43"/>
       <c r="B480" s="43"/>
       <c r="D480">
         <v>10000</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4">
       <c r="A481" s="43"/>
       <c r="B481" s="43"/>
       <c r="D481">
         <v>10000</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4">
       <c r="A482" s="43"/>
       <c r="B482" s="43"/>
       <c r="D482">
         <v>10000</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4">
       <c r="A483" s="43"/>
       <c r="B483" s="43"/>
       <c r="D483">
         <v>10000</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4">
       <c r="A484" s="43"/>
       <c r="B484" s="43"/>
       <c r="D484">
         <v>10000</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4">
       <c r="A485" s="43"/>
       <c r="B485" s="43"/>
       <c r="D485">
         <v>10000</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4">
       <c r="A486" s="43"/>
       <c r="B486" s="43"/>
       <c r="D486">
         <v>10000</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4">
       <c r="A487" s="43"/>
       <c r="B487" s="43"/>
       <c r="D487">
         <v>10000</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4">
       <c r="A488" s="43"/>
       <c r="B488" s="43"/>
       <c r="D488">
         <v>10000</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4">
       <c r="A489" s="43"/>
       <c r="B489" s="43"/>
       <c r="D489">
         <v>10000</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4">
       <c r="A490" s="43"/>
       <c r="B490" s="43"/>
       <c r="D490">
         <v>10000</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4">
       <c r="A491" s="43"/>
       <c r="B491" s="43"/>
       <c r="D491">
         <v>10000</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4">
       <c r="A492" s="43"/>
       <c r="B492" s="43"/>
       <c r="D492">
         <v>10000</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4">
       <c r="A493" s="43"/>
       <c r="B493" s="43"/>
       <c r="D493">
         <v>10000</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4">
       <c r="A494" s="43"/>
       <c r="B494" s="43"/>
       <c r="D494">
         <v>10000</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4">
       <c r="A495" s="43"/>
       <c r="B495" s="43"/>
       <c r="D495">
         <v>10000</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4">
       <c r="A496" s="43"/>
       <c r="B496" s="43"/>
       <c r="D496">
         <v>10000</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4">
       <c r="A497" s="43"/>
       <c r="B497" s="43"/>
       <c r="D497">
         <v>10000</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4">
       <c r="A498" s="43"/>
       <c r="B498" s="43"/>
       <c r="D498">
         <v>10000</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4">
       <c r="A499" s="43"/>
       <c r="B499" s="43"/>
       <c r="D499">
         <v>10000</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4">
       <c r="A500" s="43"/>
       <c r="B500" s="43"/>
       <c r="D500">
         <v>10000</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4">
       <c r="A501" s="43"/>
       <c r="B501" s="43"/>
       <c r="D501">
         <v>10000</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4">
       <c r="A502" s="43"/>
       <c r="B502" s="43"/>
       <c r="D502">
         <v>10000</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4">
       <c r="A503" s="43"/>
       <c r="B503" s="43"/>
       <c r="D503">
         <v>10000</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4">
       <c r="A504" s="43"/>
       <c r="B504" s="43"/>
       <c r="D504">
         <v>10000</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4">
       <c r="A505" s="43"/>
       <c r="B505" s="43"/>
       <c r="D505">
         <v>10000</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4">
       <c r="A506" s="43"/>
       <c r="B506" s="43"/>
       <c r="D506">
         <v>10000</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4">
       <c r="A507" s="43"/>
       <c r="B507" s="43"/>
       <c r="D507">
         <v>10000</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4">
       <c r="A508" s="43"/>
       <c r="B508" s="43"/>
       <c r="D508">
         <v>10000</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4">
       <c r="A509" s="43"/>
       <c r="B509" s="43"/>
       <c r="D509">
         <v>10000</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4">
       <c r="A510" s="43"/>
       <c r="B510" s="43"/>
       <c r="D510">
         <v>10000</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4">
       <c r="A511" s="43"/>
       <c r="B511" s="43"/>
       <c r="D511">
         <v>10000</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4">
       <c r="A512" s="43"/>
       <c r="B512" s="43"/>
       <c r="D512">
         <v>10000</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4">
       <c r="A513" s="43"/>
       <c r="B513" s="43"/>
       <c r="D513">
         <v>10000</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4">
       <c r="A514" s="43"/>
       <c r="B514" s="43"/>
       <c r="D514">
         <v>10000</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4">
       <c r="A515" s="43"/>
       <c r="B515" s="43"/>
       <c r="D515">
         <v>10000</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4">
       <c r="A516" s="43"/>
       <c r="B516" s="43"/>
       <c r="D516">
         <v>10000</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4">
       <c r="A517" s="43"/>
       <c r="B517" s="43"/>
       <c r="D517">
         <v>10000</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4">
       <c r="A518" s="43"/>
       <c r="B518" s="43"/>
       <c r="D518">
         <v>10000</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4">
       <c r="A519" s="43"/>
       <c r="B519" s="43"/>
       <c r="D519">
         <v>10000</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4">
       <c r="A520" s="43"/>
       <c r="B520" s="43"/>
       <c r="D520">
         <v>10000</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4">
       <c r="A521" s="43"/>
       <c r="B521" s="43"/>
       <c r="D521">
         <v>10000</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4">
       <c r="A522" s="43"/>
       <c r="B522" s="43"/>
       <c r="D522">
         <v>10000</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4">
       <c r="A523" s="43"/>
       <c r="B523" s="43"/>
       <c r="D523">
         <v>10000</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4">
       <c r="A524" s="43"/>
       <c r="B524" s="43"/>
       <c r="D524">
         <v>10000</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4">
       <c r="A525" s="43"/>
       <c r="B525" s="43"/>
       <c r="D525">
         <v>10000</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4">
       <c r="A526" s="43"/>
       <c r="B526" s="43"/>
       <c r="D526">
         <v>10000</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4">
       <c r="A527" s="43"/>
       <c r="B527" s="43"/>
       <c r="D527">
         <v>10000</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4">
       <c r="A528" s="43"/>
       <c r="B528" s="43"/>
       <c r="D528">
         <v>10000</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4">
       <c r="A529" s="43"/>
       <c r="B529" s="43"/>
       <c r="D529">
         <v>10000</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4">
       <c r="A530" s="43"/>
       <c r="B530" s="43"/>
       <c r="D530">
         <v>10000</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4">
       <c r="A531" s="43"/>
       <c r="B531" s="43"/>
       <c r="D531">
         <v>10000</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4">
       <c r="A532" s="43"/>
       <c r="B532" s="43"/>
       <c r="D532">
         <v>10000</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4">
       <c r="A533" s="43"/>
       <c r="B533" s="43"/>
       <c r="D533">
         <v>10000</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4">
       <c r="A534" s="43"/>
       <c r="B534" s="43"/>
       <c r="D534">
         <v>10000</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4">
       <c r="A535" s="43"/>
       <c r="B535" s="43"/>
       <c r="D535">
         <v>10000</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4">
       <c r="A536" s="43"/>
       <c r="B536" s="43"/>
       <c r="D536">
         <v>10000</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4">
       <c r="A537" s="43"/>
       <c r="B537" s="43"/>
       <c r="D537">
         <v>10000</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4">
       <c r="A538" s="43"/>
       <c r="B538" s="43"/>
       <c r="D538">
         <v>10000</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4">
       <c r="A539" s="43"/>
       <c r="B539" s="43"/>
       <c r="D539">
         <v>10000</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4">
       <c r="A540" s="43"/>
       <c r="B540" s="43"/>
       <c r="D540">
         <v>10000</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4">
       <c r="A541" s="43"/>
       <c r="B541" s="43"/>
       <c r="D541">
         <v>10000</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4">
       <c r="A542" s="43"/>
       <c r="B542" s="43"/>
       <c r="D542">
         <v>10000</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4">
       <c r="A543" s="43"/>
       <c r="B543" s="43"/>
       <c r="D543">
         <v>10000</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4">
       <c r="A544" s="43"/>
       <c r="B544" s="43"/>
       <c r="D544">
         <v>10000</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4">
       <c r="A545" s="43"/>
       <c r="B545" s="43"/>
       <c r="D545">
         <v>10000</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4">
       <c r="A546" s="43"/>
       <c r="B546" s="43"/>
       <c r="D546">
         <v>10000</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4">
       <c r="A547" s="43"/>
       <c r="B547" s="43"/>
       <c r="D547">
         <v>10000</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4">
       <c r="A548" s="43"/>
       <c r="B548" s="43"/>
       <c r="D548">
         <v>10000</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4">
       <c r="A549" s="43"/>
       <c r="B549" s="43"/>
       <c r="D549">
         <v>10000</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4">
       <c r="A550" s="43"/>
       <c r="B550" s="43"/>
       <c r="D550">
         <v>10000</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4">
       <c r="A551" s="43"/>
       <c r="B551" s="43"/>
       <c r="D551">
         <v>10000</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4">
       <c r="A552" s="43"/>
       <c r="B552" s="43"/>
       <c r="D552">
         <v>10000</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4">
       <c r="A553" s="43"/>
       <c r="B553" s="43"/>
       <c r="D553">
         <v>10000</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4">
       <c r="A554" s="43"/>
       <c r="B554" s="43"/>
       <c r="D554">
         <v>10000</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4">
       <c r="A555" s="43"/>
       <c r="B555" s="43"/>
       <c r="D555">
         <v>10000</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4">
       <c r="A556" s="43"/>
       <c r="B556" s="43"/>
       <c r="D556">
         <v>10000</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4">
       <c r="A557" s="43"/>
       <c r="B557" s="43"/>
       <c r="D557">
         <v>10000</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4">
       <c r="A558" s="43"/>
       <c r="B558" s="43"/>
       <c r="D558">
         <v>10000</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4">
       <c r="A559" s="43"/>
       <c r="B559" s="43"/>
       <c r="D559">
         <v>10000</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4">
       <c r="A560" s="43"/>
       <c r="B560" s="43"/>
       <c r="D560">
         <v>10000</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:4">
       <c r="A561" s="43"/>
       <c r="B561" s="43"/>
       <c r="D561">
         <v>10000</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4">
       <c r="A562" s="43"/>
       <c r="B562" s="43"/>
       <c r="D562">
         <v>10000</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4">
       <c r="A563" s="43"/>
       <c r="B563" s="43"/>
       <c r="D563">
         <v>10000</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4">
       <c r="A564" s="43"/>
       <c r="B564" s="43"/>
       <c r="D564">
         <v>10000</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4">
       <c r="A565" s="43"/>
       <c r="B565" s="43"/>
       <c r="D565">
         <v>10000</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4">
       <c r="A566" s="43"/>
       <c r="B566" s="43"/>
       <c r="D566">
         <v>10000</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:4">
       <c r="A567" s="43"/>
       <c r="B567" s="43"/>
       <c r="D567">
         <v>10000</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4">
       <c r="A568" s="43"/>
       <c r="B568" s="43"/>
       <c r="D568">
         <v>10000</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4">
       <c r="A569" s="43"/>
       <c r="B569" s="43"/>
       <c r="D569">
         <v>10000</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4">
       <c r="A570" s="43"/>
       <c r="B570" s="43"/>
       <c r="D570">
         <v>10000</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4">
       <c r="A571" s="43"/>
       <c r="B571" s="43"/>
       <c r="D571">
         <v>10000</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4">
       <c r="A572" s="43"/>
       <c r="B572" s="43"/>
       <c r="D572">
         <v>10000</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4">
       <c r="A573" s="43"/>
       <c r="B573" s="43"/>
       <c r="D573">
         <v>10000</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4">
       <c r="A574" s="43"/>
       <c r="B574" s="43"/>
       <c r="D574">
         <v>10000</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4">
       <c r="A575" s="43"/>
       <c r="B575" s="43"/>
       <c r="D575">
         <v>10000</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4">
       <c r="A576" s="43"/>
       <c r="B576" s="43"/>
       <c r="D576">
         <v>10000</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4">
       <c r="A577" s="43"/>
       <c r="B577" s="43"/>
       <c r="D577">
         <v>10000</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4">
       <c r="A578" s="43"/>
       <c r="B578" s="43"/>
       <c r="D578">
         <v>10000</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4">
       <c r="A579" s="43"/>
       <c r="B579" s="43"/>
       <c r="D579">
         <v>10000</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4">
       <c r="A580" s="43"/>
       <c r="B580" s="43"/>
       <c r="D580">
         <v>10000</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4">
       <c r="A581" s="43"/>
       <c r="B581" s="43"/>
       <c r="D581">
         <v>10000</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4">
       <c r="A582" s="43"/>
       <c r="B582" s="43"/>
       <c r="D582">
         <v>10000</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4">
       <c r="A583" s="43"/>
       <c r="B583" s="43"/>
       <c r="D583">
         <v>10000</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4">
       <c r="A584" s="43"/>
       <c r="B584" s="43"/>
       <c r="D584">
         <v>10000</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4">
       <c r="A585" s="43"/>
       <c r="B585" s="43"/>
       <c r="D585">
         <v>10000</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4">
       <c r="A586" s="43"/>
       <c r="B586" s="43"/>
       <c r="D586">
         <v>10000</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4">
       <c r="A587" s="43"/>
       <c r="B587" s="43"/>
       <c r="D587">
         <v>10000</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4">
       <c r="A588" s="43"/>
       <c r="B588" s="43"/>
       <c r="D588">
         <v>10000</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4">
       <c r="A589" s="43"/>
       <c r="B589" s="43"/>
       <c r="D589">
         <v>10000</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4">
       <c r="A590" s="43"/>
       <c r="B590" s="43"/>
       <c r="D590">
         <v>10000</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4">
       <c r="A591" s="43"/>
       <c r="B591" s="43"/>
       <c r="D591">
         <v>10000</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4">
       <c r="A592" s="43"/>
       <c r="B592" s="43"/>
       <c r="D592">
         <v>10000</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4">
       <c r="A593" s="43"/>
       <c r="B593" s="43"/>
       <c r="D593">
         <v>10000</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4">
       <c r="A594" s="43"/>
       <c r="B594" s="43"/>
       <c r="D594">
         <v>10000</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4">
       <c r="A595" s="43"/>
       <c r="B595" s="43"/>
       <c r="D595">
         <v>10000</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4">
       <c r="A596" s="43"/>
       <c r="B596" s="43"/>
       <c r="D596">
         <v>10000</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4">
       <c r="A597" s="43"/>
       <c r="B597" s="43"/>
       <c r="D597">
         <v>10000</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4">
       <c r="A598" s="43"/>
       <c r="B598" s="43"/>
       <c r="D598">
         <v>10000</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4">
       <c r="A599" s="43"/>
       <c r="B599" s="43"/>
       <c r="D599">
         <v>10000</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4">
       <c r="A600" s="43"/>
       <c r="B600" s="43"/>
       <c r="D600">
         <v>10000</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4">
       <c r="A601" s="43"/>
       <c r="B601" s="43"/>
       <c r="D601">
         <v>10000</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4">
       <c r="A602" s="43"/>
       <c r="B602" s="43"/>
       <c r="D602">
         <v>10000</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4">
       <c r="A603" s="43"/>
       <c r="B603" s="43"/>
       <c r="D603">
         <v>10000</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4">
       <c r="A604" s="43"/>
       <c r="B604" s="43"/>
       <c r="D604">
         <v>10000</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4">
       <c r="A605" s="43"/>
       <c r="B605" s="43"/>
       <c r="D605">
         <v>10000</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4">
       <c r="A606" s="43"/>
       <c r="B606" s="43"/>
       <c r="D606">
         <v>10000</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4">
       <c r="A607" s="43"/>
       <c r="B607" s="43"/>
       <c r="D607">
         <v>10000</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4">
       <c r="A608" s="43"/>
       <c r="B608" s="43"/>
       <c r="D608">
         <v>10000</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:4">
       <c r="A609" s="43"/>
       <c r="B609" s="43"/>
       <c r="D609">
         <v>10000</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:4">
       <c r="A610" s="43"/>
       <c r="B610" s="43"/>
       <c r="D610">
         <v>10000</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:4">
       <c r="A611" s="43"/>
       <c r="B611" s="43"/>
       <c r="D611">
         <v>10000</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:4">
       <c r="A612" s="43"/>
       <c r="B612" s="43"/>
       <c r="D612">
         <v>10000</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:4">
       <c r="A613" s="43"/>
       <c r="B613" s="43"/>
       <c r="D613">
         <v>10000</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:4">
       <c r="A614" s="43"/>
       <c r="B614" s="43"/>
       <c r="D614">
         <v>10000</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:4">
       <c r="A615" s="43"/>
       <c r="B615" s="43"/>
       <c r="D615">
         <v>10000</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:4">
       <c r="A616" s="43"/>
       <c r="B616" s="43"/>
       <c r="D616">
         <v>10000</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:4">
       <c r="A617" s="43"/>
       <c r="B617" s="43"/>
       <c r="D617">
         <v>10000</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:4">
       <c r="A618" s="43"/>
       <c r="B618" s="43"/>
       <c r="D618">
         <v>10000</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:4">
       <c r="A619" s="43"/>
       <c r="B619" s="43"/>
       <c r="D619">
         <v>10000</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:4">
       <c r="A620" s="43"/>
       <c r="B620" s="43"/>
       <c r="D620">
         <v>10000</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:4">
       <c r="A621" s="43"/>
       <c r="B621" s="43"/>
       <c r="D621">
         <v>10000</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:4">
       <c r="A622" s="43"/>
       <c r="B622" s="43"/>
       <c r="D622">
         <v>10000</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:4">
       <c r="A623" s="43"/>
       <c r="B623" s="43"/>
       <c r="D623">
         <v>10000</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:4">
       <c r="A624" s="43"/>
       <c r="B624" s="43"/>
       <c r="D624">
         <v>10000</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4">
       <c r="A625" s="43"/>
       <c r="B625" s="43"/>
       <c r="D625">
         <v>10000</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4">
       <c r="A626" s="43"/>
       <c r="B626" s="43"/>
       <c r="D626">
         <v>10000</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4">
       <c r="A627" s="43"/>
       <c r="B627" s="43"/>
       <c r="D627">
         <v>10000</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4">
       <c r="A628" s="43"/>
       <c r="B628" s="43"/>
       <c r="D628">
         <v>10000</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4">
       <c r="A629" s="43"/>
       <c r="B629" s="43"/>
       <c r="D629">
         <v>10000</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4">
       <c r="A630" s="43"/>
       <c r="B630" s="43"/>
       <c r="D630">
         <v>10000</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4">
       <c r="A631" s="43"/>
       <c r="B631" s="43"/>
       <c r="D631">
         <v>10000</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4">
       <c r="A632" s="43"/>
       <c r="B632" s="43"/>
       <c r="D632">
         <v>10000</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4">
       <c r="A633" s="43"/>
       <c r="B633" s="43"/>
       <c r="D633">
         <v>10000</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4">
       <c r="A634" s="43"/>
       <c r="B634" s="43"/>
       <c r="D634">
         <v>10000</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4">
       <c r="A635" s="43"/>
       <c r="B635" s="43"/>
       <c r="D635">
         <v>10000</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4">
       <c r="A636" s="43"/>
       <c r="B636" s="43"/>
       <c r="D636">
         <v>10000</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4">
       <c r="A637" s="43"/>
       <c r="B637" s="43"/>
       <c r="D637">
         <v>10000</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4">
       <c r="A638" s="43"/>
       <c r="B638" s="43"/>
       <c r="D638">
         <v>10000</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4">
       <c r="A639" s="43"/>
       <c r="B639" s="43"/>
       <c r="D639">
         <v>10000</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:4">
       <c r="A640" s="43"/>
       <c r="B640" s="43"/>
       <c r="D640">
         <v>10000</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:4">
       <c r="A641" s="43"/>
       <c r="B641" s="43"/>
       <c r="D641">
         <v>10000</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:4">
       <c r="A642" s="43"/>
       <c r="B642" s="43"/>
       <c r="D642">
         <v>10000</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:4">
       <c r="A643" s="43"/>
       <c r="B643" s="43"/>
       <c r="D643">
         <v>10000</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:4">
       <c r="A644" s="43"/>
       <c r="B644" s="43"/>
       <c r="D644">
         <v>10000</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:4">
       <c r="A645" s="43"/>
       <c r="B645" s="43"/>
       <c r="D645">
         <v>10000</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:4">
       <c r="A646" s="43"/>
       <c r="B646" s="43"/>
       <c r="D646">
         <v>10000</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:4">
       <c r="A647" s="43"/>
       <c r="B647" s="43"/>
       <c r="D647">
         <v>10000</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:4">
       <c r="A648" s="43"/>
       <c r="B648" s="43"/>
       <c r="D648">
         <v>10000</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:4">
       <c r="A649" s="43"/>
       <c r="B649" s="43"/>
       <c r="D649">
         <v>10000</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:4">
       <c r="A650" s="43"/>
       <c r="B650" s="43"/>
       <c r="D650">
         <v>10000</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:4">
       <c r="A651" s="43"/>
       <c r="B651" s="43"/>
       <c r="D651">
         <v>10000</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:4">
       <c r="A652" s="43"/>
       <c r="B652" s="43"/>
       <c r="D652">
         <v>10000</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:4">
       <c r="A653" s="43"/>
       <c r="B653" s="43"/>
       <c r="D653">
         <v>10000</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:4">
       <c r="A654" s="43"/>
       <c r="B654" s="43"/>
       <c r="D654">
         <v>10000</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:4">
       <c r="A655" s="43"/>
       <c r="B655" s="43"/>
       <c r="D655">
         <v>10000</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:4">
       <c r="A656" s="43"/>
       <c r="B656" s="43"/>
       <c r="D656">
         <v>10000</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:4">
       <c r="A657" s="43"/>
       <c r="B657" s="43"/>
       <c r="D657">
         <v>10000</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:4">
       <c r="A658" s="43"/>
       <c r="B658" s="43"/>
       <c r="D658">
         <v>10000</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:4">
       <c r="A659" s="43"/>
       <c r="B659" s="43"/>
       <c r="D659">
         <v>10000</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:4">
       <c r="A660" s="43"/>
       <c r="B660" s="43"/>
       <c r="D660">
         <v>10000</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:4">
       <c r="A661" s="43"/>
       <c r="B661" s="43"/>
       <c r="D661">
         <v>10000</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:4">
       <c r="A662" s="43"/>
       <c r="B662" s="43"/>
       <c r="D662">
         <v>10000</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:4">
       <c r="A663" s="43"/>
       <c r="B663" s="43"/>
       <c r="D663">
         <v>10000</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:4">
       <c r="A664" s="43"/>
       <c r="B664" s="43"/>
       <c r="D664">
         <v>10000</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:4">
       <c r="A665" s="43"/>
       <c r="B665" s="43"/>
       <c r="D665">
         <v>10000</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:4">
       <c r="A666" s="43"/>
       <c r="B666" s="43"/>
       <c r="D666">
         <v>10000</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:4">
       <c r="A667" s="43"/>
       <c r="B667" s="43"/>
       <c r="D667">
         <v>10000</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:4">
       <c r="A668" s="43"/>
       <c r="B668" s="43"/>
       <c r="D668">
         <v>10000</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:4">
       <c r="A669" s="43"/>
       <c r="B669" s="43"/>
       <c r="D669">
         <v>10000</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:4">
       <c r="A670" s="43"/>
       <c r="B670" s="43"/>
       <c r="D670">
         <v>10000</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:4">
       <c r="A671" s="43"/>
       <c r="B671" s="43"/>
       <c r="D671">
         <v>10000</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:4">
       <c r="A672" s="43"/>
       <c r="B672" s="43"/>
       <c r="D672">
         <v>10000</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:4">
       <c r="A673" s="43"/>
       <c r="B673" s="43"/>
       <c r="D673">
         <v>10000</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:4">
       <c r="A674" s="43"/>
       <c r="B674" s="43"/>
       <c r="D674">
         <v>10000</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:4">
       <c r="A675" s="43"/>
       <c r="B675" s="43"/>
       <c r="D675">
         <v>10000</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:4">
       <c r="A676" s="43"/>
       <c r="B676" s="43"/>
       <c r="D676">
         <v>10000</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:4">
       <c r="A677" s="43"/>
       <c r="B677" s="43"/>
       <c r="D677">
         <v>10000</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:4">
       <c r="A678" s="43"/>
       <c r="B678" s="43"/>
       <c r="D678">
         <v>10000</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:4">
       <c r="A679" s="43"/>
       <c r="B679" s="43"/>
       <c r="D679">
         <v>10000</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:4">
       <c r="A680" s="43"/>
       <c r="B680" s="43"/>
       <c r="D680">
         <v>10000</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:4">
       <c r="A681" s="43"/>
       <c r="B681" s="43"/>
       <c r="D681">
         <v>10000</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:4">
       <c r="A682" s="43"/>
       <c r="B682" s="43"/>
       <c r="D682">
         <v>10000</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:4">
       <c r="A683" s="43"/>
       <c r="B683" s="43"/>
       <c r="D683">
         <v>10000</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:4">
       <c r="A684" s="43"/>
       <c r="B684" s="43"/>
       <c r="D684">
         <v>10000</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:4">
       <c r="A685" s="43"/>
       <c r="B685" s="43"/>
       <c r="D685">
         <v>10000</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:4">
       <c r="A686" s="43"/>
       <c r="B686" s="43"/>
       <c r="D686">
         <v>10000</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:4">
       <c r="A687" s="43"/>
       <c r="B687" s="43"/>
       <c r="D687">
         <v>10000</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:4">
       <c r="A688" s="43"/>
       <c r="B688" s="43"/>
       <c r="D688">
         <v>10000</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:4">
       <c r="A689" s="43"/>
       <c r="B689" s="43"/>
       <c r="D689">
         <v>10000</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:4">
       <c r="A690" s="43"/>
       <c r="B690" s="43"/>
       <c r="D690">
         <v>10000</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:4">
       <c r="A691" s="43"/>
       <c r="B691" s="43"/>
       <c r="D691">
         <v>10000</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:4">
       <c r="A692" s="43"/>
       <c r="B692" s="43"/>
       <c r="D692">
         <v>10000</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:4">
       <c r="A693" s="43"/>
       <c r="B693" s="43"/>
       <c r="D693">
         <v>10000</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:4">
       <c r="A694" s="43"/>
       <c r="B694" s="43"/>
       <c r="D694">
         <v>10000</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:4">
       <c r="A695" s="43"/>
       <c r="B695" s="43"/>
       <c r="D695">
         <v>10000</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:4">
       <c r="A696" s="43"/>
       <c r="B696" s="43"/>
       <c r="D696">
         <v>10000</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:4">
       <c r="A697" s="43"/>
       <c r="B697" s="43"/>
       <c r="D697">
         <v>10000</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:4">
       <c r="A698" s="43"/>
       <c r="B698" s="43"/>
       <c r="D698">
         <v>10000</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:4">
       <c r="A699" s="43"/>
       <c r="B699" s="43"/>
       <c r="D699">
         <v>10000</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:4">
       <c r="A700" s="43"/>
       <c r="B700" s="43"/>
       <c r="D700">
         <v>10000</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:4">
       <c r="A701" s="43"/>
       <c r="B701" s="43"/>
       <c r="D701">
         <v>10000</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:4">
       <c r="A702" s="43"/>
       <c r="B702" s="43"/>
       <c r="D702">
         <v>10000</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:4">
       <c r="A703" s="43"/>
       <c r="B703" s="43"/>
       <c r="D703">
         <v>10000</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:4">
       <c r="A704" s="43"/>
       <c r="B704" s="43"/>
       <c r="D704">
         <v>10000</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:4">
       <c r="A705" s="43"/>
       <c r="B705" s="43"/>
       <c r="D705">
         <v>10000</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:4">
       <c r="A706" s="43"/>
       <c r="B706" s="43"/>
       <c r="D706">
         <v>10000</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:4">
       <c r="A707" s="43"/>
       <c r="B707" s="43"/>
       <c r="D707">
         <v>10000</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:4">
       <c r="A708" s="43"/>
       <c r="B708" s="43"/>
       <c r="D708">
         <v>10000</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:4">
       <c r="A709" s="43"/>
       <c r="B709" s="43"/>
       <c r="D709">
         <v>10000</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:4">
       <c r="A710" s="43"/>
       <c r="B710" s="43"/>
       <c r="D710">
         <v>10000</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:4">
       <c r="A711" s="43"/>
       <c r="B711" s="43"/>
       <c r="D711">
         <v>10000</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:4">
       <c r="A712" s="43"/>
       <c r="B712" s="43"/>
       <c r="D712">
         <v>10000</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:4">
       <c r="A713" s="43"/>
       <c r="B713" s="43"/>
       <c r="D713">
         <v>10000</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:4">
       <c r="A714" s="43"/>
       <c r="B714" s="43"/>
       <c r="D714">
         <v>10000</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:4">
       <c r="A715" s="43"/>
       <c r="B715" s="43"/>
       <c r="D715">
         <v>10000</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:4">
       <c r="A716" s="43"/>
       <c r="B716" s="43"/>
       <c r="D716">
         <v>10000</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:4">
       <c r="A717" s="43"/>
       <c r="B717" s="43"/>
       <c r="D717">
         <v>10000</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:4">
       <c r="A718" s="43"/>
       <c r="B718" s="43"/>
       <c r="D718">
         <v>10000</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:4">
       <c r="A719" s="43"/>
       <c r="B719" s="43"/>
       <c r="D719">
         <v>10000</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:4">
       <c r="A720" s="43"/>
       <c r="B720" s="43"/>
       <c r="D720">
         <v>10000</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:4">
       <c r="A721" s="43"/>
       <c r="B721" s="43"/>
       <c r="D721">
         <v>10000</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:4">
       <c r="A722" s="43"/>
       <c r="B722" s="43"/>
       <c r="D722">
         <v>10000</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:4">
       <c r="A723" s="43"/>
       <c r="B723" s="43"/>
       <c r="D723">
         <v>10000</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:4">
       <c r="A724" s="43"/>
       <c r="B724" s="43"/>
       <c r="D724">
         <v>10000</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:4">
       <c r="A725" s="43"/>
       <c r="B725" s="43"/>
       <c r="D725">
         <v>10000</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:4">
       <c r="A726" s="43"/>
       <c r="B726" s="43"/>
       <c r="D726">
         <v>10000</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:4">
       <c r="A727" s="43"/>
       <c r="B727" s="43"/>
       <c r="D727">
         <v>10000</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:4">
       <c r="A728" s="43"/>
       <c r="B728" s="43"/>
       <c r="D728">
         <v>10000</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:4">
       <c r="A729" s="43"/>
       <c r="B729" s="43"/>
       <c r="D729">
         <v>10000</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:4">
       <c r="A730" s="43"/>
       <c r="B730" s="43"/>
       <c r="D730">
         <v>10000</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:4">
       <c r="A731" s="43"/>
       <c r="B731" s="43"/>
       <c r="D731">
         <v>10000</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:4">
       <c r="A732" s="43"/>
       <c r="B732" s="43"/>
       <c r="D732">
         <v>10000</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:4">
       <c r="A733" s="43"/>
       <c r="B733" s="43"/>
       <c r="D733">
         <v>10000</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:4">
       <c r="A734" s="43"/>
       <c r="B734" s="43"/>
       <c r="D734">
         <v>10000</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:4">
       <c r="A735" s="43"/>
       <c r="B735" s="43"/>
       <c r="D735">
         <v>10000</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:4">
       <c r="A736" s="43"/>
       <c r="B736" s="43"/>
       <c r="D736">
         <v>10000</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:4">
       <c r="A737" s="43"/>
       <c r="B737" s="43"/>
       <c r="D737">
         <v>10000</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:4">
       <c r="A738" s="43"/>
       <c r="B738" s="43"/>
       <c r="D738">
         <v>10000</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:4">
       <c r="A739" s="43"/>
       <c r="B739" s="43"/>
       <c r="D739">
         <v>10000</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:4">
       <c r="A740" s="43"/>
       <c r="B740" s="43"/>
       <c r="D740">
         <v>10000</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:4">
       <c r="A741" s="43"/>
       <c r="B741" s="43"/>
       <c r="D741">
         <v>10000</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:4">
       <c r="A742" s="43"/>
       <c r="B742" s="43"/>
       <c r="D742">
         <v>10000</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:4">
       <c r="A743" s="43"/>
       <c r="B743" s="43"/>
       <c r="D743">
         <v>10000</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:4">
       <c r="A744" s="43"/>
       <c r="B744" s="43"/>
       <c r="D744">
         <v>10000</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:4">
       <c r="A745" s="43"/>
       <c r="B745" s="43"/>
       <c r="D745">
         <v>10000</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:4">
       <c r="A746" s="43"/>
       <c r="B746" s="43"/>
       <c r="D746">
         <v>10000</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:4">
       <c r="A747" s="43"/>
       <c r="B747" s="43"/>
       <c r="D747">
         <v>10000</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:4">
       <c r="A748" s="43"/>
       <c r="B748" s="43"/>
       <c r="D748">
         <v>10000</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:4">
       <c r="A749" s="43"/>
       <c r="B749" s="43"/>
       <c r="D749">
         <v>10000</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:4">
       <c r="A750" s="43"/>
       <c r="B750" s="43"/>
       <c r="D750">
         <v>10000</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:4">
       <c r="A751" s="43"/>
       <c r="B751" s="43"/>
       <c r="D751">
         <v>10000</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:4">
       <c r="A752" s="43"/>
       <c r="B752" s="43"/>
       <c r="D752">
         <v>10000</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:4">
       <c r="A753" s="43"/>
       <c r="B753" s="43"/>
       <c r="D753">
         <v>10000</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:4">
       <c r="A754" s="43"/>
       <c r="B754" s="43"/>
       <c r="D754">
         <v>10000</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:4">
       <c r="A755" s="43"/>
       <c r="B755" s="43"/>
       <c r="D755">
         <v>10000</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:4">
       <c r="A756" s="43"/>
       <c r="B756" s="43"/>
       <c r="D756">
         <v>10000</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:4">
       <c r="A757" s="43"/>
       <c r="B757" s="43"/>
       <c r="D757">
         <v>10000</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:4">
       <c r="A758" s="43"/>
       <c r="B758" s="43"/>
       <c r="D758">
         <v>10000</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:4">
       <c r="A759" s="43"/>
       <c r="B759" s="43"/>
       <c r="D759">
         <v>10000</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:4">
       <c r="A760" s="43"/>
       <c r="B760" s="43"/>
       <c r="D760">
         <v>10000</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:4">
       <c r="A761" s="43"/>
       <c r="B761" s="43"/>
       <c r="D761">
         <v>10000</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:4">
       <c r="A762" s="43"/>
       <c r="B762" s="43"/>
       <c r="D762">
         <v>10000</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:4">
       <c r="A763" s="43"/>
       <c r="B763" s="43"/>
       <c r="D763">
         <v>10000</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:4">
       <c r="A764" s="43"/>
       <c r="B764" s="43"/>
       <c r="D764">
         <v>10000</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:4">
       <c r="A765" s="43"/>
       <c r="B765" s="43"/>
       <c r="D765">
         <v>10000</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:4">
       <c r="A766" s="43"/>
       <c r="B766" s="43"/>
       <c r="D766">
         <v>10000</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:4">
       <c r="A767" s="43"/>
       <c r="B767" s="43"/>
       <c r="D767">
         <v>10000</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:4">
       <c r="A768" s="43"/>
       <c r="B768" s="43"/>
       <c r="D768">
         <v>10000</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:4">
       <c r="A769" s="43"/>
       <c r="B769" s="43"/>
       <c r="D769">
         <v>10000</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:4">
       <c r="A770" s="43"/>
       <c r="B770" s="43"/>
       <c r="D770">
         <v>10000</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:4">
       <c r="A771" s="43"/>
       <c r="B771" s="43"/>
       <c r="D771">
         <v>10000</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:4">
       <c r="A772" s="43"/>
       <c r="B772" s="43"/>
       <c r="D772">
         <v>10000</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:4">
       <c r="A773" s="43"/>
       <c r="B773" s="43"/>
       <c r="D773">
         <v>10000</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:4">
       <c r="A774" s="43"/>
       <c r="B774" s="43"/>
       <c r="D774">
         <v>10000</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:4">
       <c r="A775" s="43"/>
       <c r="B775" s="43"/>
       <c r="D775">
         <v>10000</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:4">
       <c r="A776" s="43"/>
       <c r="B776" s="43"/>
       <c r="D776">
         <v>10000</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:4">
       <c r="A777" s="43"/>
       <c r="B777" s="43"/>
       <c r="D777">
         <v>10000</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:4">
       <c r="A778" s="43"/>
       <c r="B778" s="43"/>
       <c r="D778">
         <v>10000</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:4">
       <c r="A779" s="43"/>
       <c r="B779" s="43"/>
       <c r="D779">
         <v>10000</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:4">
       <c r="A780" s="43"/>
       <c r="B780" s="43"/>
       <c r="D780">
         <v>10000</v>
       </c>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:4">
       <c r="A781" s="43"/>
       <c r="B781" s="43"/>
       <c r="D781">
         <v>10000</v>
       </c>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:4">
       <c r="A782" s="43"/>
       <c r="B782" s="43"/>
       <c r="D782">
         <v>10000</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:4">
       <c r="A783" s="43"/>
       <c r="B783" s="43"/>
       <c r="D783">
         <v>10000</v>
       </c>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:4">
       <c r="A784" s="43"/>
       <c r="B784" s="43"/>
       <c r="D784">
         <v>10000</v>
       </c>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:4">
       <c r="A785" s="43"/>
       <c r="B785" s="43"/>
       <c r="D785">
         <v>10000</v>
       </c>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:4">
       <c r="A786" s="43"/>
       <c r="B786" s="43"/>
       <c r="D786">
         <v>10000</v>
       </c>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:4">
       <c r="A787" s="43"/>
       <c r="B787" s="43"/>
       <c r="D787">
         <v>10000</v>
       </c>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:4">
       <c r="A788" s="43"/>
       <c r="B788" s="43"/>
       <c r="D788">
         <v>10000</v>
       </c>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:4">
       <c r="A789" s="43"/>
       <c r="B789" s="43"/>
       <c r="D789">
         <v>10000</v>
       </c>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:4">
       <c r="A790" s="43"/>
       <c r="B790" s="43"/>
       <c r="D790">
         <v>10000</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:4">
       <c r="A791" s="43"/>
       <c r="B791" s="43"/>
       <c r="D791">
         <v>10000</v>
       </c>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:4">
       <c r="A792" s="43"/>
       <c r="B792" s="43"/>
       <c r="D792">
         <v>10000</v>
       </c>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:4">
       <c r="A793" s="43"/>
       <c r="B793" s="43"/>
       <c r="D793">
         <v>10000</v>
       </c>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:4">
       <c r="A794" s="43"/>
       <c r="B794" s="43"/>
       <c r="D794">
         <v>10000</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:4">
       <c r="A795" s="43"/>
       <c r="B795" s="43"/>
       <c r="D795">
         <v>10000</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:4">
       <c r="A796" s="43"/>
       <c r="B796" s="43"/>
       <c r="D796">
         <v>10000</v>
       </c>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:4">
       <c r="A797" s="43"/>
       <c r="B797" s="43"/>
       <c r="D797">
         <v>10000</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:4">
       <c r="A798" s="43"/>
       <c r="B798" s="43"/>
       <c r="D798">
         <v>10000</v>
       </c>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:4">
       <c r="A799" s="43"/>
       <c r="B799" s="43"/>
       <c r="D799">
         <v>10000</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:4">
       <c r="A800" s="43"/>
       <c r="B800" s="43"/>
       <c r="D800">
         <v>10000</v>
       </c>
     </row>
-    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:4">
       <c r="A801" s="43"/>
       <c r="B801" s="43"/>
       <c r="D801">

--- a/data_surveys.xlsx
+++ b/data_surveys.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
-  <workbookPr autoCompressPictures="false"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacobo Morales\piaproba\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70D41C1-9486-4F53-8A83-3093BFBC7A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IPAQ Short Form Scoring" sheetId="5" r:id="rId1"/>
@@ -17,9 +18,9 @@
     <sheet name="Registro de usuarios" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="true" localSheetId="0" name="_xlnm._FilterDatabase">'IPAQ Short Form Scoring'!$A$2:$AD$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'IPAQ Short Form Scoring'!$A$2:$AD$179</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="false"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -209,21 +210,21 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12"/>
       </rPr>
       <t>(ENTER RAW DATA HERE)</t>
     </r>
@@ -283,8 +284,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,13 +299,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -333,21 +334,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <u/>
       <sz val="10"/>
       <color indexed="8"/>
@@ -355,7 +356,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -398,19 +399,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.3999755851924192"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.5999938962981048"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.7999816888943144"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,7 +458,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -467,7 +468,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,17 +477,17 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -494,7 +495,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -503,18 +504,18 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -522,7 +523,7 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -532,20 +533,20 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -553,34 +554,34 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -588,11 +589,11 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -600,28 +601,28 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -630,23 +631,23 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,18 +656,18 @@
       <right/>
       <top/>
       <bottom style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,272 +703,272 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="false"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8" hidden="true"/>
-    <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="true"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
       <color rgb="FF538DD5"/>
@@ -990,7 +991,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1312,97 +1313,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="67" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="58" t="s">
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="45" t="s">
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="77" t="s">
         <v>58</v>
       </c>
       <c r="AB1" s="24"/>
     </row>
     <row r="2" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="69" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="75" t="s">
+      <c r="G2" s="73"/>
+      <c r="H2" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="64" t="s">
+      <c r="L2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="49" t="s">
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="50"/>
-      <c r="S2" s="49" t="s">
+      <c r="R2" s="63"/>
+      <c r="S2" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="50"/>
-      <c r="U2" s="55" t="s">
+      <c r="T2" s="63"/>
+      <c r="U2" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="49" t="s">
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="45"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="77"/>
       <c r="AB2" s="24"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
@@ -1415,83 +1416,83 @@
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="65" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="66"/>
-      <c r="N3" s="64" t="s">
+      <c r="M3" s="69"/>
+      <c r="N3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="45"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="77"/>
       <c r="AB3" s="24"/>
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="76" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="78" t="s">
+      <c r="M4" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="45"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="77"/>
       <c r="AB4" s="24"/>
       <c r="AK4" s="2"/>
     </row>
     <row r="5" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="17" t="s">
         <v>0</v>
       </c>
@@ -1513,56 +1514,56 @@
       <c r="H5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="73" t="s">
+      <c r="J5" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="73" t="s">
+      <c r="K5" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="R5" s="53" t="s">
+      <c r="L5" s="53"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="47" t="s">
+      <c r="S5" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="T5" s="53" t="s">
+      <c r="T5" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="47" t="s">
+      <c r="U5" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="51" t="s">
+      <c r="V5" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="51" t="s">
+      <c r="W5" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="X5" s="53" t="s">
+      <c r="X5" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="Y5" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="51" t="s">
+      <c r="Y5" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="AA5" s="45"/>
+      <c r="AA5" s="77"/>
       <c r="AB5" s="24"/>
       <c r="AK5" s="2"/>
     </row>
     <row r="6" spans="1:38" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="60"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="13" t="s">
         <v>40</v>
       </c>
@@ -1584,25 +1585,25 @@
       <c r="H6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="46"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="78"/>
       <c r="AB6" s="24"/>
       <c r="AK6" s="2"/>
     </row>
@@ -68745,18 +68746,15 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="Y2:Z4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="AA1:AA6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="U2:X4"/>
+    <mergeCell ref="Q1:Z1"/>
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="L2:P2"/>
@@ -68773,15 +68771,18 @@
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="AA1:AA6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="U2:X4"/>
-    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="Y2:Z4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="Q2:R4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -68798,13 +68799,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347BF607-D574-4A93-99C4-2FCC93446D42}">
   <dimension ref="A1:D801"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="G795" sqref="G795"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
         <v>63</v>
       </c>
@@ -68815,5604 +68816,5600 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="83"/>
       <c r="B2" s="83"/>
       <c r="D2">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="43">
-        <v>1</v>
-      </c>
-      <c r="B3" s="43">
-        <v>20</v>
-      </c>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
       <c r="D3">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" s="43"/>
       <c r="D4">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" s="43"/>
       <c r="D5">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" s="43"/>
       <c r="D6">
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" s="43"/>
       <c r="D7">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" s="43"/>
       <c r="D8">
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" s="43"/>
       <c r="D9">
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" s="43"/>
       <c r="D10">
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="43"/>
       <c r="D11">
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="43"/>
       <c r="D12">
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
       <c r="B13" s="43"/>
       <c r="D13">
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
       <c r="B14" s="43"/>
       <c r="D14">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="43"/>
       <c r="B15" s="43"/>
       <c r="D15">
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="43"/>
       <c r="B16" s="43"/>
       <c r="D16">
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
       <c r="B17" s="43"/>
       <c r="D17">
         <v>10000</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
       <c r="B18" s="43"/>
       <c r="D18">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="43"/>
       <c r="D19">
         <v>10000</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="43"/>
       <c r="D20">
         <v>10000</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="43"/>
       <c r="D21">
         <v>10000</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="D22">
         <v>10000</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="43"/>
       <c r="B23" s="43"/>
       <c r="D23">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="43"/>
       <c r="B24" s="43"/>
       <c r="D24">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="43"/>
       <c r="B25" s="43"/>
       <c r="D25">
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="43"/>
       <c r="B26" s="43"/>
       <c r="D26">
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="43"/>
       <c r="B27" s="43"/>
       <c r="D27">
         <v>10000</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
       <c r="B28" s="43"/>
       <c r="D28">
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="43"/>
       <c r="B29" s="43"/>
       <c r="D29">
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
       <c r="B30" s="43"/>
       <c r="D30">
         <v>10000</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="43"/>
       <c r="B31" s="43"/>
       <c r="D31">
         <v>10000</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
       <c r="B32" s="43"/>
       <c r="D32">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="43"/>
       <c r="B33" s="43"/>
       <c r="D33">
         <v>10000</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="43"/>
       <c r="B34" s="43"/>
       <c r="D34">
         <v>10000</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="43"/>
       <c r="B35" s="43"/>
       <c r="D35">
         <v>10000</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="43"/>
       <c r="B36" s="43"/>
       <c r="D36">
         <v>10000</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="43"/>
       <c r="B37" s="43"/>
       <c r="D37">
         <v>10000</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="43"/>
       <c r="B38" s="43"/>
       <c r="D38">
         <v>10000</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
       <c r="B39" s="43"/>
       <c r="D39">
         <v>10000</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="43"/>
       <c r="B40" s="43"/>
       <c r="D40">
         <v>10000</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="43"/>
       <c r="B41" s="43"/>
       <c r="D41">
         <v>10000</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="43"/>
       <c r="B42" s="43"/>
       <c r="D42">
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="43"/>
       <c r="B43" s="43"/>
       <c r="D43">
         <v>10000</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="43"/>
       <c r="B44" s="43"/>
       <c r="D44">
         <v>10000</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="43"/>
       <c r="B45" s="43"/>
       <c r="D45">
         <v>10000</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="43"/>
       <c r="B46" s="43"/>
       <c r="D46">
         <v>10000</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="43"/>
       <c r="B47" s="43"/>
       <c r="D47">
         <v>10000</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="43"/>
       <c r="B48" s="43"/>
       <c r="D48">
         <v>10000</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="43"/>
       <c r="B49" s="43"/>
       <c r="D49">
         <v>10000</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="43"/>
       <c r="B50" s="43"/>
       <c r="D50">
         <v>10000</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="43"/>
       <c r="B51" s="43"/>
       <c r="D51">
         <v>10000</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="43"/>
       <c r="B52" s="43"/>
       <c r="D52">
         <v>10000</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="43"/>
       <c r="B53" s="43"/>
       <c r="D53">
         <v>10000</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="43"/>
       <c r="B54" s="43"/>
       <c r="D54">
         <v>10000</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="43"/>
       <c r="B55" s="43"/>
       <c r="D55">
         <v>10000</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="43"/>
       <c r="B56" s="43"/>
       <c r="D56">
         <v>10000</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="43"/>
       <c r="B57" s="43"/>
       <c r="D57">
         <v>10000</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="43"/>
       <c r="B58" s="43"/>
       <c r="D58">
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="43"/>
       <c r="B59" s="43"/>
       <c r="D59">
         <v>10000</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="43"/>
       <c r="B60" s="43"/>
       <c r="D60">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="43"/>
       <c r="B61" s="43"/>
       <c r="D61">
         <v>10000</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="43"/>
       <c r="B62" s="43"/>
       <c r="D62">
         <v>10000</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="43"/>
       <c r="B63" s="43"/>
       <c r="D63">
         <v>10000</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="43"/>
       <c r="B64" s="43"/>
       <c r="D64">
         <v>10000</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="43"/>
       <c r="B65" s="43"/>
       <c r="D65">
         <v>10000</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="43"/>
       <c r="B66" s="43"/>
       <c r="D66">
         <v>10000</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="43"/>
       <c r="B67" s="43"/>
       <c r="D67">
         <v>10000</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="43"/>
       <c r="B68" s="43"/>
       <c r="D68">
         <v>10000</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="43"/>
       <c r="B69" s="43"/>
       <c r="D69">
         <v>10000</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="43"/>
       <c r="B70" s="43"/>
       <c r="D70">
         <v>10000</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="43"/>
       <c r="B71" s="43"/>
       <c r="D71">
         <v>10000</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="43"/>
       <c r="B72" s="43"/>
       <c r="D72">
         <v>10000</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="43"/>
       <c r="B73" s="43"/>
       <c r="D73">
         <v>10000</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="43"/>
       <c r="B74" s="43"/>
       <c r="D74">
         <v>10000</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="43"/>
       <c r="B75" s="43"/>
       <c r="D75">
         <v>10000</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="43"/>
       <c r="B76" s="43"/>
       <c r="D76">
         <v>10000</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="43"/>
       <c r="B77" s="43"/>
       <c r="D77">
         <v>10000</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="43"/>
       <c r="B78" s="43"/>
       <c r="D78">
         <v>10000</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="43"/>
       <c r="B79" s="43"/>
       <c r="D79">
         <v>10000</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="43"/>
       <c r="B80" s="43"/>
       <c r="D80">
         <v>10000</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="43"/>
       <c r="B81" s="43"/>
       <c r="D81">
         <v>10000</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="43"/>
       <c r="B82" s="43"/>
       <c r="D82">
         <v>10000</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="43"/>
       <c r="B83" s="43"/>
       <c r="D83">
         <v>10000</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="43"/>
       <c r="B84" s="43"/>
       <c r="D84">
         <v>10000</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="43"/>
       <c r="B85" s="43"/>
       <c r="D85">
         <v>10000</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="43"/>
       <c r="B86" s="43"/>
       <c r="D86">
         <v>10000</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="43"/>
       <c r="B87" s="43"/>
       <c r="D87">
         <v>10000</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="43"/>
       <c r="B88" s="43"/>
       <c r="D88">
         <v>10000</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="43"/>
       <c r="B89" s="43"/>
       <c r="D89">
         <v>10000</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="43"/>
       <c r="B90" s="43"/>
       <c r="D90">
         <v>10000</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="43"/>
       <c r="B91" s="43"/>
       <c r="D91">
         <v>10000</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="43"/>
       <c r="B92" s="43"/>
       <c r="D92">
         <v>10000</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="43"/>
       <c r="B93" s="43"/>
       <c r="D93">
         <v>10000</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="43"/>
       <c r="B94" s="43"/>
       <c r="D94">
         <v>10000</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="43"/>
       <c r="B95" s="43"/>
       <c r="D95">
         <v>10000</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="43"/>
       <c r="B96" s="43"/>
       <c r="D96">
         <v>10000</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="43"/>
       <c r="B97" s="43"/>
       <c r="D97">
         <v>10000</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="43"/>
       <c r="B98" s="43"/>
       <c r="D98">
         <v>10000</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="43"/>
       <c r="B99" s="43"/>
       <c r="D99">
         <v>10000</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="43"/>
       <c r="B100" s="43"/>
       <c r="D100">
         <v>10000</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="43"/>
       <c r="B101" s="43"/>
       <c r="D101">
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="43"/>
       <c r="B102" s="43"/>
       <c r="D102">
         <v>10000</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="43"/>
       <c r="B103" s="43"/>
       <c r="D103">
         <v>10000</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="43"/>
       <c r="B104" s="43"/>
       <c r="D104">
         <v>10000</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="43"/>
       <c r="B105" s="43"/>
       <c r="D105">
         <v>10000</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="43"/>
       <c r="B106" s="43"/>
       <c r="D106">
         <v>10000</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="43"/>
       <c r="B107" s="43"/>
       <c r="D107">
         <v>10000</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="43"/>
       <c r="B108" s="43"/>
       <c r="D108">
         <v>10000</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="43"/>
       <c r="B109" s="43"/>
       <c r="D109">
         <v>10000</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="43"/>
       <c r="B110" s="43"/>
       <c r="D110">
         <v>10000</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="43"/>
       <c r="B111" s="43"/>
       <c r="D111">
         <v>10000</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="43"/>
       <c r="B112" s="43"/>
       <c r="D112">
         <v>10000</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="43"/>
       <c r="B113" s="43"/>
       <c r="D113">
         <v>10000</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="43"/>
       <c r="B114" s="43"/>
       <c r="D114">
         <v>10000</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="43"/>
       <c r="B115" s="43"/>
       <c r="D115">
         <v>10000</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="43"/>
       <c r="B116" s="43"/>
       <c r="D116">
         <v>10000</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="43"/>
       <c r="B117" s="43"/>
       <c r="D117">
         <v>10000</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="43"/>
       <c r="B118" s="43"/>
       <c r="D118">
         <v>10000</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="43"/>
       <c r="B119" s="43"/>
       <c r="D119">
         <v>10000</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="43"/>
       <c r="B120" s="43"/>
       <c r="D120">
         <v>10000</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="43"/>
       <c r="B121" s="43"/>
       <c r="D121">
         <v>10000</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="43"/>
       <c r="B122" s="43"/>
       <c r="D122">
         <v>10000</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="43"/>
       <c r="B123" s="43"/>
       <c r="D123">
         <v>10000</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="43"/>
       <c r="B124" s="43"/>
       <c r="D124">
         <v>10000</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="43"/>
       <c r="B125" s="43"/>
       <c r="D125">
         <v>10000</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="43"/>
       <c r="B126" s="43"/>
       <c r="D126">
         <v>10000</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="43"/>
       <c r="B127" s="43"/>
       <c r="D127">
         <v>10000</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="43"/>
       <c r="B128" s="43"/>
       <c r="D128">
         <v>10000</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="43"/>
       <c r="B129" s="43"/>
       <c r="D129">
         <v>10000</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="43"/>
       <c r="B130" s="43"/>
       <c r="D130">
         <v>10000</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="43"/>
       <c r="B131" s="43"/>
       <c r="D131">
         <v>10000</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="43"/>
       <c r="B132" s="43"/>
       <c r="D132">
         <v>10000</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="43"/>
       <c r="B133" s="43"/>
       <c r="D133">
         <v>10000</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="43"/>
       <c r="B134" s="43"/>
       <c r="D134">
         <v>10000</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="43"/>
       <c r="B135" s="43"/>
       <c r="D135">
         <v>10000</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="43"/>
       <c r="B136" s="43"/>
       <c r="D136">
         <v>10000</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="43"/>
       <c r="B137" s="43"/>
       <c r="D137">
         <v>10000</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="43"/>
       <c r="B138" s="43"/>
       <c r="D138">
         <v>10000</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="43"/>
       <c r="B139" s="43"/>
       <c r="D139">
         <v>10000</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="43"/>
       <c r="B140" s="43"/>
       <c r="D140">
         <v>10000</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="43"/>
       <c r="B141" s="43"/>
       <c r="D141">
         <v>10000</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="43"/>
       <c r="B142" s="43"/>
       <c r="D142">
         <v>10000</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="43"/>
       <c r="B143" s="43"/>
       <c r="D143">
         <v>10000</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="43"/>
       <c r="B144" s="43"/>
       <c r="D144">
         <v>10000</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="43"/>
       <c r="B145" s="43"/>
       <c r="D145">
         <v>10000</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="43"/>
       <c r="B146" s="43"/>
       <c r="D146">
         <v>10000</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="43"/>
       <c r="B147" s="43"/>
       <c r="D147">
         <v>10000</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="43"/>
       <c r="B148" s="43"/>
       <c r="D148">
         <v>10000</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="43"/>
       <c r="B149" s="43"/>
       <c r="D149">
         <v>10000</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="43"/>
       <c r="B150" s="43"/>
       <c r="D150">
         <v>10000</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="43"/>
       <c r="B151" s="43"/>
       <c r="D151">
         <v>10000</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="43"/>
       <c r="B152" s="43"/>
       <c r="D152">
         <v>10000</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="43"/>
       <c r="B153" s="43"/>
       <c r="D153">
         <v>10000</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="43"/>
       <c r="B154" s="43"/>
       <c r="D154">
         <v>10000</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="43"/>
       <c r="B155" s="43"/>
       <c r="D155">
         <v>10000</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="43"/>
       <c r="B156" s="43"/>
       <c r="D156">
         <v>10000</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="43"/>
       <c r="B157" s="43"/>
       <c r="D157">
         <v>10000</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="43"/>
       <c r="B158" s="43"/>
       <c r="D158">
         <v>10000</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="43"/>
       <c r="B159" s="43"/>
       <c r="D159">
         <v>10000</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="43"/>
       <c r="B160" s="43"/>
       <c r="D160">
         <v>10000</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="43"/>
       <c r="B161" s="43"/>
       <c r="D161">
         <v>10000</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="43"/>
       <c r="B162" s="43"/>
       <c r="D162">
         <v>10000</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="43"/>
       <c r="B163" s="43"/>
       <c r="D163">
         <v>10000</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="43"/>
       <c r="B164" s="43"/>
       <c r="D164">
         <v>10000</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="43"/>
       <c r="B165" s="43"/>
       <c r="D165">
         <v>10000</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="43"/>
       <c r="B166" s="43"/>
       <c r="D166">
         <v>10000</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="43"/>
       <c r="B167" s="43"/>
       <c r="D167">
         <v>10000</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="43"/>
       <c r="B168" s="43"/>
       <c r="D168">
         <v>10000</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="43"/>
       <c r="B169" s="43"/>
       <c r="D169">
         <v>10000</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="43"/>
       <c r="B170" s="43"/>
       <c r="D170">
         <v>10000</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="43"/>
       <c r="B171" s="43"/>
       <c r="D171">
         <v>10000</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="43"/>
       <c r="B172" s="43"/>
       <c r="D172">
         <v>10000</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="43"/>
       <c r="B173" s="43"/>
       <c r="D173">
         <v>10000</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="43"/>
       <c r="B174" s="43"/>
       <c r="D174">
         <v>10000</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="43"/>
       <c r="B175" s="43"/>
       <c r="D175">
         <v>10000</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="43"/>
       <c r="B176" s="43"/>
       <c r="D176">
         <v>10000</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="43"/>
       <c r="B177" s="43"/>
       <c r="D177">
         <v>10000</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="43"/>
       <c r="B178" s="43"/>
       <c r="D178">
         <v>10000</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="43"/>
       <c r="B179" s="43"/>
       <c r="D179">
         <v>10000</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="43"/>
       <c r="B180" s="43"/>
       <c r="D180">
         <v>10000</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="43"/>
       <c r="B181" s="43"/>
       <c r="D181">
         <v>10000</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="43"/>
       <c r="B182" s="43"/>
       <c r="D182">
         <v>10000</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="43"/>
       <c r="B183" s="43"/>
       <c r="D183">
         <v>10000</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="43"/>
       <c r="B184" s="43"/>
       <c r="D184">
         <v>10000</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="43"/>
       <c r="B185" s="43"/>
       <c r="D185">
         <v>10000</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="43"/>
       <c r="B186" s="43"/>
       <c r="D186">
         <v>10000</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="43"/>
       <c r="B187" s="43"/>
       <c r="D187">
         <v>10000</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="43"/>
       <c r="B188" s="43"/>
       <c r="D188">
         <v>10000</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="43"/>
       <c r="B189" s="43"/>
       <c r="D189">
         <v>10000</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="43"/>
       <c r="B190" s="43"/>
       <c r="D190">
         <v>10000</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="43"/>
       <c r="B191" s="43"/>
       <c r="D191">
         <v>10000</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="43"/>
       <c r="B192" s="43"/>
       <c r="D192">
         <v>10000</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="43"/>
       <c r="B193" s="43"/>
       <c r="D193">
         <v>10000</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="43"/>
       <c r="B194" s="43"/>
       <c r="D194">
         <v>10000</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="43"/>
       <c r="B195" s="43"/>
       <c r="D195">
         <v>10000</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="43"/>
       <c r="B196" s="43"/>
       <c r="D196">
         <v>10000</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="43"/>
       <c r="B197" s="43"/>
       <c r="D197">
         <v>10000</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="43"/>
       <c r="B198" s="43"/>
       <c r="D198">
         <v>10000</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="43"/>
       <c r="B199" s="43"/>
       <c r="D199">
         <v>10000</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="43"/>
       <c r="B200" s="43"/>
       <c r="D200">
         <v>10000</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="43"/>
       <c r="B201" s="43"/>
       <c r="D201">
         <v>10000</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="43"/>
       <c r="B202" s="43"/>
       <c r="D202">
         <v>10000</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="43"/>
       <c r="B203" s="43"/>
       <c r="D203">
         <v>10000</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="43"/>
       <c r="B204" s="43"/>
       <c r="D204">
         <v>10000</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="43"/>
       <c r="B205" s="43"/>
       <c r="D205">
         <v>10000</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="43"/>
       <c r="B206" s="43"/>
       <c r="D206">
         <v>10000</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="43"/>
       <c r="B207" s="43"/>
       <c r="D207">
         <v>10000</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="43"/>
       <c r="B208" s="43"/>
       <c r="D208">
         <v>10000</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="43"/>
       <c r="B209" s="43"/>
       <c r="D209">
         <v>10000</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="43"/>
       <c r="B210" s="43"/>
       <c r="D210">
         <v>10000</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="43"/>
       <c r="B211" s="43"/>
       <c r="D211">
         <v>10000</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="43"/>
       <c r="B212" s="43"/>
       <c r="D212">
         <v>10000</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="43"/>
       <c r="B213" s="43"/>
       <c r="D213">
         <v>10000</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="43"/>
       <c r="B214" s="43"/>
       <c r="D214">
         <v>10000</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="43"/>
       <c r="B215" s="43"/>
       <c r="D215">
         <v>10000</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="43"/>
       <c r="B216" s="43"/>
       <c r="D216">
         <v>10000</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="43"/>
       <c r="B217" s="43"/>
       <c r="D217">
         <v>10000</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="43"/>
       <c r="B218" s="43"/>
       <c r="D218">
         <v>10000</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="43"/>
       <c r="B219" s="43"/>
       <c r="D219">
         <v>10000</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="43"/>
       <c r="B220" s="43"/>
       <c r="D220">
         <v>10000</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="43"/>
       <c r="B221" s="43"/>
       <c r="D221">
         <v>10000</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="43"/>
       <c r="B222" s="43"/>
       <c r="D222">
         <v>10000</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="43"/>
       <c r="B223" s="43"/>
       <c r="D223">
         <v>10000</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="43"/>
       <c r="B224" s="43"/>
       <c r="D224">
         <v>10000</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="43"/>
       <c r="B225" s="43"/>
       <c r="D225">
         <v>10000</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="43"/>
       <c r="B226" s="43"/>
       <c r="D226">
         <v>10000</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="43"/>
       <c r="B227" s="43"/>
       <c r="D227">
         <v>10000</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="43"/>
       <c r="B228" s="43"/>
       <c r="D228">
         <v>10000</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="43"/>
       <c r="B229" s="43"/>
       <c r="D229">
         <v>10000</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="43"/>
       <c r="B230" s="43"/>
       <c r="D230">
         <v>10000</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="43"/>
       <c r="B231" s="43"/>
       <c r="D231">
         <v>10000</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="43"/>
       <c r="B232" s="43"/>
       <c r="D232">
         <v>10000</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="43"/>
       <c r="B233" s="43"/>
       <c r="D233">
         <v>10000</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="43"/>
       <c r="B234" s="43"/>
       <c r="D234">
         <v>10000</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="43"/>
       <c r="B235" s="43"/>
       <c r="D235">
         <v>10000</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="43"/>
       <c r="B236" s="43"/>
       <c r="D236">
         <v>10000</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="43"/>
       <c r="B237" s="43"/>
       <c r="D237">
         <v>10000</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="43"/>
       <c r="B238" s="43"/>
       <c r="D238">
         <v>10000</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="43"/>
       <c r="B239" s="43"/>
       <c r="D239">
         <v>10000</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="43"/>
       <c r="B240" s="43"/>
       <c r="D240">
         <v>10000</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="43"/>
       <c r="B241" s="43"/>
       <c r="D241">
         <v>10000</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="43"/>
       <c r="B242" s="43"/>
       <c r="D242">
         <v>10000</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="43"/>
       <c r="B243" s="43"/>
       <c r="D243">
         <v>10000</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="43"/>
       <c r="B244" s="43"/>
       <c r="D244">
         <v>10000</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="43"/>
       <c r="B245" s="43"/>
       <c r="D245">
         <v>10000</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="43"/>
       <c r="B246" s="43"/>
       <c r="D246">
         <v>10000</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="43"/>
       <c r="B247" s="43"/>
       <c r="D247">
         <v>10000</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="43"/>
       <c r="B248" s="43"/>
       <c r="D248">
         <v>10000</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="43"/>
       <c r="B249" s="43"/>
       <c r="D249">
         <v>10000</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="43"/>
       <c r="B250" s="43"/>
       <c r="D250">
         <v>10000</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="43"/>
       <c r="B251" s="43"/>
       <c r="D251">
         <v>10000</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="43"/>
       <c r="B252" s="43"/>
       <c r="D252">
         <v>10000</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="43"/>
       <c r="B253" s="43"/>
       <c r="D253">
         <v>10000</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="43"/>
       <c r="B254" s="43"/>
       <c r="D254">
         <v>10000</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="43"/>
       <c r="B255" s="43"/>
       <c r="D255">
         <v>10000</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="43"/>
       <c r="B256" s="43"/>
       <c r="D256">
         <v>10000</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="43"/>
       <c r="B257" s="43"/>
       <c r="D257">
         <v>10000</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="43"/>
       <c r="B258" s="43"/>
       <c r="D258">
         <v>10000</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="43"/>
       <c r="B259" s="43"/>
       <c r="D259">
         <v>10000</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="43"/>
       <c r="B260" s="43"/>
       <c r="D260">
         <v>10000</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="43"/>
       <c r="B261" s="43"/>
       <c r="D261">
         <v>10000</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="43"/>
       <c r="B262" s="43"/>
       <c r="D262">
         <v>10000</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="43"/>
       <c r="B263" s="43"/>
       <c r="D263">
         <v>10000</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="43"/>
       <c r="B264" s="43"/>
       <c r="D264">
         <v>10000</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="43"/>
       <c r="B265" s="43"/>
       <c r="D265">
         <v>10000</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="43"/>
       <c r="B266" s="43"/>
       <c r="D266">
         <v>10000</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="43"/>
       <c r="B267" s="43"/>
       <c r="D267">
         <v>10000</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="43"/>
       <c r="B268" s="43"/>
       <c r="D268">
         <v>10000</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="43"/>
       <c r="B269" s="43"/>
       <c r="D269">
         <v>10000</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="43"/>
       <c r="B270" s="43"/>
       <c r="D270">
         <v>10000</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="43"/>
       <c r="B271" s="43"/>
       <c r="D271">
         <v>10000</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="43"/>
       <c r="B272" s="43"/>
       <c r="D272">
         <v>10000</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="43"/>
       <c r="B273" s="43"/>
       <c r="D273">
         <v>10000</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="43"/>
       <c r="B274" s="43"/>
       <c r="D274">
         <v>10000</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="43"/>
       <c r="B275" s="43"/>
       <c r="D275">
         <v>10000</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="43"/>
       <c r="B276" s="43"/>
       <c r="D276">
         <v>10000</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="43"/>
       <c r="B277" s="43"/>
       <c r="D277">
         <v>10000</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="43"/>
       <c r="B278" s="43"/>
       <c r="D278">
         <v>10000</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="43"/>
       <c r="B279" s="43"/>
       <c r="D279">
         <v>10000</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="43"/>
       <c r="B280" s="43"/>
       <c r="D280">
         <v>10000</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="43"/>
       <c r="B281" s="43"/>
       <c r="D281">
         <v>10000</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="43"/>
       <c r="B282" s="43"/>
       <c r="D282">
         <v>10000</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="43"/>
       <c r="B283" s="43"/>
       <c r="D283">
         <v>10000</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="43"/>
       <c r="B284" s="43"/>
       <c r="D284">
         <v>10000</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="43"/>
       <c r="B285" s="43"/>
       <c r="D285">
         <v>10000</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="43"/>
       <c r="B286" s="43"/>
       <c r="D286">
         <v>10000</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="43"/>
       <c r="B287" s="43"/>
       <c r="D287">
         <v>10000</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="43"/>
       <c r="B288" s="43"/>
       <c r="D288">
         <v>10000</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="43"/>
       <c r="B289" s="43"/>
       <c r="D289">
         <v>10000</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="43"/>
       <c r="B290" s="43"/>
       <c r="D290">
         <v>10000</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="43"/>
       <c r="B291" s="43"/>
       <c r="D291">
         <v>10000</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="43"/>
       <c r="B292" s="43"/>
       <c r="D292">
         <v>10000</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="43"/>
       <c r="B293" s="43"/>
       <c r="D293">
         <v>10000</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="43"/>
       <c r="B294" s="43"/>
       <c r="D294">
         <v>10000</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="43"/>
       <c r="B295" s="43"/>
       <c r="D295">
         <v>10000</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="43"/>
       <c r="B296" s="43"/>
       <c r="D296">
         <v>10000</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="43"/>
       <c r="B297" s="43"/>
       <c r="D297">
         <v>10000</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="43"/>
       <c r="B298" s="43"/>
       <c r="D298">
         <v>10000</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="43"/>
       <c r="B299" s="43"/>
       <c r="D299">
         <v>10000</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="43"/>
       <c r="B300" s="43"/>
       <c r="D300">
         <v>10000</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="43"/>
       <c r="B301" s="43"/>
       <c r="D301">
         <v>10000</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="43"/>
       <c r="B302" s="43"/>
       <c r="D302">
         <v>10000</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="43"/>
       <c r="B303" s="43"/>
       <c r="D303">
         <v>10000</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="43"/>
       <c r="B304" s="43"/>
       <c r="D304">
         <v>10000</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="43"/>
       <c r="B305" s="43"/>
       <c r="D305">
         <v>10000</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="43"/>
       <c r="B306" s="43"/>
       <c r="D306">
         <v>10000</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="43"/>
       <c r="B307" s="43"/>
       <c r="D307">
         <v>10000</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="43"/>
       <c r="B308" s="43"/>
       <c r="D308">
         <v>10000</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="43"/>
       <c r="B309" s="43"/>
       <c r="D309">
         <v>10000</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="43"/>
       <c r="B310" s="43"/>
       <c r="D310">
         <v>10000</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="43"/>
       <c r="B311" s="43"/>
       <c r="D311">
         <v>10000</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="43"/>
       <c r="B312" s="43"/>
       <c r="D312">
         <v>10000</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="43"/>
       <c r="B313" s="43"/>
       <c r="D313">
         <v>10000</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="43"/>
       <c r="B314" s="43"/>
       <c r="D314">
         <v>10000</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="43"/>
       <c r="B315" s="43"/>
       <c r="D315">
         <v>10000</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="43"/>
       <c r="B316" s="43"/>
       <c r="D316">
         <v>10000</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="43"/>
       <c r="B317" s="43"/>
       <c r="D317">
         <v>10000</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="43"/>
       <c r="B318" s="43"/>
       <c r="D318">
         <v>10000</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="43"/>
       <c r="B319" s="43"/>
       <c r="D319">
         <v>10000</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="43"/>
       <c r="B320" s="43"/>
       <c r="D320">
         <v>10000</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="43"/>
       <c r="B321" s="43"/>
       <c r="D321">
         <v>10000</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="43"/>
       <c r="B322" s="43"/>
       <c r="D322">
         <v>10000</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="43"/>
       <c r="B323" s="43"/>
       <c r="D323">
         <v>10000</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="43"/>
       <c r="B324" s="43"/>
       <c r="D324">
         <v>10000</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="43"/>
       <c r="B325" s="43"/>
       <c r="D325">
         <v>10000</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="43"/>
       <c r="B326" s="43"/>
       <c r="D326">
         <v>10000</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="43"/>
       <c r="B327" s="43"/>
       <c r="D327">
         <v>10000</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="43"/>
       <c r="B328" s="43"/>
       <c r="D328">
         <v>10000</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="43"/>
       <c r="B329" s="43"/>
       <c r="D329">
         <v>10000</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="43"/>
       <c r="B330" s="43"/>
       <c r="D330">
         <v>10000</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="43"/>
       <c r="B331" s="43"/>
       <c r="D331">
         <v>10000</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="43"/>
       <c r="B332" s="43"/>
       <c r="D332">
         <v>10000</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="43"/>
       <c r="B333" s="43"/>
       <c r="D333">
         <v>10000</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="43"/>
       <c r="B334" s="43"/>
       <c r="D334">
         <v>10000</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="43"/>
       <c r="B335" s="43"/>
       <c r="D335">
         <v>10000</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="43"/>
       <c r="B336" s="43"/>
       <c r="D336">
         <v>10000</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="43"/>
       <c r="B337" s="43"/>
       <c r="D337">
         <v>10000</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="43"/>
       <c r="B338" s="43"/>
       <c r="D338">
         <v>10000</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="43"/>
       <c r="B339" s="43"/>
       <c r="D339">
         <v>10000</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="43"/>
       <c r="B340" s="43"/>
       <c r="D340">
         <v>10000</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="43"/>
       <c r="B341" s="43"/>
       <c r="D341">
         <v>10000</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="43"/>
       <c r="B342" s="43"/>
       <c r="D342">
         <v>10000</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="43"/>
       <c r="B343" s="43"/>
       <c r="D343">
         <v>10000</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="43"/>
       <c r="B344" s="43"/>
       <c r="D344">
         <v>10000</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="43"/>
       <c r="B345" s="43"/>
       <c r="D345">
         <v>10000</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="43"/>
       <c r="B346" s="43"/>
       <c r="D346">
         <v>10000</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="43"/>
       <c r="B347" s="43"/>
       <c r="D347">
         <v>10000</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="43"/>
       <c r="B348" s="43"/>
       <c r="D348">
         <v>10000</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="43"/>
       <c r="B349" s="43"/>
       <c r="D349">
         <v>10000</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="43"/>
       <c r="B350" s="43"/>
       <c r="D350">
         <v>10000</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="43"/>
       <c r="B351" s="43"/>
       <c r="D351">
         <v>10000</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="43"/>
       <c r="B352" s="43"/>
       <c r="D352">
         <v>10000</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="43"/>
       <c r="B353" s="43"/>
       <c r="D353">
         <v>10000</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="43"/>
       <c r="B354" s="43"/>
       <c r="D354">
         <v>10000</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="43"/>
       <c r="B355" s="43"/>
       <c r="D355">
         <v>10000</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="43"/>
       <c r="B356" s="43"/>
       <c r="D356">
         <v>10000</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="43"/>
       <c r="B357" s="43"/>
       <c r="D357">
         <v>10000</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="43"/>
       <c r="B358" s="43"/>
       <c r="D358">
         <v>10000</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="43"/>
       <c r="B359" s="43"/>
       <c r="D359">
         <v>10000</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="43"/>
       <c r="B360" s="43"/>
       <c r="D360">
         <v>10000</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="43"/>
       <c r="B361" s="43"/>
       <c r="D361">
         <v>10000</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="43"/>
       <c r="B362" s="43"/>
       <c r="D362">
         <v>10000</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="43"/>
       <c r="B363" s="43"/>
       <c r="D363">
         <v>10000</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="43"/>
       <c r="B364" s="43"/>
       <c r="D364">
         <v>10000</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="43"/>
       <c r="B365" s="43"/>
       <c r="D365">
         <v>10000</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="43"/>
       <c r="B366" s="43"/>
       <c r="D366">
         <v>10000</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="43"/>
       <c r="B367" s="43"/>
       <c r="D367">
         <v>10000</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="43"/>
       <c r="B368" s="43"/>
       <c r="D368">
         <v>10000</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="43"/>
       <c r="B369" s="43"/>
       <c r="D369">
         <v>10000</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="43"/>
       <c r="B370" s="43"/>
       <c r="D370">
         <v>10000</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="43"/>
       <c r="B371" s="43"/>
       <c r="D371">
         <v>10000</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="43"/>
       <c r="B372" s="43"/>
       <c r="D372">
         <v>10000</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="43"/>
       <c r="B373" s="43"/>
       <c r="D373">
         <v>10000</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="43"/>
       <c r="B374" s="43"/>
       <c r="D374">
         <v>10000</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="43"/>
       <c r="B375" s="43"/>
       <c r="D375">
         <v>10000</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="43"/>
       <c r="B376" s="43"/>
       <c r="D376">
         <v>10000</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="43"/>
       <c r="B377" s="43"/>
       <c r="D377">
         <v>10000</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="43"/>
       <c r="B378" s="43"/>
       <c r="D378">
         <v>10000</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="43"/>
       <c r="B379" s="43"/>
       <c r="D379">
         <v>10000</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="43"/>
       <c r="B380" s="43"/>
       <c r="D380">
         <v>10000</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="43"/>
       <c r="B381" s="43"/>
       <c r="D381">
         <v>10000</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="43"/>
       <c r="B382" s="43"/>
       <c r="D382">
         <v>10000</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="43"/>
       <c r="B383" s="43"/>
       <c r="D383">
         <v>10000</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="43"/>
       <c r="B384" s="43"/>
       <c r="D384">
         <v>10000</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="43"/>
       <c r="B385" s="43"/>
       <c r="D385">
         <v>10000</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="43"/>
       <c r="B386" s="43"/>
       <c r="D386">
         <v>10000</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="43"/>
       <c r="B387" s="43"/>
       <c r="D387">
         <v>10000</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="43"/>
       <c r="B388" s="43"/>
       <c r="D388">
         <v>10000</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="43"/>
       <c r="B389" s="43"/>
       <c r="D389">
         <v>10000</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="43"/>
       <c r="B390" s="43"/>
       <c r="D390">
         <v>10000</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="43"/>
       <c r="B391" s="43"/>
       <c r="D391">
         <v>10000</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="43"/>
       <c r="B392" s="43"/>
       <c r="D392">
         <v>10000</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="43"/>
       <c r="B393" s="43"/>
       <c r="D393">
         <v>10000</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="43"/>
       <c r="B394" s="43"/>
       <c r="D394">
         <v>10000</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="43"/>
       <c r="B395" s="43"/>
       <c r="D395">
         <v>10000</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="43"/>
       <c r="B396" s="43"/>
       <c r="D396">
         <v>10000</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="43"/>
       <c r="B397" s="43"/>
       <c r="D397">
         <v>10000</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="43"/>
       <c r="B398" s="43"/>
       <c r="D398">
         <v>10000</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="43"/>
       <c r="B399" s="43"/>
       <c r="D399">
         <v>10000</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="43"/>
       <c r="B400" s="43"/>
       <c r="D400">
         <v>10000</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="43"/>
       <c r="B401" s="43"/>
       <c r="D401">
         <v>10000</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="43"/>
       <c r="B402" s="43"/>
       <c r="D402">
         <v>10000</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="43"/>
       <c r="B403" s="43"/>
       <c r="D403">
         <v>10000</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="43"/>
       <c r="B404" s="43"/>
       <c r="D404">
         <v>10000</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="43"/>
       <c r="B405" s="43"/>
       <c r="D405">
         <v>10000</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="43"/>
       <c r="B406" s="43"/>
       <c r="D406">
         <v>10000</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="43"/>
       <c r="B407" s="43"/>
       <c r="D407">
         <v>10000</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="43"/>
       <c r="B408" s="43"/>
       <c r="D408">
         <v>10000</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="43"/>
       <c r="B409" s="43"/>
       <c r="D409">
         <v>10000</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="43"/>
       <c r="B410" s="43"/>
       <c r="D410">
         <v>10000</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="43"/>
       <c r="B411" s="43"/>
       <c r="D411">
         <v>10000</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="43"/>
       <c r="B412" s="43"/>
       <c r="D412">
         <v>10000</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="43"/>
       <c r="B413" s="43"/>
       <c r="D413">
         <v>10000</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="43"/>
       <c r="B414" s="43"/>
       <c r="D414">
         <v>10000</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="43"/>
       <c r="B415" s="43"/>
       <c r="D415">
         <v>10000</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="43"/>
       <c r="B416" s="43"/>
       <c r="D416">
         <v>10000</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="43"/>
       <c r="B417" s="43"/>
       <c r="D417">
         <v>10000</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="43"/>
       <c r="B418" s="43"/>
       <c r="D418">
         <v>10000</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="43"/>
       <c r="B419" s="43"/>
       <c r="D419">
         <v>10000</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="43"/>
       <c r="B420" s="43"/>
       <c r="D420">
         <v>10000</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="43"/>
       <c r="B421" s="43"/>
       <c r="D421">
         <v>10000</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="43"/>
       <c r="B422" s="43"/>
       <c r="D422">
         <v>10000</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="43"/>
       <c r="B423" s="43"/>
       <c r="D423">
         <v>10000</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="43"/>
       <c r="B424" s="43"/>
       <c r="D424">
         <v>10000</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="43"/>
       <c r="B425" s="43"/>
       <c r="D425">
         <v>10000</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="43"/>
       <c r="B426" s="43"/>
       <c r="D426">
         <v>10000</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="43"/>
       <c r="B427" s="43"/>
       <c r="D427">
         <v>10000</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="43"/>
       <c r="B428" s="43"/>
       <c r="D428">
         <v>10000</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="43"/>
       <c r="B429" s="43"/>
       <c r="D429">
         <v>10000</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="43"/>
       <c r="B430" s="43"/>
       <c r="D430">
         <v>10000</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="43"/>
       <c r="B431" s="43"/>
       <c r="D431">
         <v>10000</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="43"/>
       <c r="B432" s="43"/>
       <c r="D432">
         <v>10000</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="43"/>
       <c r="B433" s="43"/>
       <c r="D433">
         <v>10000</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="43"/>
       <c r="B434" s="43"/>
       <c r="D434">
         <v>10000</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="43"/>
       <c r="B435" s="43"/>
       <c r="D435">
         <v>10000</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="43"/>
       <c r="B436" s="43"/>
       <c r="D436">
         <v>10000</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="43"/>
       <c r="B437" s="43"/>
       <c r="D437">
         <v>10000</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="43"/>
       <c r="B438" s="43"/>
       <c r="D438">
         <v>10000</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="43"/>
       <c r="B439" s="43"/>
       <c r="D439">
         <v>10000</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="43"/>
       <c r="B440" s="43"/>
       <c r="D440">
         <v>10000</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="43"/>
       <c r="B441" s="43"/>
       <c r="D441">
         <v>10000</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="43"/>
       <c r="B442" s="43"/>
       <c r="D442">
         <v>10000</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="43"/>
       <c r="B443" s="43"/>
       <c r="D443">
         <v>10000</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="43"/>
       <c r="B444" s="43"/>
       <c r="D444">
         <v>10000</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="43"/>
       <c r="B445" s="43"/>
       <c r="D445">
         <v>10000</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="43"/>
       <c r="B446" s="43"/>
       <c r="D446">
         <v>10000</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="43"/>
       <c r="B447" s="43"/>
       <c r="D447">
         <v>10000</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="43"/>
       <c r="B448" s="43"/>
       <c r="D448">
         <v>10000</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="43"/>
       <c r="B449" s="43"/>
       <c r="D449">
         <v>10000</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="43"/>
       <c r="B450" s="43"/>
       <c r="D450">
         <v>10000</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="43"/>
       <c r="B451" s="43"/>
       <c r="D451">
         <v>10000</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="43"/>
       <c r="B452" s="43"/>
       <c r="D452">
         <v>10000</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="43"/>
       <c r="B453" s="43"/>
       <c r="D453">
         <v>10000</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="43"/>
       <c r="B454" s="43"/>
       <c r="D454">
         <v>10000</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="43"/>
       <c r="B455" s="43"/>
       <c r="D455">
         <v>10000</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="43"/>
       <c r="B456" s="43"/>
       <c r="D456">
         <v>10000</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="43"/>
       <c r="B457" s="43"/>
       <c r="D457">
         <v>10000</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="43"/>
       <c r="B458" s="43"/>
       <c r="D458">
         <v>10000</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="43"/>
       <c r="B459" s="43"/>
       <c r="D459">
         <v>10000</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="43"/>
       <c r="B460" s="43"/>
       <c r="D460">
         <v>10000</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="43"/>
       <c r="B461" s="43"/>
       <c r="D461">
         <v>10000</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="43"/>
       <c r="B462" s="43"/>
       <c r="D462">
         <v>10000</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="43"/>
       <c r="B463" s="43"/>
       <c r="D463">
         <v>10000</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="43"/>
       <c r="B464" s="43"/>
       <c r="D464">
         <v>10000</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="43"/>
       <c r="B465" s="43"/>
       <c r="D465">
         <v>10000</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="43"/>
       <c r="B466" s="43"/>
       <c r="D466">
         <v>10000</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="43"/>
       <c r="B467" s="43"/>
       <c r="D467">
         <v>10000</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="43"/>
       <c r="B468" s="43"/>
       <c r="D468">
         <v>10000</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="43"/>
       <c r="B469" s="43"/>
       <c r="D469">
         <v>10000</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="43"/>
       <c r="B470" s="43"/>
       <c r="D470">
         <v>10000</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="43"/>
       <c r="B471" s="43"/>
       <c r="D471">
         <v>10000</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="43"/>
       <c r="B472" s="43"/>
       <c r="D472">
         <v>10000</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="43"/>
       <c r="B473" s="43"/>
       <c r="D473">
         <v>10000</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="43"/>
       <c r="B474" s="43"/>
       <c r="D474">
         <v>10000</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="43"/>
       <c r="B475" s="43"/>
       <c r="D475">
         <v>10000</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="43"/>
       <c r="B476" s="43"/>
       <c r="D476">
         <v>10000</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="43"/>
       <c r="B477" s="43"/>
       <c r="D477">
         <v>10000</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="43"/>
       <c r="B478" s="43"/>
       <c r="D478">
         <v>10000</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="43"/>
       <c r="B479" s="43"/>
       <c r="D479">
         <v>10000</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="43"/>
       <c r="B480" s="43"/>
       <c r="D480">
         <v>10000</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="43"/>
       <c r="B481" s="43"/>
       <c r="D481">
         <v>10000</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="43"/>
       <c r="B482" s="43"/>
       <c r="D482">
         <v>10000</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="43"/>
       <c r="B483" s="43"/>
       <c r="D483">
         <v>10000</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="43"/>
       <c r="B484" s="43"/>
       <c r="D484">
         <v>10000</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="43"/>
       <c r="B485" s="43"/>
       <c r="D485">
         <v>10000</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="43"/>
       <c r="B486" s="43"/>
       <c r="D486">
         <v>10000</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="43"/>
       <c r="B487" s="43"/>
       <c r="D487">
         <v>10000</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="43"/>
       <c r="B488" s="43"/>
       <c r="D488">
         <v>10000</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="43"/>
       <c r="B489" s="43"/>
       <c r="D489">
         <v>10000</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="43"/>
       <c r="B490" s="43"/>
       <c r="D490">
         <v>10000</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="43"/>
       <c r="B491" s="43"/>
       <c r="D491">
         <v>10000</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="43"/>
       <c r="B492" s="43"/>
       <c r="D492">
         <v>10000</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="43"/>
       <c r="B493" s="43"/>
       <c r="D493">
         <v>10000</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="43"/>
       <c r="B494" s="43"/>
       <c r="D494">
         <v>10000</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="43"/>
       <c r="B495" s="43"/>
       <c r="D495">
         <v>10000</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="43"/>
       <c r="B496" s="43"/>
       <c r="D496">
         <v>10000</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="43"/>
       <c r="B497" s="43"/>
       <c r="D497">
         <v>10000</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="43"/>
       <c r="B498" s="43"/>
       <c r="D498">
         <v>10000</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" s="43"/>
       <c r="B499" s="43"/>
       <c r="D499">
         <v>10000</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" s="43"/>
       <c r="B500" s="43"/>
       <c r="D500">
         <v>10000</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" s="43"/>
       <c r="B501" s="43"/>
       <c r="D501">
         <v>10000</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" s="43"/>
       <c r="B502" s="43"/>
       <c r="D502">
         <v>10000</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" s="43"/>
       <c r="B503" s="43"/>
       <c r="D503">
         <v>10000</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="43"/>
       <c r="B504" s="43"/>
       <c r="D504">
         <v>10000</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" s="43"/>
       <c r="B505" s="43"/>
       <c r="D505">
         <v>10000</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" s="43"/>
       <c r="B506" s="43"/>
       <c r="D506">
         <v>10000</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" s="43"/>
       <c r="B507" s="43"/>
       <c r="D507">
         <v>10000</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" s="43"/>
       <c r="B508" s="43"/>
       <c r="D508">
         <v>10000</v>
       </c>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" s="43"/>
       <c r="B509" s="43"/>
       <c r="D509">
         <v>10000</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" s="43"/>
       <c r="B510" s="43"/>
       <c r="D510">
         <v>10000</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" s="43"/>
       <c r="B511" s="43"/>
       <c r="D511">
         <v>10000</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" s="43"/>
       <c r="B512" s="43"/>
       <c r="D512">
         <v>10000</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" s="43"/>
       <c r="B513" s="43"/>
       <c r="D513">
         <v>10000</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" s="43"/>
       <c r="B514" s="43"/>
       <c r="D514">
         <v>10000</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" s="43"/>
       <c r="B515" s="43"/>
       <c r="D515">
         <v>10000</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" s="43"/>
       <c r="B516" s="43"/>
       <c r="D516">
         <v>10000</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" s="43"/>
       <c r="B517" s="43"/>
       <c r="D517">
         <v>10000</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" s="43"/>
       <c r="B518" s="43"/>
       <c r="D518">
         <v>10000</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" s="43"/>
       <c r="B519" s="43"/>
       <c r="D519">
         <v>10000</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" s="43"/>
       <c r="B520" s="43"/>
       <c r="D520">
         <v>10000</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" s="43"/>
       <c r="B521" s="43"/>
       <c r="D521">
         <v>10000</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" s="43"/>
       <c r="B522" s="43"/>
       <c r="D522">
         <v>10000</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" s="43"/>
       <c r="B523" s="43"/>
       <c r="D523">
         <v>10000</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" s="43"/>
       <c r="B524" s="43"/>
       <c r="D524">
         <v>10000</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" s="43"/>
       <c r="B525" s="43"/>
       <c r="D525">
         <v>10000</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" s="43"/>
       <c r="B526" s="43"/>
       <c r="D526">
         <v>10000</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" s="43"/>
       <c r="B527" s="43"/>
       <c r="D527">
         <v>10000</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" s="43"/>
       <c r="B528" s="43"/>
       <c r="D528">
         <v>10000</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" s="43"/>
       <c r="B529" s="43"/>
       <c r="D529">
         <v>10000</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" s="43"/>
       <c r="B530" s="43"/>
       <c r="D530">
         <v>10000</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" s="43"/>
       <c r="B531" s="43"/>
       <c r="D531">
         <v>10000</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" s="43"/>
       <c r="B532" s="43"/>
       <c r="D532">
         <v>10000</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" s="43"/>
       <c r="B533" s="43"/>
       <c r="D533">
         <v>10000</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" s="43"/>
       <c r="B534" s="43"/>
       <c r="D534">
         <v>10000</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="43"/>
       <c r="B535" s="43"/>
       <c r="D535">
         <v>10000</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" s="43"/>
       <c r="B536" s="43"/>
       <c r="D536">
         <v>10000</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="43"/>
       <c r="B537" s="43"/>
       <c r="D537">
         <v>10000</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" s="43"/>
       <c r="B538" s="43"/>
       <c r="D538">
         <v>10000</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" s="43"/>
       <c r="B539" s="43"/>
       <c r="D539">
         <v>10000</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" s="43"/>
       <c r="B540" s="43"/>
       <c r="D540">
         <v>10000</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" s="43"/>
       <c r="B541" s="43"/>
       <c r="D541">
         <v>10000</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" s="43"/>
       <c r="B542" s="43"/>
       <c r="D542">
         <v>10000</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" s="43"/>
       <c r="B543" s="43"/>
       <c r="D543">
         <v>10000</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" s="43"/>
       <c r="B544" s="43"/>
       <c r="D544">
         <v>10000</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" s="43"/>
       <c r="B545" s="43"/>
       <c r="D545">
         <v>10000</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" s="43"/>
       <c r="B546" s="43"/>
       <c r="D546">
         <v>10000</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" s="43"/>
       <c r="B547" s="43"/>
       <c r="D547">
         <v>10000</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" s="43"/>
       <c r="B548" s="43"/>
       <c r="D548">
         <v>10000</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" s="43"/>
       <c r="B549" s="43"/>
       <c r="D549">
         <v>10000</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" s="43"/>
       <c r="B550" s="43"/>
       <c r="D550">
         <v>10000</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" s="43"/>
       <c r="B551" s="43"/>
       <c r="D551">
         <v>10000</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" s="43"/>
       <c r="B552" s="43"/>
       <c r="D552">
         <v>10000</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" s="43"/>
       <c r="B553" s="43"/>
       <c r="D553">
         <v>10000</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" s="43"/>
       <c r="B554" s="43"/>
       <c r="D554">
         <v>10000</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" s="43"/>
       <c r="B555" s="43"/>
       <c r="D555">
         <v>10000</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" s="43"/>
       <c r="B556" s="43"/>
       <c r="D556">
         <v>10000</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" s="43"/>
       <c r="B557" s="43"/>
       <c r="D557">
         <v>10000</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" s="43"/>
       <c r="B558" s="43"/>
       <c r="D558">
         <v>10000</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" s="43"/>
       <c r="B559" s="43"/>
       <c r="D559">
         <v>10000</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" s="43"/>
       <c r="B560" s="43"/>
       <c r="D560">
         <v>10000</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" s="43"/>
       <c r="B561" s="43"/>
       <c r="D561">
         <v>10000</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" s="43"/>
       <c r="B562" s="43"/>
       <c r="D562">
         <v>10000</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" s="43"/>
       <c r="B563" s="43"/>
       <c r="D563">
         <v>10000</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" s="43"/>
       <c r="B564" s="43"/>
       <c r="D564">
         <v>10000</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" s="43"/>
       <c r="B565" s="43"/>
       <c r="D565">
         <v>10000</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" s="43"/>
       <c r="B566" s="43"/>
       <c r="D566">
         <v>10000</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" s="43"/>
       <c r="B567" s="43"/>
       <c r="D567">
         <v>10000</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" s="43"/>
       <c r="B568" s="43"/>
       <c r="D568">
         <v>10000</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" s="43"/>
       <c r="B569" s="43"/>
       <c r="D569">
         <v>10000</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" s="43"/>
       <c r="B570" s="43"/>
       <c r="D570">
         <v>10000</v>
       </c>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" s="43"/>
       <c r="B571" s="43"/>
       <c r="D571">
         <v>10000</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" s="43"/>
       <c r="B572" s="43"/>
       <c r="D572">
         <v>10000</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" s="43"/>
       <c r="B573" s="43"/>
       <c r="D573">
         <v>10000</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" s="43"/>
       <c r="B574" s="43"/>
       <c r="D574">
         <v>10000</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" s="43"/>
       <c r="B575" s="43"/>
       <c r="D575">
         <v>10000</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" s="43"/>
       <c r="B576" s="43"/>
       <c r="D576">
         <v>10000</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" s="43"/>
       <c r="B577" s="43"/>
       <c r="D577">
         <v>10000</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" s="43"/>
       <c r="B578" s="43"/>
       <c r="D578">
         <v>10000</v>
       </c>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" s="43"/>
       <c r="B579" s="43"/>
       <c r="D579">
         <v>10000</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" s="43"/>
       <c r="B580" s="43"/>
       <c r="D580">
         <v>10000</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" s="43"/>
       <c r="B581" s="43"/>
       <c r="D581">
         <v>10000</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" s="43"/>
       <c r="B582" s="43"/>
       <c r="D582">
         <v>10000</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" s="43"/>
       <c r="B583" s="43"/>
       <c r="D583">
         <v>10000</v>
       </c>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" s="43"/>
       <c r="B584" s="43"/>
       <c r="D584">
         <v>10000</v>
       </c>
     </row>
-    <row r="585" spans="1:4">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" s="43"/>
       <c r="B585" s="43"/>
       <c r="D585">
         <v>10000</v>
       </c>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" s="43"/>
       <c r="B586" s="43"/>
       <c r="D586">
         <v>10000</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" s="43"/>
       <c r="B587" s="43"/>
       <c r="D587">
         <v>10000</v>
       </c>
     </row>
-    <row r="588" spans="1:4">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" s="43"/>
       <c r="B588" s="43"/>
       <c r="D588">
         <v>10000</v>
       </c>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" s="43"/>
       <c r="B589" s="43"/>
       <c r="D589">
         <v>10000</v>
       </c>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" s="43"/>
       <c r="B590" s="43"/>
       <c r="D590">
         <v>10000</v>
       </c>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" s="43"/>
       <c r="B591" s="43"/>
       <c r="D591">
         <v>10000</v>
       </c>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" s="43"/>
       <c r="B592" s="43"/>
       <c r="D592">
         <v>10000</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" s="43"/>
       <c r="B593" s="43"/>
       <c r="D593">
         <v>10000</v>
       </c>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" s="43"/>
       <c r="B594" s="43"/>
       <c r="D594">
         <v>10000</v>
       </c>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" s="43"/>
       <c r="B595" s="43"/>
       <c r="D595">
         <v>10000</v>
       </c>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" s="43"/>
       <c r="B596" s="43"/>
       <c r="D596">
         <v>10000</v>
       </c>
     </row>
-    <row r="597" spans="1:4">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" s="43"/>
       <c r="B597" s="43"/>
       <c r="D597">
         <v>10000</v>
       </c>
     </row>
-    <row r="598" spans="1:4">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" s="43"/>
       <c r="B598" s="43"/>
       <c r="D598">
         <v>10000</v>
       </c>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" s="43"/>
       <c r="B599" s="43"/>
       <c r="D599">
         <v>10000</v>
       </c>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" s="43"/>
       <c r="B600" s="43"/>
       <c r="D600">
         <v>10000</v>
       </c>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" s="43"/>
       <c r="B601" s="43"/>
       <c r="D601">
         <v>10000</v>
       </c>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" s="43"/>
       <c r="B602" s="43"/>
       <c r="D602">
         <v>10000</v>
       </c>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" s="43"/>
       <c r="B603" s="43"/>
       <c r="D603">
         <v>10000</v>
       </c>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" s="43"/>
       <c r="B604" s="43"/>
       <c r="D604">
         <v>10000</v>
       </c>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" s="43"/>
       <c r="B605" s="43"/>
       <c r="D605">
         <v>10000</v>
       </c>
     </row>
-    <row r="606" spans="1:4">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" s="43"/>
       <c r="B606" s="43"/>
       <c r="D606">
         <v>10000</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" s="43"/>
       <c r="B607" s="43"/>
       <c r="D607">
         <v>10000</v>
       </c>
     </row>
-    <row r="608" spans="1:4">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" s="43"/>
       <c r="B608" s="43"/>
       <c r="D608">
         <v>10000</v>
       </c>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" s="43"/>
       <c r="B609" s="43"/>
       <c r="D609">
         <v>10000</v>
       </c>
     </row>
-    <row r="610" spans="1:4">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" s="43"/>
       <c r="B610" s="43"/>
       <c r="D610">
         <v>10000</v>
       </c>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" s="43"/>
       <c r="B611" s="43"/>
       <c r="D611">
         <v>10000</v>
       </c>
     </row>
-    <row r="612" spans="1:4">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" s="43"/>
       <c r="B612" s="43"/>
       <c r="D612">
         <v>10000</v>
       </c>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" s="43"/>
       <c r="B613" s="43"/>
       <c r="D613">
         <v>10000</v>
       </c>
     </row>
-    <row r="614" spans="1:4">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" s="43"/>
       <c r="B614" s="43"/>
       <c r="D614">
         <v>10000</v>
       </c>
     </row>
-    <row r="615" spans="1:4">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615" s="43"/>
       <c r="B615" s="43"/>
       <c r="D615">
         <v>10000</v>
       </c>
     </row>
-    <row r="616" spans="1:4">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" s="43"/>
       <c r="B616" s="43"/>
       <c r="D616">
         <v>10000</v>
       </c>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" s="43"/>
       <c r="B617" s="43"/>
       <c r="D617">
         <v>10000</v>
       </c>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" s="43"/>
       <c r="B618" s="43"/>
       <c r="D618">
         <v>10000</v>
       </c>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" s="43"/>
       <c r="B619" s="43"/>
       <c r="D619">
         <v>10000</v>
       </c>
     </row>
-    <row r="620" spans="1:4">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" s="43"/>
       <c r="B620" s="43"/>
       <c r="D620">
         <v>10000</v>
       </c>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" s="43"/>
       <c r="B621" s="43"/>
       <c r="D621">
         <v>10000</v>
       </c>
     </row>
-    <row r="622" spans="1:4">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" s="43"/>
       <c r="B622" s="43"/>
       <c r="D622">
         <v>10000</v>
       </c>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" s="43"/>
       <c r="B623" s="43"/>
       <c r="D623">
         <v>10000</v>
       </c>
     </row>
-    <row r="624" spans="1:4">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" s="43"/>
       <c r="B624" s="43"/>
       <c r="D624">
         <v>10000</v>
       </c>
     </row>
-    <row r="625" spans="1:4">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" s="43"/>
       <c r="B625" s="43"/>
       <c r="D625">
         <v>10000</v>
       </c>
     </row>
-    <row r="626" spans="1:4">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" s="43"/>
       <c r="B626" s="43"/>
       <c r="D626">
         <v>10000</v>
       </c>
     </row>
-    <row r="627" spans="1:4">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" s="43"/>
       <c r="B627" s="43"/>
       <c r="D627">
         <v>10000</v>
       </c>
     </row>
-    <row r="628" spans="1:4">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" s="43"/>
       <c r="B628" s="43"/>
       <c r="D628">
         <v>10000</v>
       </c>
     </row>
-    <row r="629" spans="1:4">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" s="43"/>
       <c r="B629" s="43"/>
       <c r="D629">
         <v>10000</v>
       </c>
     </row>
-    <row r="630" spans="1:4">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" s="43"/>
       <c r="B630" s="43"/>
       <c r="D630">
         <v>10000</v>
       </c>
     </row>
-    <row r="631" spans="1:4">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" s="43"/>
       <c r="B631" s="43"/>
       <c r="D631">
         <v>10000</v>
       </c>
     </row>
-    <row r="632" spans="1:4">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" s="43"/>
       <c r="B632" s="43"/>
       <c r="D632">
         <v>10000</v>
       </c>
     </row>
-    <row r="633" spans="1:4">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" s="43"/>
       <c r="B633" s="43"/>
       <c r="D633">
         <v>10000</v>
       </c>
     </row>
-    <row r="634" spans="1:4">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" s="43"/>
       <c r="B634" s="43"/>
       <c r="D634">
         <v>10000</v>
       </c>
     </row>
-    <row r="635" spans="1:4">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" s="43"/>
       <c r="B635" s="43"/>
       <c r="D635">
         <v>10000</v>
       </c>
     </row>
-    <row r="636" spans="1:4">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" s="43"/>
       <c r="B636" s="43"/>
       <c r="D636">
         <v>10000</v>
       </c>
     </row>
-    <row r="637" spans="1:4">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" s="43"/>
       <c r="B637" s="43"/>
       <c r="D637">
         <v>10000</v>
       </c>
     </row>
-    <row r="638" spans="1:4">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" s="43"/>
       <c r="B638" s="43"/>
       <c r="D638">
         <v>10000</v>
       </c>
     </row>
-    <row r="639" spans="1:4">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" s="43"/>
       <c r="B639" s="43"/>
       <c r="D639">
         <v>10000</v>
       </c>
     </row>
-    <row r="640" spans="1:4">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" s="43"/>
       <c r="B640" s="43"/>
       <c r="D640">
         <v>10000</v>
       </c>
     </row>
-    <row r="641" spans="1:4">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" s="43"/>
       <c r="B641" s="43"/>
       <c r="D641">
         <v>10000</v>
       </c>
     </row>
-    <row r="642" spans="1:4">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" s="43"/>
       <c r="B642" s="43"/>
       <c r="D642">
         <v>10000</v>
       </c>
     </row>
-    <row r="643" spans="1:4">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" s="43"/>
       <c r="B643" s="43"/>
       <c r="D643">
         <v>10000</v>
       </c>
     </row>
-    <row r="644" spans="1:4">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" s="43"/>
       <c r="B644" s="43"/>
       <c r="D644">
         <v>10000</v>
       </c>
     </row>
-    <row r="645" spans="1:4">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" s="43"/>
       <c r="B645" s="43"/>
       <c r="D645">
         <v>10000</v>
       </c>
     </row>
-    <row r="646" spans="1:4">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" s="43"/>
       <c r="B646" s="43"/>
       <c r="D646">
         <v>10000</v>
       </c>
     </row>
-    <row r="647" spans="1:4">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" s="43"/>
       <c r="B647" s="43"/>
       <c r="D647">
         <v>10000</v>
       </c>
     </row>
-    <row r="648" spans="1:4">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" s="43"/>
       <c r="B648" s="43"/>
       <c r="D648">
         <v>10000</v>
       </c>
     </row>
-    <row r="649" spans="1:4">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" s="43"/>
       <c r="B649" s="43"/>
       <c r="D649">
         <v>10000</v>
       </c>
     </row>
-    <row r="650" spans="1:4">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" s="43"/>
       <c r="B650" s="43"/>
       <c r="D650">
         <v>10000</v>
       </c>
     </row>
-    <row r="651" spans="1:4">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" s="43"/>
       <c r="B651" s="43"/>
       <c r="D651">
         <v>10000</v>
       </c>
     </row>
-    <row r="652" spans="1:4">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" s="43"/>
       <c r="B652" s="43"/>
       <c r="D652">
         <v>10000</v>
       </c>
     </row>
-    <row r="653" spans="1:4">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" s="43"/>
       <c r="B653" s="43"/>
       <c r="D653">
         <v>10000</v>
       </c>
     </row>
-    <row r="654" spans="1:4">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" s="43"/>
       <c r="B654" s="43"/>
       <c r="D654">
         <v>10000</v>
       </c>
     </row>
-    <row r="655" spans="1:4">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" s="43"/>
       <c r="B655" s="43"/>
       <c r="D655">
         <v>10000</v>
       </c>
     </row>
-    <row r="656" spans="1:4">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" s="43"/>
       <c r="B656" s="43"/>
       <c r="D656">
         <v>10000</v>
       </c>
     </row>
-    <row r="657" spans="1:4">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" s="43"/>
       <c r="B657" s="43"/>
       <c r="D657">
         <v>10000</v>
       </c>
     </row>
-    <row r="658" spans="1:4">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" s="43"/>
       <c r="B658" s="43"/>
       <c r="D658">
         <v>10000</v>
       </c>
     </row>
-    <row r="659" spans="1:4">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" s="43"/>
       <c r="B659" s="43"/>
       <c r="D659">
         <v>10000</v>
       </c>
     </row>
-    <row r="660" spans="1:4">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" s="43"/>
       <c r="B660" s="43"/>
       <c r="D660">
         <v>10000</v>
       </c>
     </row>
-    <row r="661" spans="1:4">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" s="43"/>
       <c r="B661" s="43"/>
       <c r="D661">
         <v>10000</v>
       </c>
     </row>
-    <row r="662" spans="1:4">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" s="43"/>
       <c r="B662" s="43"/>
       <c r="D662">
         <v>10000</v>
       </c>
     </row>
-    <row r="663" spans="1:4">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" s="43"/>
       <c r="B663" s="43"/>
       <c r="D663">
         <v>10000</v>
       </c>
     </row>
-    <row r="664" spans="1:4">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" s="43"/>
       <c r="B664" s="43"/>
       <c r="D664">
         <v>10000</v>
       </c>
     </row>
-    <row r="665" spans="1:4">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" s="43"/>
       <c r="B665" s="43"/>
       <c r="D665">
         <v>10000</v>
       </c>
     </row>
-    <row r="666" spans="1:4">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" s="43"/>
       <c r="B666" s="43"/>
       <c r="D666">
         <v>10000</v>
       </c>
     </row>
-    <row r="667" spans="1:4">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" s="43"/>
       <c r="B667" s="43"/>
       <c r="D667">
         <v>10000</v>
       </c>
     </row>
-    <row r="668" spans="1:4">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" s="43"/>
       <c r="B668" s="43"/>
       <c r="D668">
         <v>10000</v>
       </c>
     </row>
-    <row r="669" spans="1:4">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" s="43"/>
       <c r="B669" s="43"/>
       <c r="D669">
         <v>10000</v>
       </c>
     </row>
-    <row r="670" spans="1:4">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" s="43"/>
       <c r="B670" s="43"/>
       <c r="D670">
         <v>10000</v>
       </c>
     </row>
-    <row r="671" spans="1:4">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" s="43"/>
       <c r="B671" s="43"/>
       <c r="D671">
         <v>10000</v>
       </c>
     </row>
-    <row r="672" spans="1:4">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" s="43"/>
       <c r="B672" s="43"/>
       <c r="D672">
         <v>10000</v>
       </c>
     </row>
-    <row r="673" spans="1:4">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" s="43"/>
       <c r="B673" s="43"/>
       <c r="D673">
         <v>10000</v>
       </c>
     </row>
-    <row r="674" spans="1:4">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" s="43"/>
       <c r="B674" s="43"/>
       <c r="D674">
         <v>10000</v>
       </c>
     </row>
-    <row r="675" spans="1:4">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" s="43"/>
       <c r="B675" s="43"/>
       <c r="D675">
         <v>10000</v>
       </c>
     </row>
-    <row r="676" spans="1:4">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" s="43"/>
       <c r="B676" s="43"/>
       <c r="D676">
         <v>10000</v>
       </c>
     </row>
-    <row r="677" spans="1:4">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" s="43"/>
       <c r="B677" s="43"/>
       <c r="D677">
         <v>10000</v>
       </c>
     </row>
-    <row r="678" spans="1:4">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" s="43"/>
       <c r="B678" s="43"/>
       <c r="D678">
         <v>10000</v>
       </c>
     </row>
-    <row r="679" spans="1:4">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" s="43"/>
       <c r="B679" s="43"/>
       <c r="D679">
         <v>10000</v>
       </c>
     </row>
-    <row r="680" spans="1:4">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" s="43"/>
       <c r="B680" s="43"/>
       <c r="D680">
         <v>10000</v>
       </c>
     </row>
-    <row r="681" spans="1:4">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" s="43"/>
       <c r="B681" s="43"/>
       <c r="D681">
         <v>10000</v>
       </c>
     </row>
-    <row r="682" spans="1:4">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682" s="43"/>
       <c r="B682" s="43"/>
       <c r="D682">
         <v>10000</v>
       </c>
     </row>
-    <row r="683" spans="1:4">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A683" s="43"/>
       <c r="B683" s="43"/>
       <c r="D683">
         <v>10000</v>
       </c>
     </row>
-    <row r="684" spans="1:4">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684" s="43"/>
       <c r="B684" s="43"/>
       <c r="D684">
         <v>10000</v>
       </c>
     </row>
-    <row r="685" spans="1:4">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685" s="43"/>
       <c r="B685" s="43"/>
       <c r="D685">
         <v>10000</v>
       </c>
     </row>
-    <row r="686" spans="1:4">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686" s="43"/>
       <c r="B686" s="43"/>
       <c r="D686">
         <v>10000</v>
       </c>
     </row>
-    <row r="687" spans="1:4">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A687" s="43"/>
       <c r="B687" s="43"/>
       <c r="D687">
         <v>10000</v>
       </c>
     </row>
-    <row r="688" spans="1:4">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A688" s="43"/>
       <c r="B688" s="43"/>
       <c r="D688">
         <v>10000</v>
       </c>
     </row>
-    <row r="689" spans="1:4">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" s="43"/>
       <c r="B689" s="43"/>
       <c r="D689">
         <v>10000</v>
       </c>
     </row>
-    <row r="690" spans="1:4">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" s="43"/>
       <c r="B690" s="43"/>
       <c r="D690">
         <v>10000</v>
       </c>
     </row>
-    <row r="691" spans="1:4">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691" s="43"/>
       <c r="B691" s="43"/>
       <c r="D691">
         <v>10000</v>
       </c>
     </row>
-    <row r="692" spans="1:4">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" s="43"/>
       <c r="B692" s="43"/>
       <c r="D692">
         <v>10000</v>
       </c>
     </row>
-    <row r="693" spans="1:4">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693" s="43"/>
       <c r="B693" s="43"/>
       <c r="D693">
         <v>10000</v>
       </c>
     </row>
-    <row r="694" spans="1:4">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694" s="43"/>
       <c r="B694" s="43"/>
       <c r="D694">
         <v>10000</v>
       </c>
     </row>
-    <row r="695" spans="1:4">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A695" s="43"/>
       <c r="B695" s="43"/>
       <c r="D695">
         <v>10000</v>
       </c>
     </row>
-    <row r="696" spans="1:4">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A696" s="43"/>
       <c r="B696" s="43"/>
       <c r="D696">
         <v>10000</v>
       </c>
     </row>
-    <row r="697" spans="1:4">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697" s="43"/>
       <c r="B697" s="43"/>
       <c r="D697">
         <v>10000</v>
       </c>
     </row>
-    <row r="698" spans="1:4">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A698" s="43"/>
       <c r="B698" s="43"/>
       <c r="D698">
         <v>10000</v>
       </c>
     </row>
-    <row r="699" spans="1:4">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A699" s="43"/>
       <c r="B699" s="43"/>
       <c r="D699">
         <v>10000</v>
       </c>
     </row>
-    <row r="700" spans="1:4">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A700" s="43"/>
       <c r="B700" s="43"/>
       <c r="D700">
         <v>10000</v>
       </c>
     </row>
-    <row r="701" spans="1:4">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A701" s="43"/>
       <c r="B701" s="43"/>
       <c r="D701">
         <v>10000</v>
       </c>
     </row>
-    <row r="702" spans="1:4">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A702" s="43"/>
       <c r="B702" s="43"/>
       <c r="D702">
         <v>10000</v>
       </c>
     </row>
-    <row r="703" spans="1:4">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A703" s="43"/>
       <c r="B703" s="43"/>
       <c r="D703">
         <v>10000</v>
       </c>
     </row>
-    <row r="704" spans="1:4">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A704" s="43"/>
       <c r="B704" s="43"/>
       <c r="D704">
         <v>10000</v>
       </c>
     </row>
-    <row r="705" spans="1:4">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705" s="43"/>
       <c r="B705" s="43"/>
       <c r="D705">
         <v>10000</v>
       </c>
     </row>
-    <row r="706" spans="1:4">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706" s="43"/>
       <c r="B706" s="43"/>
       <c r="D706">
         <v>10000</v>
       </c>
     </row>
-    <row r="707" spans="1:4">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707" s="43"/>
       <c r="B707" s="43"/>
       <c r="D707">
         <v>10000</v>
       </c>
     </row>
-    <row r="708" spans="1:4">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A708" s="43"/>
       <c r="B708" s="43"/>
       <c r="D708">
         <v>10000</v>
       </c>
     </row>
-    <row r="709" spans="1:4">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709" s="43"/>
       <c r="B709" s="43"/>
       <c r="D709">
         <v>10000</v>
       </c>
     </row>
-    <row r="710" spans="1:4">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710" s="43"/>
       <c r="B710" s="43"/>
       <c r="D710">
         <v>10000</v>
       </c>
     </row>
-    <row r="711" spans="1:4">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A711" s="43"/>
       <c r="B711" s="43"/>
       <c r="D711">
         <v>10000</v>
       </c>
     </row>
-    <row r="712" spans="1:4">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712" s="43"/>
       <c r="B712" s="43"/>
       <c r="D712">
         <v>10000</v>
       </c>
     </row>
-    <row r="713" spans="1:4">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" s="43"/>
       <c r="B713" s="43"/>
       <c r="D713">
         <v>10000</v>
       </c>
     </row>
-    <row r="714" spans="1:4">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714" s="43"/>
       <c r="B714" s="43"/>
       <c r="D714">
         <v>10000</v>
       </c>
     </row>
-    <row r="715" spans="1:4">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715" s="43"/>
       <c r="B715" s="43"/>
       <c r="D715">
         <v>10000</v>
       </c>
     </row>
-    <row r="716" spans="1:4">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A716" s="43"/>
       <c r="B716" s="43"/>
       <c r="D716">
         <v>10000</v>
       </c>
     </row>
-    <row r="717" spans="1:4">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A717" s="43"/>
       <c r="B717" s="43"/>
       <c r="D717">
         <v>10000</v>
       </c>
     </row>
-    <row r="718" spans="1:4">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A718" s="43"/>
       <c r="B718" s="43"/>
       <c r="D718">
         <v>10000</v>
       </c>
     </row>
-    <row r="719" spans="1:4">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A719" s="43"/>
       <c r="B719" s="43"/>
       <c r="D719">
         <v>10000</v>
       </c>
     </row>
-    <row r="720" spans="1:4">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A720" s="43"/>
       <c r="B720" s="43"/>
       <c r="D720">
         <v>10000</v>
       </c>
     </row>
-    <row r="721" spans="1:4">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A721" s="43"/>
       <c r="B721" s="43"/>
       <c r="D721">
         <v>10000</v>
       </c>
     </row>
-    <row r="722" spans="1:4">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A722" s="43"/>
       <c r="B722" s="43"/>
       <c r="D722">
         <v>10000</v>
       </c>
     </row>
-    <row r="723" spans="1:4">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A723" s="43"/>
       <c r="B723" s="43"/>
       <c r="D723">
         <v>10000</v>
       </c>
     </row>
-    <row r="724" spans="1:4">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A724" s="43"/>
       <c r="B724" s="43"/>
       <c r="D724">
         <v>10000</v>
       </c>
     </row>
-    <row r="725" spans="1:4">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725" s="43"/>
       <c r="B725" s="43"/>
       <c r="D725">
         <v>10000</v>
       </c>
     </row>
-    <row r="726" spans="1:4">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A726" s="43"/>
       <c r="B726" s="43"/>
       <c r="D726">
         <v>10000</v>
       </c>
     </row>
-    <row r="727" spans="1:4">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727" s="43"/>
       <c r="B727" s="43"/>
       <c r="D727">
         <v>10000</v>
       </c>
     </row>
-    <row r="728" spans="1:4">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A728" s="43"/>
       <c r="B728" s="43"/>
       <c r="D728">
         <v>10000</v>
       </c>
     </row>
-    <row r="729" spans="1:4">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729" s="43"/>
       <c r="B729" s="43"/>
       <c r="D729">
         <v>10000</v>
       </c>
     </row>
-    <row r="730" spans="1:4">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A730" s="43"/>
       <c r="B730" s="43"/>
       <c r="D730">
         <v>10000</v>
       </c>
     </row>
-    <row r="731" spans="1:4">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731" s="43"/>
       <c r="B731" s="43"/>
       <c r="D731">
         <v>10000</v>
       </c>
     </row>
-    <row r="732" spans="1:4">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A732" s="43"/>
       <c r="B732" s="43"/>
       <c r="D732">
         <v>10000</v>
       </c>
     </row>
-    <row r="733" spans="1:4">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733" s="43"/>
       <c r="B733" s="43"/>
       <c r="D733">
         <v>10000</v>
       </c>
     </row>
-    <row r="734" spans="1:4">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A734" s="43"/>
       <c r="B734" s="43"/>
       <c r="D734">
         <v>10000</v>
       </c>
     </row>
-    <row r="735" spans="1:4">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735" s="43"/>
       <c r="B735" s="43"/>
       <c r="D735">
         <v>10000</v>
       </c>
     </row>
-    <row r="736" spans="1:4">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A736" s="43"/>
       <c r="B736" s="43"/>
       <c r="D736">
         <v>10000</v>
       </c>
     </row>
-    <row r="737" spans="1:4">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A737" s="43"/>
       <c r="B737" s="43"/>
       <c r="D737">
         <v>10000</v>
       </c>
     </row>
-    <row r="738" spans="1:4">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A738" s="43"/>
       <c r="B738" s="43"/>
       <c r="D738">
         <v>10000</v>
       </c>
     </row>
-    <row r="739" spans="1:4">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A739" s="43"/>
       <c r="B739" s="43"/>
       <c r="D739">
         <v>10000</v>
       </c>
     </row>
-    <row r="740" spans="1:4">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A740" s="43"/>
       <c r="B740" s="43"/>
       <c r="D740">
         <v>10000</v>
       </c>
     </row>
-    <row r="741" spans="1:4">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A741" s="43"/>
       <c r="B741" s="43"/>
       <c r="D741">
         <v>10000</v>
       </c>
     </row>
-    <row r="742" spans="1:4">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A742" s="43"/>
       <c r="B742" s="43"/>
       <c r="D742">
         <v>10000</v>
       </c>
     </row>
-    <row r="743" spans="1:4">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A743" s="43"/>
       <c r="B743" s="43"/>
       <c r="D743">
         <v>10000</v>
       </c>
     </row>
-    <row r="744" spans="1:4">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A744" s="43"/>
       <c r="B744" s="43"/>
       <c r="D744">
         <v>10000</v>
       </c>
     </row>
-    <row r="745" spans="1:4">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A745" s="43"/>
       <c r="B745" s="43"/>
       <c r="D745">
         <v>10000</v>
       </c>
     </row>
-    <row r="746" spans="1:4">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A746" s="43"/>
       <c r="B746" s="43"/>
       <c r="D746">
         <v>10000</v>
       </c>
     </row>
-    <row r="747" spans="1:4">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A747" s="43"/>
       <c r="B747" s="43"/>
       <c r="D747">
         <v>10000</v>
       </c>
     </row>
-    <row r="748" spans="1:4">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A748" s="43"/>
       <c r="B748" s="43"/>
       <c r="D748">
         <v>10000</v>
       </c>
     </row>
-    <row r="749" spans="1:4">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A749" s="43"/>
       <c r="B749" s="43"/>
       <c r="D749">
         <v>10000</v>
       </c>
     </row>
-    <row r="750" spans="1:4">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A750" s="43"/>
       <c r="B750" s="43"/>
       <c r="D750">
         <v>10000</v>
       </c>
     </row>
-    <row r="751" spans="1:4">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A751" s="43"/>
       <c r="B751" s="43"/>
       <c r="D751">
         <v>10000</v>
       </c>
     </row>
-    <row r="752" spans="1:4">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A752" s="43"/>
       <c r="B752" s="43"/>
       <c r="D752">
         <v>10000</v>
       </c>
     </row>
-    <row r="753" spans="1:4">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753" s="43"/>
       <c r="B753" s="43"/>
       <c r="D753">
         <v>10000</v>
       </c>
     </row>
-    <row r="754" spans="1:4">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A754" s="43"/>
       <c r="B754" s="43"/>
       <c r="D754">
         <v>10000</v>
       </c>
     </row>
-    <row r="755" spans="1:4">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A755" s="43"/>
       <c r="B755" s="43"/>
       <c r="D755">
         <v>10000</v>
       </c>
     </row>
-    <row r="756" spans="1:4">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A756" s="43"/>
       <c r="B756" s="43"/>
       <c r="D756">
         <v>10000</v>
       </c>
     </row>
-    <row r="757" spans="1:4">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A757" s="43"/>
       <c r="B757" s="43"/>
       <c r="D757">
         <v>10000</v>
       </c>
     </row>
-    <row r="758" spans="1:4">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A758" s="43"/>
       <c r="B758" s="43"/>
       <c r="D758">
         <v>10000</v>
       </c>
     </row>
-    <row r="759" spans="1:4">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A759" s="43"/>
       <c r="B759" s="43"/>
       <c r="D759">
         <v>10000</v>
       </c>
     </row>
-    <row r="760" spans="1:4">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A760" s="43"/>
       <c r="B760" s="43"/>
       <c r="D760">
         <v>10000</v>
       </c>
     </row>
-    <row r="761" spans="1:4">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A761" s="43"/>
       <c r="B761" s="43"/>
       <c r="D761">
         <v>10000</v>
       </c>
     </row>
-    <row r="762" spans="1:4">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A762" s="43"/>
       <c r="B762" s="43"/>
       <c r="D762">
         <v>10000</v>
       </c>
     </row>
-    <row r="763" spans="1:4">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A763" s="43"/>
       <c r="B763" s="43"/>
       <c r="D763">
         <v>10000</v>
       </c>
     </row>
-    <row r="764" spans="1:4">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A764" s="43"/>
       <c r="B764" s="43"/>
       <c r="D764">
         <v>10000</v>
       </c>
     </row>
-    <row r="765" spans="1:4">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A765" s="43"/>
       <c r="B765" s="43"/>
       <c r="D765">
         <v>10000</v>
       </c>
     </row>
-    <row r="766" spans="1:4">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A766" s="43"/>
       <c r="B766" s="43"/>
       <c r="D766">
         <v>10000</v>
       </c>
     </row>
-    <row r="767" spans="1:4">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A767" s="43"/>
       <c r="B767" s="43"/>
       <c r="D767">
         <v>10000</v>
       </c>
     </row>
-    <row r="768" spans="1:4">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A768" s="43"/>
       <c r="B768" s="43"/>
       <c r="D768">
         <v>10000</v>
       </c>
     </row>
-    <row r="769" spans="1:4">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A769" s="43"/>
       <c r="B769" s="43"/>
       <c r="D769">
         <v>10000</v>
       </c>
     </row>
-    <row r="770" spans="1:4">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A770" s="43"/>
       <c r="B770" s="43"/>
       <c r="D770">
         <v>10000</v>
       </c>
     </row>
-    <row r="771" spans="1:4">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A771" s="43"/>
       <c r="B771" s="43"/>
       <c r="D771">
         <v>10000</v>
       </c>
     </row>
-    <row r="772" spans="1:4">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A772" s="43"/>
       <c r="B772" s="43"/>
       <c r="D772">
         <v>10000</v>
       </c>
     </row>
-    <row r="773" spans="1:4">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A773" s="43"/>
       <c r="B773" s="43"/>
       <c r="D773">
         <v>10000</v>
       </c>
     </row>
-    <row r="774" spans="1:4">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A774" s="43"/>
       <c r="B774" s="43"/>
       <c r="D774">
         <v>10000</v>
       </c>
     </row>
-    <row r="775" spans="1:4">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A775" s="43"/>
       <c r="B775" s="43"/>
       <c r="D775">
         <v>10000</v>
       </c>
     </row>
-    <row r="776" spans="1:4">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A776" s="43"/>
       <c r="B776" s="43"/>
       <c r="D776">
         <v>10000</v>
       </c>
     </row>
-    <row r="777" spans="1:4">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777" s="43"/>
       <c r="B777" s="43"/>
       <c r="D777">
         <v>10000</v>
       </c>
     </row>
-    <row r="778" spans="1:4">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A778" s="43"/>
       <c r="B778" s="43"/>
       <c r="D778">
         <v>10000</v>
       </c>
     </row>
-    <row r="779" spans="1:4">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779" s="43"/>
       <c r="B779" s="43"/>
       <c r="D779">
         <v>10000</v>
       </c>
     </row>
-    <row r="780" spans="1:4">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A780" s="43"/>
       <c r="B780" s="43"/>
       <c r="D780">
         <v>10000</v>
       </c>
     </row>
-    <row r="781" spans="1:4">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A781" s="43"/>
       <c r="B781" s="43"/>
       <c r="D781">
         <v>10000</v>
       </c>
     </row>
-    <row r="782" spans="1:4">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A782" s="43"/>
       <c r="B782" s="43"/>
       <c r="D782">
         <v>10000</v>
       </c>
     </row>
-    <row r="783" spans="1:4">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A783" s="43"/>
       <c r="B783" s="43"/>
       <c r="D783">
         <v>10000</v>
       </c>
     </row>
-    <row r="784" spans="1:4">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A784" s="43"/>
       <c r="B784" s="43"/>
       <c r="D784">
         <v>10000</v>
       </c>
     </row>
-    <row r="785" spans="1:4">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A785" s="43"/>
       <c r="B785" s="43"/>
       <c r="D785">
         <v>10000</v>
       </c>
     </row>
-    <row r="786" spans="1:4">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A786" s="43"/>
       <c r="B786" s="43"/>
       <c r="D786">
         <v>10000</v>
       </c>
     </row>
-    <row r="787" spans="1:4">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A787" s="43"/>
       <c r="B787" s="43"/>
       <c r="D787">
         <v>10000</v>
       </c>
     </row>
-    <row r="788" spans="1:4">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A788" s="43"/>
       <c r="B788" s="43"/>
       <c r="D788">
         <v>10000</v>
       </c>
     </row>
-    <row r="789" spans="1:4">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A789" s="43"/>
       <c r="B789" s="43"/>
       <c r="D789">
         <v>10000</v>
       </c>
     </row>
-    <row r="790" spans="1:4">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A790" s="43"/>
       <c r="B790" s="43"/>
       <c r="D790">
         <v>10000</v>
       </c>
     </row>
-    <row r="791" spans="1:4">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A791" s="43"/>
       <c r="B791" s="43"/>
       <c r="D791">
         <v>10000</v>
       </c>
     </row>
-    <row r="792" spans="1:4">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A792" s="43"/>
       <c r="B792" s="43"/>
       <c r="D792">
         <v>10000</v>
       </c>
     </row>
-    <row r="793" spans="1:4">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A793" s="43"/>
       <c r="B793" s="43"/>
       <c r="D793">
         <v>10000</v>
       </c>
     </row>
-    <row r="794" spans="1:4">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A794" s="43"/>
       <c r="B794" s="43"/>
       <c r="D794">
         <v>10000</v>
       </c>
     </row>
-    <row r="795" spans="1:4">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A795" s="43"/>
       <c r="B795" s="43"/>
       <c r="D795">
         <v>10000</v>
       </c>
     </row>
-    <row r="796" spans="1:4">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A796" s="43"/>
       <c r="B796" s="43"/>
       <c r="D796">
         <v>10000</v>
       </c>
     </row>
-    <row r="797" spans="1:4">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A797" s="43"/>
       <c r="B797" s="43"/>
       <c r="D797">
         <v>10000</v>
       </c>
     </row>
-    <row r="798" spans="1:4">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A798" s="43"/>
       <c r="B798" s="43"/>
       <c r="D798">
         <v>10000</v>
       </c>
     </row>
-    <row r="799" spans="1:4">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A799" s="43"/>
       <c r="B799" s="43"/>
       <c r="D799">
         <v>10000</v>
       </c>
     </row>
-    <row r="800" spans="1:4">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A800" s="43"/>
       <c r="B800" s="43"/>
       <c r="D800">
         <v>10000</v>
       </c>
     </row>
-    <row r="801" spans="1:4">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A801" s="43"/>
       <c r="B801" s="43"/>
       <c r="D801">
